--- a/BackTest/2020-01-14 BackTest LBA.xlsx
+++ b/BackTest/2020-01-14 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:M164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>23.6</v>
       </c>
       <c r="C2" t="n">
-        <v>23.45</v>
+        <v>23.71</v>
       </c>
       <c r="D2" t="n">
+        <v>23.71</v>
+      </c>
+      <c r="E2" t="n">
         <v>23.6</v>
       </c>
-      <c r="E2" t="n">
-        <v>23.45</v>
-      </c>
       <c r="F2" t="n">
-        <v>5000</v>
+        <v>50062.75734588781</v>
       </c>
       <c r="G2" t="n">
-        <v>23.76066666666666</v>
+        <v>23.76483333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.45</v>
+        <v>23.6</v>
       </c>
       <c r="C3" t="n">
         <v>23.45</v>
       </c>
       <c r="D3" t="n">
-        <v>23.45</v>
+        <v>23.6</v>
       </c>
       <c r="E3" t="n">
         <v>23.45</v>
       </c>
       <c r="F3" t="n">
-        <v>616.12</v>
+        <v>5000</v>
       </c>
       <c r="G3" t="n">
-        <v>23.7565</v>
+        <v>23.76066666666666</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>23.45</v>
       </c>
       <c r="F4" t="n">
-        <v>4105.1056</v>
+        <v>616.12</v>
       </c>
       <c r="G4" t="n">
-        <v>23.75216666666666</v>
+        <v>23.7565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23.6</v>
+        <v>23.45</v>
       </c>
       <c r="C5" t="n">
         <v>23.45</v>
       </c>
       <c r="D5" t="n">
-        <v>23.6</v>
+        <v>23.45</v>
       </c>
       <c r="E5" t="n">
         <v>23.45</v>
       </c>
       <c r="F5" t="n">
-        <v>654.6928</v>
+        <v>4105.1056</v>
       </c>
       <c r="G5" t="n">
-        <v>23.74799999999999</v>
+        <v>23.75216666666666</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.61</v>
+        <v>23.6</v>
       </c>
       <c r="C6" t="n">
-        <v>23.47</v>
+        <v>23.45</v>
       </c>
       <c r="D6" t="n">
-        <v>23.61</v>
+        <v>23.6</v>
       </c>
       <c r="E6" t="n">
-        <v>23.47</v>
+        <v>23.45</v>
       </c>
       <c r="F6" t="n">
-        <v>8184.86</v>
+        <v>654.6928</v>
       </c>
       <c r="G6" t="n">
-        <v>23.74399999999999</v>
+        <v>23.74799999999999</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.47</v>
+        <v>23.61</v>
       </c>
       <c r="C7" t="n">
         <v>23.47</v>
       </c>
       <c r="D7" t="n">
-        <v>23.47</v>
+        <v>23.61</v>
       </c>
       <c r="E7" t="n">
         <v>23.47</v>
       </c>
       <c r="F7" t="n">
-        <v>16526.7873</v>
+        <v>8184.86</v>
       </c>
       <c r="G7" t="n">
-        <v>23.74816666666666</v>
+        <v>23.74399999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -646,16 +646,16 @@
         <v>23.47</v>
       </c>
       <c r="C8" t="n">
-        <v>23.4</v>
+        <v>23.47</v>
       </c>
       <c r="D8" t="n">
         <v>23.47</v>
       </c>
       <c r="E8" t="n">
-        <v>23.4</v>
+        <v>23.47</v>
       </c>
       <c r="F8" t="n">
-        <v>34759.0672</v>
+        <v>16526.7873</v>
       </c>
       <c r="G8" t="n">
         <v>23.74816666666666</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.3</v>
+        <v>23.47</v>
       </c>
       <c r="C9" t="n">
-        <v>23.24</v>
+        <v>23.4</v>
       </c>
       <c r="D9" t="n">
-        <v>23.3</v>
+        <v>23.47</v>
       </c>
       <c r="E9" t="n">
-        <v>23.23</v>
+        <v>23.4</v>
       </c>
       <c r="F9" t="n">
-        <v>75235.5529</v>
+        <v>34759.0672</v>
       </c>
       <c r="G9" t="n">
-        <v>23.74216666666666</v>
+        <v>23.74816666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>23.3</v>
       </c>
       <c r="C10" t="n">
-        <v>23.02</v>
+        <v>23.24</v>
       </c>
       <c r="D10" t="n">
         <v>23.3</v>
       </c>
       <c r="E10" t="n">
-        <v>23.02</v>
+        <v>23.23</v>
       </c>
       <c r="F10" t="n">
-        <v>240849.4162</v>
+        <v>75235.5529</v>
       </c>
       <c r="G10" t="n">
-        <v>23.72699999999999</v>
+        <v>23.74216666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C11" t="n">
-        <v>23.2</v>
+        <v>23.02</v>
       </c>
       <c r="D11" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="E11" t="n">
-        <v>23.2</v>
+        <v>23.02</v>
       </c>
       <c r="F11" t="n">
-        <v>3009.9761</v>
+        <v>240849.4162</v>
       </c>
       <c r="G11" t="n">
-        <v>23.71866666666666</v>
+        <v>23.72699999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.35</v>
+        <v>23.2</v>
       </c>
       <c r="C12" t="n">
-        <v>23.35</v>
+        <v>23.2</v>
       </c>
       <c r="D12" t="n">
-        <v>23.35</v>
+        <v>23.2</v>
       </c>
       <c r="E12" t="n">
-        <v>23.35</v>
+        <v>23.2</v>
       </c>
       <c r="F12" t="n">
-        <v>1270.4355</v>
+        <v>3009.9761</v>
       </c>
       <c r="G12" t="n">
-        <v>23.71566666666666</v>
+        <v>23.71866666666666</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>23.35</v>
       </c>
       <c r="F13" t="n">
-        <v>89693.5738</v>
+        <v>1270.4355</v>
       </c>
       <c r="G13" t="n">
-        <v>23.71249999999999</v>
+        <v>23.71566666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23.36</v>
+        <v>23.35</v>
       </c>
       <c r="C14" t="n">
-        <v>23.36</v>
+        <v>23.35</v>
       </c>
       <c r="D14" t="n">
-        <v>23.36</v>
+        <v>23.35</v>
       </c>
       <c r="E14" t="n">
-        <v>23.36</v>
+        <v>23.35</v>
       </c>
       <c r="F14" t="n">
-        <v>4920.5991</v>
+        <v>89693.5738</v>
       </c>
       <c r="G14" t="n">
-        <v>23.70966666666666</v>
+        <v>23.71249999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>23.36</v>
       </c>
       <c r="F15" t="n">
-        <v>193.0084</v>
+        <v>4920.5991</v>
       </c>
       <c r="G15" t="n">
-        <v>23.70899999999999</v>
+        <v>23.70966666666666</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>23.36</v>
       </c>
       <c r="F16" t="n">
-        <v>7098.8423</v>
+        <v>193.0084</v>
       </c>
       <c r="G16" t="n">
-        <v>23.71166666666665</v>
+        <v>23.70899999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23.4</v>
+        <v>23.36</v>
       </c>
       <c r="C17" t="n">
-        <v>23.4</v>
+        <v>23.36</v>
       </c>
       <c r="D17" t="n">
-        <v>23.4</v>
+        <v>23.36</v>
       </c>
       <c r="E17" t="n">
-        <v>23.4</v>
+        <v>23.36</v>
       </c>
       <c r="F17" t="n">
-        <v>602.4761</v>
+        <v>7098.8423</v>
       </c>
       <c r="G17" t="n">
         <v>23.71166666666665</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="C18" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="D18" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="E18" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="F18" t="n">
-        <v>58355.2628</v>
+        <v>602.4761</v>
       </c>
       <c r="G18" t="n">
-        <v>23.71333333333332</v>
+        <v>23.71166666666665</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>23.5</v>
       </c>
       <c r="F19" t="n">
-        <v>36480.3279</v>
+        <v>58355.2628</v>
       </c>
       <c r="G19" t="n">
-        <v>23.71383333333332</v>
+        <v>23.71333333333332</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>23.5</v>
       </c>
       <c r="F20" t="n">
-        <v>616.0779</v>
+        <v>36480.3279</v>
       </c>
       <c r="G20" t="n">
-        <v>23.71416666666665</v>
+        <v>23.71383333333332</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>23.5</v>
       </c>
       <c r="F21" t="n">
-        <v>15772.7713</v>
+        <v>616.0779</v>
       </c>
       <c r="G21" t="n">
-        <v>23.71733333333332</v>
+        <v>23.71416666666665</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>23.52</v>
+        <v>23.5</v>
       </c>
       <c r="C22" t="n">
-        <v>23.52</v>
+        <v>23.5</v>
       </c>
       <c r="D22" t="n">
-        <v>23.52</v>
+        <v>23.5</v>
       </c>
       <c r="E22" t="n">
-        <v>23.52</v>
+        <v>23.5</v>
       </c>
       <c r="F22" t="n">
-        <v>25093.9935</v>
+        <v>15772.7713</v>
       </c>
       <c r="G22" t="n">
-        <v>23.71666666666665</v>
+        <v>23.71733333333332</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>23.49</v>
+        <v>23.52</v>
       </c>
       <c r="C23" t="n">
         <v>23.52</v>
@@ -1177,13 +1177,13 @@
         <v>23.52</v>
       </c>
       <c r="E23" t="n">
-        <v>23.49</v>
+        <v>23.52</v>
       </c>
       <c r="F23" t="n">
-        <v>15551.2911</v>
+        <v>25093.9935</v>
       </c>
       <c r="G23" t="n">
-        <v>23.71266666666665</v>
+        <v>23.71666666666665</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>23.42</v>
+        <v>23.49</v>
       </c>
       <c r="C24" t="n">
-        <v>23.54</v>
+        <v>23.52</v>
       </c>
       <c r="D24" t="n">
-        <v>23.54</v>
+        <v>23.52</v>
       </c>
       <c r="E24" t="n">
-        <v>23.42</v>
+        <v>23.49</v>
       </c>
       <c r="F24" t="n">
-        <v>25250.9571</v>
+        <v>15551.2911</v>
       </c>
       <c r="G24" t="n">
-        <v>23.70733333333332</v>
+        <v>23.71266666666665</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23.54</v>
+        <v>23.42</v>
       </c>
       <c r="C25" t="n">
         <v>23.54</v>
@@ -1247,13 +1247,13 @@
         <v>23.54</v>
       </c>
       <c r="E25" t="n">
-        <v>23.54</v>
+        <v>23.42</v>
       </c>
       <c r="F25" t="n">
-        <v>1746.159</v>
+        <v>25250.9571</v>
       </c>
       <c r="G25" t="n">
-        <v>23.69749999999998</v>
+        <v>23.70733333333332</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23.86</v>
+        <v>23.54</v>
       </c>
       <c r="C26" t="n">
-        <v>23.86</v>
+        <v>23.54</v>
       </c>
       <c r="D26" t="n">
-        <v>23.86</v>
+        <v>23.54</v>
       </c>
       <c r="E26" t="n">
-        <v>23.86</v>
+        <v>23.54</v>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>1746.159</v>
       </c>
       <c r="G26" t="n">
-        <v>23.69466666666665</v>
+        <v>23.69749999999998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23.85</v>
+        <v>23.86</v>
       </c>
       <c r="C27" t="n">
-        <v>23.55</v>
+        <v>23.86</v>
       </c>
       <c r="D27" t="n">
-        <v>23.85</v>
+        <v>23.86</v>
       </c>
       <c r="E27" t="n">
-        <v>23.55</v>
+        <v>23.86</v>
       </c>
       <c r="F27" t="n">
-        <v>22255.7658</v>
+        <v>21</v>
       </c>
       <c r="G27" t="n">
-        <v>23.69533333333332</v>
+        <v>23.69466666666665</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23.6</v>
+        <v>23.85</v>
       </c>
       <c r="C28" t="n">
-        <v>23.6</v>
+        <v>23.55</v>
       </c>
       <c r="D28" t="n">
-        <v>23.6</v>
+        <v>23.85</v>
       </c>
       <c r="E28" t="n">
-        <v>23.6</v>
+        <v>23.55</v>
       </c>
       <c r="F28" t="n">
-        <v>597.2184999999999</v>
+        <v>22255.7658</v>
       </c>
       <c r="G28" t="n">
-        <v>23.69199999999998</v>
+        <v>23.69533333333332</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>23.6</v>
       </c>
       <c r="F29" t="n">
-        <v>7902.7815</v>
+        <v>597.2184999999999</v>
       </c>
       <c r="G29" t="n">
-        <v>23.68416666666665</v>
+        <v>23.69199999999998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>23.6</v>
       </c>
       <c r="F30" t="n">
-        <v>21921.2336</v>
+        <v>7902.7815</v>
       </c>
       <c r="G30" t="n">
-        <v>23.67916666666664</v>
+        <v>23.68416666666665</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>23.6</v>
       </c>
       <c r="F31" t="n">
-        <v>3428</v>
+        <v>21921.2336</v>
       </c>
       <c r="G31" t="n">
-        <v>23.67566666666664</v>
+        <v>23.67916666666664</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>23.75</v>
+        <v>23.6</v>
       </c>
       <c r="C32" t="n">
-        <v>23.75</v>
+        <v>23.6</v>
       </c>
       <c r="D32" t="n">
-        <v>23.75</v>
+        <v>23.6</v>
       </c>
       <c r="E32" t="n">
-        <v>23.75</v>
+        <v>23.6</v>
       </c>
       <c r="F32" t="n">
-        <v>8149.405</v>
+        <v>3428</v>
       </c>
       <c r="G32" t="n">
-        <v>23.66899999999998</v>
+        <v>23.67566666666664</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>23.75</v>
       </c>
       <c r="C33" t="n">
-        <v>23.89</v>
+        <v>23.75</v>
       </c>
       <c r="D33" t="n">
-        <v>23.89</v>
+        <v>23.75</v>
       </c>
       <c r="E33" t="n">
         <v>23.75</v>
       </c>
       <c r="F33" t="n">
-        <v>84435.27000544161</v>
+        <v>8149.405</v>
       </c>
       <c r="G33" t="n">
-        <v>23.66633333333331</v>
+        <v>23.66899999999998</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="C34" t="n">
         <v>23.89</v>
       </c>
-      <c r="C34" t="n">
-        <v>23.97</v>
-      </c>
       <c r="D34" t="n">
-        <v>23.97</v>
+        <v>23.89</v>
       </c>
       <c r="E34" t="n">
-        <v>23.89</v>
+        <v>23.75</v>
       </c>
       <c r="F34" t="n">
-        <v>33839.7432</v>
+        <v>84435.27000544161</v>
       </c>
       <c r="G34" t="n">
-        <v>23.66749999999998</v>
+        <v>23.66633333333331</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1591,19 +1591,19 @@
         <v>23.89</v>
       </c>
       <c r="C35" t="n">
-        <v>23.89</v>
+        <v>23.97</v>
       </c>
       <c r="D35" t="n">
-        <v>23.89</v>
+        <v>23.97</v>
       </c>
       <c r="E35" t="n">
         <v>23.89</v>
       </c>
       <c r="F35" t="n">
-        <v>3796.4569</v>
+        <v>33839.7432</v>
       </c>
       <c r="G35" t="n">
-        <v>23.66483333333331</v>
+        <v>23.66749999999998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>23.89</v>
       </c>
       <c r="C36" t="n">
-        <v>23.63</v>
+        <v>23.89</v>
       </c>
       <c r="D36" t="n">
         <v>23.89</v>
       </c>
       <c r="E36" t="n">
-        <v>23.63</v>
+        <v>23.89</v>
       </c>
       <c r="F36" t="n">
-        <v>32306.9377</v>
+        <v>3796.4569</v>
       </c>
       <c r="G36" t="n">
-        <v>23.65766666666665</v>
+        <v>23.66483333333331</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>23.7</v>
+        <v>23.89</v>
       </c>
       <c r="C37" t="n">
-        <v>23.7</v>
+        <v>23.63</v>
       </c>
       <c r="D37" t="n">
-        <v>23.7</v>
+        <v>23.89</v>
       </c>
       <c r="E37" t="n">
-        <v>23.7</v>
+        <v>23.63</v>
       </c>
       <c r="F37" t="n">
-        <v>591.4315</v>
+        <v>32306.9377</v>
       </c>
       <c r="G37" t="n">
-        <v>23.65183333333332</v>
+        <v>23.65766666666665</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="C38" t="n">
-        <v>23.57</v>
+        <v>23.7</v>
       </c>
       <c r="D38" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="E38" t="n">
-        <v>23.57</v>
+        <v>23.7</v>
       </c>
       <c r="F38" t="n">
-        <v>28578.1007</v>
+        <v>591.4315</v>
       </c>
       <c r="G38" t="n">
-        <v>23.64299999999998</v>
+        <v>23.65183333333332</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23.56</v>
+        <v>23.6</v>
       </c>
       <c r="C39" t="n">
-        <v>23.56</v>
+        <v>23.57</v>
       </c>
       <c r="D39" t="n">
-        <v>23.56</v>
+        <v>23.6</v>
       </c>
       <c r="E39" t="n">
-        <v>23.56</v>
+        <v>23.57</v>
       </c>
       <c r="F39" t="n">
-        <v>50853.9414</v>
+        <v>28578.1007</v>
       </c>
       <c r="G39" t="n">
-        <v>23.63399999999998</v>
+        <v>23.64299999999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>23.56</v>
       </c>
       <c r="F40" t="n">
-        <v>1092.115</v>
+        <v>50853.9414</v>
       </c>
       <c r="G40" t="n">
-        <v>23.62499999999999</v>
+        <v>23.63399999999998</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23.59</v>
+        <v>23.56</v>
       </c>
       <c r="C41" t="n">
-        <v>23.42</v>
+        <v>23.56</v>
       </c>
       <c r="D41" t="n">
-        <v>23.59</v>
+        <v>23.56</v>
       </c>
       <c r="E41" t="n">
-        <v>23.42</v>
+        <v>23.56</v>
       </c>
       <c r="F41" t="n">
-        <v>156287.0509</v>
+        <v>1092.115</v>
       </c>
       <c r="G41" t="n">
-        <v>23.61199999999998</v>
+        <v>23.62499999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23.42</v>
+        <v>23.59</v>
       </c>
       <c r="C42" t="n">
         <v>23.42</v>
       </c>
       <c r="D42" t="n">
-        <v>23.42</v>
+        <v>23.59</v>
       </c>
       <c r="E42" t="n">
         <v>23.42</v>
       </c>
       <c r="F42" t="n">
-        <v>25212.4065</v>
+        <v>156287.0509</v>
       </c>
       <c r="G42" t="n">
-        <v>23.60066666666665</v>
+        <v>23.61199999999998</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23.36</v>
+        <v>23.42</v>
       </c>
       <c r="C43" t="n">
-        <v>23.36</v>
+        <v>23.42</v>
       </c>
       <c r="D43" t="n">
-        <v>23.36</v>
+        <v>23.42</v>
       </c>
       <c r="E43" t="n">
-        <v>23.36</v>
+        <v>23.42</v>
       </c>
       <c r="F43" t="n">
-        <v>1669.1856</v>
+        <v>25212.4065</v>
       </c>
       <c r="G43" t="n">
-        <v>23.58983333333332</v>
+        <v>23.60066666666665</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>23.21</v>
+        <v>23.36</v>
       </c>
       <c r="C44" t="n">
         <v>23.36</v>
@@ -1912,13 +1912,13 @@
         <v>23.36</v>
       </c>
       <c r="E44" t="n">
-        <v>23.05</v>
+        <v>23.36</v>
       </c>
       <c r="F44" t="n">
-        <v>575190.4991</v>
+        <v>1669.1856</v>
       </c>
       <c r="G44" t="n">
-        <v>23.57749999999999</v>
+        <v>23.58983333333332</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23.1</v>
+        <v>23.21</v>
       </c>
       <c r="C45" t="n">
-        <v>23.3</v>
+        <v>23.36</v>
       </c>
       <c r="D45" t="n">
         <v>23.36</v>
       </c>
       <c r="E45" t="n">
-        <v>23.1</v>
+        <v>23.05</v>
       </c>
       <c r="F45" t="n">
-        <v>55194.4219</v>
+        <v>575190.4991</v>
       </c>
       <c r="G45" t="n">
-        <v>23.56566666666665</v>
+        <v>23.57749999999999</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="C46" t="n">
         <v>23.3</v>
       </c>
       <c r="D46" t="n">
-        <v>23.3</v>
+        <v>23.36</v>
       </c>
       <c r="E46" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="F46" t="n">
-        <v>2655.7495</v>
+        <v>55194.4219</v>
       </c>
       <c r="G46" t="n">
-        <v>23.55233333333332</v>
+        <v>23.56566666666665</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2008,22 +2008,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="C47" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D47" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="E47" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="F47" t="n">
-        <v>204</v>
+        <v>2655.7495</v>
       </c>
       <c r="G47" t="n">
-        <v>23.53733333333332</v>
+        <v>23.55233333333332</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="C48" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="D48" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="E48" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F48" t="n">
-        <v>1643.4815</v>
+        <v>204</v>
       </c>
       <c r="G48" t="n">
-        <v>23.52833333333332</v>
+        <v>23.53733333333332</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2090,10 +2090,10 @@
         <v>23.3</v>
       </c>
       <c r="F49" t="n">
-        <v>19426.9874</v>
+        <v>1643.4815</v>
       </c>
       <c r="G49" t="n">
-        <v>23.51983333333332</v>
+        <v>23.52833333333332</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>23.39</v>
+        <v>23.3</v>
       </c>
       <c r="C50" t="n">
-        <v>23.39</v>
+        <v>23.3</v>
       </c>
       <c r="D50" t="n">
-        <v>23.39</v>
+        <v>23.3</v>
       </c>
       <c r="E50" t="n">
-        <v>23.39</v>
+        <v>23.3</v>
       </c>
       <c r="F50" t="n">
-        <v>772.3848</v>
+        <v>19426.9874</v>
       </c>
       <c r="G50" t="n">
-        <v>23.51299999999999</v>
+        <v>23.51983333333332</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2148,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>23.2</v>
+        <v>23.39</v>
       </c>
       <c r="C51" t="n">
-        <v>23.37</v>
+        <v>23.39</v>
       </c>
       <c r="D51" t="n">
-        <v>23.37</v>
+        <v>23.39</v>
       </c>
       <c r="E51" t="n">
-        <v>23.2</v>
+        <v>23.39</v>
       </c>
       <c r="F51" t="n">
-        <v>4630.2935</v>
+        <v>772.3848</v>
       </c>
       <c r="G51" t="n">
-        <v>23.50416666666666</v>
+        <v>23.51299999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="C52" t="n">
-        <v>23.3</v>
+        <v>23.37</v>
       </c>
       <c r="D52" t="n">
-        <v>23.3</v>
+        <v>23.37</v>
       </c>
       <c r="E52" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="F52" t="n">
-        <v>126</v>
+        <v>4630.2935</v>
       </c>
       <c r="G52" t="n">
-        <v>23.49416666666665</v>
+        <v>23.50416666666666</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2230,10 +2230,10 @@
         <v>23.3</v>
       </c>
       <c r="F53" t="n">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="G53" t="n">
-        <v>23.48716666666665</v>
+        <v>23.49416666666665</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23.16</v>
+        <v>23.3</v>
       </c>
       <c r="C54" t="n">
-        <v>23.38</v>
+        <v>23.3</v>
       </c>
       <c r="D54" t="n">
-        <v>23.38</v>
+        <v>23.3</v>
       </c>
       <c r="E54" t="n">
-        <v>23.04</v>
+        <v>23.3</v>
       </c>
       <c r="F54" t="n">
-        <v>51685.1201</v>
+        <v>203</v>
       </c>
       <c r="G54" t="n">
-        <v>23.48183333333332</v>
+        <v>23.48716666666665</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>23.1</v>
+        <v>23.16</v>
       </c>
       <c r="C55" t="n">
-        <v>23.1</v>
+        <v>23.38</v>
       </c>
       <c r="D55" t="n">
-        <v>23.1</v>
+        <v>23.38</v>
       </c>
       <c r="E55" t="n">
-        <v>23.1</v>
+        <v>23.04</v>
       </c>
       <c r="F55" t="n">
-        <v>64529.9182</v>
+        <v>51685.1201</v>
       </c>
       <c r="G55" t="n">
-        <v>23.47199999999998</v>
+        <v>23.48183333333332</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>23.1</v>
       </c>
       <c r="C56" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="D56" t="n">
         <v>23.1</v>
       </c>
       <c r="E56" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="F56" t="n">
-        <v>160053.1988</v>
+        <v>64529.9182</v>
       </c>
       <c r="G56" t="n">
-        <v>23.45916666666665</v>
+        <v>23.47199999999998</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C57" t="n">
         <v>22.9</v>
       </c>
-      <c r="C57" t="n">
-        <v>22.8</v>
-      </c>
       <c r="D57" t="n">
-        <v>22.96</v>
+        <v>23.1</v>
       </c>
       <c r="E57" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="F57" t="n">
-        <v>55495.1954</v>
+        <v>160053.1988</v>
       </c>
       <c r="G57" t="n">
-        <v>23.44899999999998</v>
+        <v>23.45916666666665</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="C58" t="n">
         <v>22.8</v>
       </c>
       <c r="D58" t="n">
-        <v>22.8</v>
+        <v>22.96</v>
       </c>
       <c r="E58" t="n">
         <v>22.8</v>
       </c>
       <c r="F58" t="n">
-        <v>44539.8832</v>
+        <v>55495.1954</v>
       </c>
       <c r="G58" t="n">
-        <v>23.44049999999998</v>
+        <v>23.44899999999998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2440,10 +2440,10 @@
         <v>22.8</v>
       </c>
       <c r="F59" t="n">
-        <v>46972.6835</v>
+        <v>44539.8832</v>
       </c>
       <c r="G59" t="n">
-        <v>23.42733333333332</v>
+        <v>23.44049999999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>22.81</v>
+        <v>22.8</v>
       </c>
       <c r="C60" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="D60" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="E60" t="n">
         <v>22.8</v>
       </c>
       <c r="F60" t="n">
-        <v>91497.5123</v>
+        <v>46972.6835</v>
       </c>
       <c r="G60" t="n">
-        <v>23.41566666666665</v>
+        <v>23.42733333333332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22.9</v>
+        <v>22.81</v>
       </c>
       <c r="C61" t="n">
         <v>22.9</v>
@@ -2507,13 +2507,13 @@
         <v>22.9</v>
       </c>
       <c r="E61" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="F61" t="n">
-        <v>39658.7143</v>
+        <v>91497.5123</v>
       </c>
       <c r="G61" t="n">
-        <v>23.40216666666665</v>
+        <v>23.41566666666665</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2536,19 +2536,19 @@
         <v>22.9</v>
       </c>
       <c r="C62" t="n">
-        <v>23.29</v>
+        <v>22.9</v>
       </c>
       <c r="D62" t="n">
-        <v>23.29</v>
+        <v>22.9</v>
       </c>
       <c r="E62" t="n">
         <v>22.9</v>
       </c>
       <c r="F62" t="n">
-        <v>42432</v>
+        <v>39658.7143</v>
       </c>
       <c r="G62" t="n">
-        <v>23.39949999999999</v>
+        <v>23.40216666666665</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>22.98</v>
+        <v>22.9</v>
       </c>
       <c r="C63" t="n">
-        <v>22.98</v>
+        <v>23.29</v>
       </c>
       <c r="D63" t="n">
-        <v>22.98</v>
+        <v>23.29</v>
       </c>
       <c r="E63" t="n">
-        <v>22.98</v>
+        <v>22.9</v>
       </c>
       <c r="F63" t="n">
-        <v>111596</v>
+        <v>42432</v>
       </c>
       <c r="G63" t="n">
-        <v>23.39166666666665</v>
+        <v>23.39949999999999</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>22.98</v>
       </c>
       <c r="C64" t="n">
-        <v>23.23</v>
+        <v>22.98</v>
       </c>
       <c r="D64" t="n">
-        <v>23.23</v>
+        <v>22.98</v>
       </c>
       <c r="E64" t="n">
         <v>22.98</v>
       </c>
       <c r="F64" t="n">
-        <v>11666</v>
+        <v>111596</v>
       </c>
       <c r="G64" t="n">
-        <v>23.38799999999998</v>
+        <v>23.39166666666665</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>23.2</v>
+        <v>22.98</v>
       </c>
       <c r="C65" t="n">
-        <v>23.2</v>
+        <v>23.23</v>
       </c>
       <c r="D65" t="n">
-        <v>23.2</v>
+        <v>23.23</v>
       </c>
       <c r="E65" t="n">
-        <v>23.2</v>
+        <v>22.98</v>
       </c>
       <c r="F65" t="n">
-        <v>4079.819</v>
+        <v>11666</v>
       </c>
       <c r="G65" t="n">
-        <v>23.38383333333332</v>
+        <v>23.38799999999998</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2685,10 +2685,10 @@
         <v>23.2</v>
       </c>
       <c r="F66" t="n">
-        <v>9546.845300000001</v>
+        <v>4079.819</v>
       </c>
       <c r="G66" t="n">
-        <v>23.37933333333332</v>
+        <v>23.38383333333332</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="C67" t="n">
-        <v>23.13</v>
+        <v>23.2</v>
       </c>
       <c r="D67" t="n">
-        <v>23.13</v>
+        <v>23.2</v>
       </c>
       <c r="E67" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="F67" t="n">
-        <v>68493.113</v>
+        <v>9546.845300000001</v>
       </c>
       <c r="G67" t="n">
-        <v>23.37366666666665</v>
+        <v>23.37933333333332</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>23.14</v>
+        <v>23.1</v>
       </c>
       <c r="C68" t="n">
-        <v>23.14</v>
+        <v>23.13</v>
       </c>
       <c r="D68" t="n">
-        <v>23.14</v>
+        <v>23.13</v>
       </c>
       <c r="E68" t="n">
-        <v>23.14</v>
+        <v>23.1</v>
       </c>
       <c r="F68" t="n">
-        <v>4462.2117</v>
+        <v>68493.113</v>
       </c>
       <c r="G68" t="n">
-        <v>23.36933333333332</v>
+        <v>23.37366666666665</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>23.05</v>
+        <v>23.14</v>
       </c>
       <c r="C69" t="n">
-        <v>23.05</v>
+        <v>23.14</v>
       </c>
       <c r="D69" t="n">
-        <v>23.05</v>
+        <v>23.14</v>
       </c>
       <c r="E69" t="n">
-        <v>23.05</v>
+        <v>23.14</v>
       </c>
       <c r="F69" t="n">
-        <v>125</v>
+        <v>4462.2117</v>
       </c>
       <c r="G69" t="n">
-        <v>23.36616666666665</v>
+        <v>23.36933333333332</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>23.06</v>
+        <v>23.05</v>
       </c>
       <c r="C70" t="n">
-        <v>23.07</v>
+        <v>23.05</v>
       </c>
       <c r="D70" t="n">
-        <v>23.07</v>
+        <v>23.05</v>
       </c>
       <c r="E70" t="n">
-        <v>23.06</v>
+        <v>23.05</v>
       </c>
       <c r="F70" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="G70" t="n">
-        <v>23.36699999999998</v>
+        <v>23.36616666666665</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>23.08</v>
+        <v>23.06</v>
       </c>
       <c r="C71" t="n">
-        <v>23.08</v>
+        <v>23.07</v>
       </c>
       <c r="D71" t="n">
-        <v>23.08</v>
+        <v>23.07</v>
       </c>
       <c r="E71" t="n">
-        <v>23.08</v>
+        <v>23.06</v>
       </c>
       <c r="F71" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="G71" t="n">
-        <v>23.36499999999998</v>
+        <v>23.36699999999998</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2883,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>23.01</v>
+        <v>23.08</v>
       </c>
       <c r="C72" t="n">
-        <v>23</v>
+        <v>23.08</v>
       </c>
       <c r="D72" t="n">
-        <v>23.01</v>
+        <v>23.08</v>
       </c>
       <c r="E72" t="n">
-        <v>23</v>
+        <v>23.08</v>
       </c>
       <c r="F72" t="n">
-        <v>30195.01</v>
+        <v>125</v>
       </c>
       <c r="G72" t="n">
-        <v>23.35916666666665</v>
+        <v>23.36499999999998</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>22.95</v>
+        <v>23.01</v>
       </c>
       <c r="C73" t="n">
-        <v>22.95</v>
+        <v>23</v>
       </c>
       <c r="D73" t="n">
-        <v>22.95</v>
+        <v>23.01</v>
       </c>
       <c r="E73" t="n">
-        <v>22.95</v>
+        <v>23</v>
       </c>
       <c r="F73" t="n">
-        <v>48734.5426</v>
+        <v>30195.01</v>
       </c>
       <c r="G73" t="n">
-        <v>23.35249999999998</v>
+        <v>23.35916666666665</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>22.8</v>
+        <v>22.95</v>
       </c>
       <c r="C74" t="n">
-        <v>22.8</v>
+        <v>22.95</v>
       </c>
       <c r="D74" t="n">
-        <v>22.8</v>
+        <v>22.95</v>
       </c>
       <c r="E74" t="n">
-        <v>22.8</v>
+        <v>22.95</v>
       </c>
       <c r="F74" t="n">
-        <v>60000</v>
+        <v>48734.5426</v>
       </c>
       <c r="G74" t="n">
-        <v>23.34316666666665</v>
+        <v>23.35249999999998</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>22.8</v>
       </c>
       <c r="F75" t="n">
-        <v>26138</v>
+        <v>60000</v>
       </c>
       <c r="G75" t="n">
-        <v>23.33383333333332</v>
+        <v>23.34316666666665</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="C76" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="D76" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="E76" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="F76" t="n">
-        <v>4300.1642</v>
+        <v>26138</v>
       </c>
       <c r="G76" t="n">
-        <v>23.32616666666666</v>
+        <v>23.33383333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3061,19 +3061,19 @@
         <v>22.9</v>
       </c>
       <c r="C77" t="n">
-        <v>22.94</v>
+        <v>22.9</v>
       </c>
       <c r="D77" t="n">
-        <v>22.94</v>
+        <v>22.9</v>
       </c>
       <c r="E77" t="n">
         <v>22.9</v>
       </c>
       <c r="F77" t="n">
-        <v>5000</v>
+        <v>4300.1642</v>
       </c>
       <c r="G77" t="n">
-        <v>23.31849999999999</v>
+        <v>23.32616666666666</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>22.99</v>
+        <v>22.9</v>
       </c>
       <c r="C78" t="n">
-        <v>22.99</v>
+        <v>22.94</v>
       </c>
       <c r="D78" t="n">
-        <v>22.99</v>
+        <v>22.94</v>
       </c>
       <c r="E78" t="n">
-        <v>22.99</v>
+        <v>22.9</v>
       </c>
       <c r="F78" t="n">
-        <v>4290.5413</v>
+        <v>5000</v>
       </c>
       <c r="G78" t="n">
-        <v>23.30999999999999</v>
+        <v>23.31849999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>23.1</v>
+        <v>22.99</v>
       </c>
       <c r="C79" t="n">
-        <v>23.1</v>
+        <v>22.99</v>
       </c>
       <c r="D79" t="n">
-        <v>23.1</v>
+        <v>22.99</v>
       </c>
       <c r="E79" t="n">
-        <v>23.1</v>
+        <v>22.99</v>
       </c>
       <c r="F79" t="n">
-        <v>23</v>
+        <v>4290.5413</v>
       </c>
       <c r="G79" t="n">
-        <v>23.30333333333332</v>
+        <v>23.30999999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23.12</v>
+        <v>23.1</v>
       </c>
       <c r="C80" t="n">
-        <v>23.12</v>
+        <v>23.1</v>
       </c>
       <c r="D80" t="n">
-        <v>23.12</v>
+        <v>23.1</v>
       </c>
       <c r="E80" t="n">
-        <v>23.12</v>
+        <v>23.1</v>
       </c>
       <c r="F80" t="n">
-        <v>17189.6271</v>
+        <v>23</v>
       </c>
       <c r="G80" t="n">
-        <v>23.29699999999999</v>
+        <v>23.30333333333332</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23</v>
+        <v>23.12</v>
       </c>
       <c r="C81" t="n">
-        <v>23</v>
+        <v>23.12</v>
       </c>
       <c r="D81" t="n">
-        <v>23</v>
+        <v>23.12</v>
       </c>
       <c r="E81" t="n">
-        <v>23</v>
+        <v>23.12</v>
       </c>
       <c r="F81" t="n">
-        <v>291.2369</v>
+        <v>17189.6271</v>
       </c>
       <c r="G81" t="n">
-        <v>23.28866666666665</v>
+        <v>23.29699999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,35 +3233,31 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="C82" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="D82" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="E82" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="F82" t="n">
         <v>291.2369</v>
       </c>
       <c r="G82" t="n">
-        <v>23.27833333333332</v>
+        <v>23.28866666666665</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>23</v>
-      </c>
-      <c r="K82" t="n">
-        <v>23</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
@@ -3275,37 +3271,29 @@
         <v>22.9</v>
       </c>
       <c r="C83" t="n">
-        <v>22.78</v>
+        <v>22.9</v>
       </c>
       <c r="D83" t="n">
         <v>22.9</v>
       </c>
       <c r="E83" t="n">
-        <v>22.78</v>
+        <v>22.9</v>
       </c>
       <c r="F83" t="n">
-        <v>39658.7143</v>
+        <v>291.2369</v>
       </c>
       <c r="G83" t="n">
-        <v>23.26599999999999</v>
+        <v>23.27833333333332</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="K83" t="n">
-        <v>23</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3318,37 +3306,29 @@
         <v>22.9</v>
       </c>
       <c r="C84" t="n">
-        <v>22.9</v>
+        <v>22.78</v>
       </c>
       <c r="D84" t="n">
         <v>22.9</v>
       </c>
       <c r="E84" t="n">
-        <v>22.9</v>
+        <v>22.78</v>
       </c>
       <c r="F84" t="n">
-        <v>614.481</v>
+        <v>39658.7143</v>
       </c>
       <c r="G84" t="n">
-        <v>23.25533333333333</v>
+        <v>23.26599999999999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>22.78</v>
-      </c>
-      <c r="K84" t="n">
-        <v>23</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3358,40 +3338,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="C85" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="D85" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="E85" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="F85" t="n">
-        <v>313.736</v>
+        <v>614.481</v>
       </c>
       <c r="G85" t="n">
-        <v>23.24133333333333</v>
+        <v>23.25533333333333</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="K85" t="n">
-        <v>23</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3413,28 +3385,20 @@
         <v>22.7</v>
       </c>
       <c r="F86" t="n">
-        <v>300.745</v>
+        <v>313.736</v>
       </c>
       <c r="G86" t="n">
-        <v>23.22199999999999</v>
+        <v>23.24133333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K86" t="n">
-        <v>23</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3444,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>22.86</v>
+        <v>22.7</v>
       </c>
       <c r="C87" t="n">
-        <v>22.86</v>
+        <v>22.7</v>
       </c>
       <c r="D87" t="n">
-        <v>22.86</v>
+        <v>22.7</v>
       </c>
       <c r="E87" t="n">
-        <v>22.86</v>
+        <v>22.7</v>
       </c>
       <c r="F87" t="n">
-        <v>22</v>
+        <v>300.745</v>
       </c>
       <c r="G87" t="n">
-        <v>23.21049999999999</v>
+        <v>23.22199999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3468,14 +3432,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>23</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3485,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>22.87</v>
+        <v>22.86</v>
       </c>
       <c r="C88" t="n">
-        <v>22.87</v>
+        <v>22.86</v>
       </c>
       <c r="D88" t="n">
-        <v>22.87</v>
+        <v>22.86</v>
       </c>
       <c r="E88" t="n">
-        <v>22.87</v>
+        <v>22.86</v>
       </c>
       <c r="F88" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G88" t="n">
-        <v>23.19833333333333</v>
+        <v>23.21049999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3509,14 +3467,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>23</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3526,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>22.8</v>
+        <v>22.87</v>
       </c>
       <c r="C89" t="n">
-        <v>22.8</v>
+        <v>22.87</v>
       </c>
       <c r="D89" t="n">
-        <v>22.8</v>
+        <v>22.87</v>
       </c>
       <c r="E89" t="n">
-        <v>22.8</v>
+        <v>22.87</v>
       </c>
       <c r="F89" t="n">
-        <v>3087.6011</v>
+        <v>23</v>
       </c>
       <c r="G89" t="n">
-        <v>23.185</v>
+        <v>23.19833333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3550,14 +3502,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>23</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3567,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>22.65</v>
+        <v>22.8</v>
       </c>
       <c r="C90" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="D90" t="n">
-        <v>22.65</v>
+        <v>22.8</v>
       </c>
       <c r="E90" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="F90" t="n">
-        <v>28373.3301</v>
+        <v>3087.6011</v>
       </c>
       <c r="G90" t="n">
-        <v>23.16833333333333</v>
+        <v>23.185</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3591,14 +3537,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>23</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3608,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>22.6</v>
+        <v>22.65</v>
       </c>
       <c r="C91" t="n">
         <v>22.6</v>
       </c>
       <c r="D91" t="n">
-        <v>22.6</v>
+        <v>22.65</v>
       </c>
       <c r="E91" t="n">
         <v>22.6</v>
       </c>
       <c r="F91" t="n">
-        <v>120455.5402</v>
+        <v>28373.3301</v>
       </c>
       <c r="G91" t="n">
-        <v>23.15166666666666</v>
+        <v>23.16833333333333</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3632,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>23</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3649,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>22.74</v>
+        <v>22.6</v>
       </c>
       <c r="C92" t="n">
-        <v>22.74</v>
+        <v>22.6</v>
       </c>
       <c r="D92" t="n">
-        <v>22.74</v>
+        <v>22.6</v>
       </c>
       <c r="E92" t="n">
-        <v>22.74</v>
+        <v>22.6</v>
       </c>
       <c r="F92" t="n">
-        <v>23</v>
+        <v>120455.5402</v>
       </c>
       <c r="G92" t="n">
-        <v>23.13483333333333</v>
+        <v>23.15166666666666</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3673,14 +3607,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>23</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3690,38 +3618,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>23.11</v>
+        <v>22.74</v>
       </c>
       <c r="C93" t="n">
-        <v>23.11</v>
+        <v>22.74</v>
       </c>
       <c r="D93" t="n">
-        <v>23.11</v>
+        <v>22.74</v>
       </c>
       <c r="E93" t="n">
-        <v>23.11</v>
+        <v>22.74</v>
       </c>
       <c r="F93" t="n">
         <v>23</v>
       </c>
       <c r="G93" t="n">
-        <v>23.12183333333332</v>
+        <v>23.13483333333333</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>22.6</v>
+      </c>
       <c r="K93" t="n">
-        <v>23</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>22.6</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3731,36 +3657,38 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>23.09</v>
+        <v>23.11</v>
       </c>
       <c r="C94" t="n">
-        <v>23.09</v>
+        <v>23.11</v>
       </c>
       <c r="D94" t="n">
-        <v>23.09</v>
+        <v>23.11</v>
       </c>
       <c r="E94" t="n">
-        <v>23.09</v>
+        <v>23.11</v>
       </c>
       <c r="F94" t="n">
         <v>23</v>
       </c>
       <c r="G94" t="n">
-        <v>23.10716666666666</v>
+        <v>23.12183333333332</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>22.74</v>
+      </c>
       <c r="K94" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M94" t="n">
@@ -3772,22 +3700,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>22.9</v>
+        <v>23.09</v>
       </c>
       <c r="C95" t="n">
-        <v>23.1</v>
+        <v>23.09</v>
       </c>
       <c r="D95" t="n">
-        <v>23.1</v>
+        <v>23.09</v>
       </c>
       <c r="E95" t="n">
-        <v>22.79</v>
+        <v>23.09</v>
       </c>
       <c r="F95" t="n">
-        <v>5611.8569</v>
+        <v>23</v>
       </c>
       <c r="G95" t="n">
-        <v>23.09399999999999</v>
+        <v>23.10716666666666</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3797,11 +3725,11 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M95" t="n">
@@ -3813,22 +3741,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="C96" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="D96" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="E96" t="n">
-        <v>23</v>
+        <v>22.79</v>
       </c>
       <c r="F96" t="n">
-        <v>611.8569</v>
+        <v>5611.8569</v>
       </c>
       <c r="G96" t="n">
-        <v>23.08349999999998</v>
+        <v>23.09399999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3837,14 +3765,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>23</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3854,22 +3776,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>23.01</v>
+        <v>23</v>
       </c>
       <c r="C97" t="n">
-        <v>23.01</v>
+        <v>23</v>
       </c>
       <c r="D97" t="n">
-        <v>23.01</v>
+        <v>23</v>
       </c>
       <c r="E97" t="n">
-        <v>23.01</v>
+        <v>23</v>
       </c>
       <c r="F97" t="n">
-        <v>130.0096</v>
+        <v>611.8569</v>
       </c>
       <c r="G97" t="n">
-        <v>23.07199999999998</v>
+        <v>23.08349999999998</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3878,14 +3800,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>23</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3895,22 +3811,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>22.9</v>
+        <v>23.01</v>
       </c>
       <c r="C98" t="n">
-        <v>22.9</v>
+        <v>23.01</v>
       </c>
       <c r="D98" t="n">
-        <v>22.9</v>
+        <v>23.01</v>
       </c>
       <c r="E98" t="n">
-        <v>22.9</v>
+        <v>23.01</v>
       </c>
       <c r="F98" t="n">
-        <v>602.2035</v>
+        <v>130.0096</v>
       </c>
       <c r="G98" t="n">
-        <v>23.06083333333332</v>
+        <v>23.07199999999998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3919,14 +3835,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>23</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3948,10 +3858,10 @@
         <v>22.9</v>
       </c>
       <c r="F99" t="n">
-        <v>87.33624454148472</v>
+        <v>602.2035</v>
       </c>
       <c r="G99" t="n">
-        <v>23.04983333333332</v>
+        <v>23.06083333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3960,14 +3870,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>23</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3977,22 +3881,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="C100" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="D100" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="E100" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="F100" t="n">
-        <v>66808.86719999999</v>
+        <v>87.33624454148472</v>
       </c>
       <c r="G100" t="n">
-        <v>23.03716666666666</v>
+        <v>23.04983333333332</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4001,14 +3905,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>23</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4030,10 +3928,10 @@
         <v>22.8</v>
       </c>
       <c r="F101" t="n">
-        <v>17190.0941</v>
+        <v>66808.86719999999</v>
       </c>
       <c r="G101" t="n">
-        <v>23.02683333333332</v>
+        <v>23.03716666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4042,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>23</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4059,22 +3951,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>22.89</v>
+        <v>22.8</v>
       </c>
       <c r="C102" t="n">
-        <v>22.89</v>
+        <v>22.8</v>
       </c>
       <c r="D102" t="n">
-        <v>22.89</v>
+        <v>22.8</v>
       </c>
       <c r="E102" t="n">
-        <v>22.89</v>
+        <v>22.8</v>
       </c>
       <c r="F102" t="n">
-        <v>23</v>
+        <v>17190.0941</v>
       </c>
       <c r="G102" t="n">
-        <v>23.01799999999999</v>
+        <v>23.02683333333332</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4083,14 +3975,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>23</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4100,22 +3986,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>22.7</v>
+        <v>22.89</v>
       </c>
       <c r="C103" t="n">
-        <v>22.7</v>
+        <v>22.89</v>
       </c>
       <c r="D103" t="n">
-        <v>22.7</v>
+        <v>22.89</v>
       </c>
       <c r="E103" t="n">
-        <v>22.7</v>
+        <v>22.89</v>
       </c>
       <c r="F103" t="n">
-        <v>87.33620000000001</v>
+        <v>23</v>
       </c>
       <c r="G103" t="n">
-        <v>23.00699999999999</v>
+        <v>23.01799999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4124,14 +4010,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>23</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4141,22 +4021,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>22.75</v>
+        <v>22.7</v>
       </c>
       <c r="C104" t="n">
         <v>22.7</v>
       </c>
       <c r="D104" t="n">
-        <v>22.75</v>
+        <v>22.7</v>
       </c>
       <c r="E104" t="n">
         <v>22.7</v>
       </c>
       <c r="F104" t="n">
-        <v>112897.2611</v>
+        <v>87.33620000000001</v>
       </c>
       <c r="G104" t="n">
-        <v>22.99599999999999</v>
+        <v>23.00699999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4165,14 +4045,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>23</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4182,22 +4056,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>22.96</v>
+        <v>22.75</v>
       </c>
       <c r="C105" t="n">
-        <v>22.96</v>
+        <v>22.7</v>
       </c>
       <c r="D105" t="n">
-        <v>22.96</v>
+        <v>22.75</v>
       </c>
       <c r="E105" t="n">
-        <v>22.96</v>
+        <v>22.7</v>
       </c>
       <c r="F105" t="n">
-        <v>546.6738</v>
+        <v>112897.2611</v>
       </c>
       <c r="G105" t="n">
-        <v>22.99033333333333</v>
+        <v>22.99599999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4206,14 +4080,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>23</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4223,22 +4091,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>22.7</v>
+        <v>22.96</v>
       </c>
       <c r="C106" t="n">
-        <v>22.7</v>
+        <v>22.96</v>
       </c>
       <c r="D106" t="n">
-        <v>22.7</v>
+        <v>22.96</v>
       </c>
       <c r="E106" t="n">
-        <v>22.7</v>
+        <v>22.96</v>
       </c>
       <c r="F106" t="n">
-        <v>6276.1826</v>
+        <v>546.6738</v>
       </c>
       <c r="G106" t="n">
-        <v>22.98033333333333</v>
+        <v>22.99033333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4247,14 +4115,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>23</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4276,10 +4138,10 @@
         <v>22.7</v>
       </c>
       <c r="F107" t="n">
-        <v>941.4272999999999</v>
+        <v>6276.1826</v>
       </c>
       <c r="G107" t="n">
-        <v>22.97199999999999</v>
+        <v>22.98033333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4288,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>23</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4305,22 +4161,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>22.92</v>
+        <v>22.7</v>
       </c>
       <c r="C108" t="n">
-        <v>22.92</v>
+        <v>22.7</v>
       </c>
       <c r="D108" t="n">
-        <v>22.92</v>
+        <v>22.7</v>
       </c>
       <c r="E108" t="n">
-        <v>22.92</v>
+        <v>22.7</v>
       </c>
       <c r="F108" t="n">
-        <v>23</v>
+        <v>941.4272999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>22.96566666666666</v>
+        <v>22.97199999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4329,14 +4185,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>23</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4346,22 +4196,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>22.7</v>
+        <v>22.92</v>
       </c>
       <c r="C109" t="n">
-        <v>22.7</v>
+        <v>22.92</v>
       </c>
       <c r="D109" t="n">
-        <v>22.7</v>
+        <v>22.92</v>
       </c>
       <c r="E109" t="n">
-        <v>22.7</v>
+        <v>22.92</v>
       </c>
       <c r="F109" t="n">
-        <v>57284.617</v>
+        <v>23</v>
       </c>
       <c r="G109" t="n">
-        <v>22.95566666666667</v>
+        <v>22.96566666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4370,14 +4220,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>23</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4390,19 +4234,19 @@
         <v>22.7</v>
       </c>
       <c r="C110" t="n">
-        <v>22.94</v>
+        <v>22.7</v>
       </c>
       <c r="D110" t="n">
-        <v>22.94</v>
+        <v>22.7</v>
       </c>
       <c r="E110" t="n">
-        <v>22.63</v>
+        <v>22.7</v>
       </c>
       <c r="F110" t="n">
-        <v>26729</v>
+        <v>57284.617</v>
       </c>
       <c r="G110" t="n">
-        <v>22.94816666666667</v>
+        <v>22.95566666666667</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4411,14 +4255,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>23</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4428,22 +4266,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>22.62</v>
+        <v>22.7</v>
       </c>
       <c r="C111" t="n">
-        <v>22.62</v>
+        <v>22.94</v>
       </c>
       <c r="D111" t="n">
-        <v>22.62</v>
+        <v>22.94</v>
       </c>
       <c r="E111" t="n">
-        <v>22.62</v>
+        <v>22.63</v>
       </c>
       <c r="F111" t="n">
-        <v>1374.3263</v>
+        <v>26729</v>
       </c>
       <c r="G111" t="n">
-        <v>22.93566666666667</v>
+        <v>22.94816666666667</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4452,14 +4290,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>23</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4469,22 +4301,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>22.55</v>
+        <v>22.62</v>
       </c>
       <c r="C112" t="n">
-        <v>22.55</v>
+        <v>22.62</v>
       </c>
       <c r="D112" t="n">
-        <v>22.55</v>
+        <v>22.62</v>
       </c>
       <c r="E112" t="n">
-        <v>22.55</v>
+        <v>22.62</v>
       </c>
       <c r="F112" t="n">
-        <v>1492.2794</v>
+        <v>1374.3263</v>
       </c>
       <c r="G112" t="n">
-        <v>22.92316666666666</v>
+        <v>22.93566666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4493,14 +4325,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>23</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4510,22 +4336,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>22.7</v>
+        <v>22.55</v>
       </c>
       <c r="C113" t="n">
-        <v>22.7</v>
+        <v>22.55</v>
       </c>
       <c r="D113" t="n">
-        <v>22.7</v>
+        <v>22.55</v>
       </c>
       <c r="E113" t="n">
-        <v>22.7</v>
+        <v>22.55</v>
       </c>
       <c r="F113" t="n">
-        <v>583.1064</v>
+        <v>1492.2794</v>
       </c>
       <c r="G113" t="n">
-        <v>22.91316666666667</v>
+        <v>22.92316666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4534,14 +4360,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>23</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4551,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="C114" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="D114" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="E114" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="F114" t="n">
-        <v>314.1423</v>
+        <v>583.1064</v>
       </c>
       <c r="G114" t="n">
-        <v>22.90016666666666</v>
+        <v>22.91316666666667</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4575,14 +4395,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>23</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4592,22 +4406,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="C115" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="D115" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="E115" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="F115" t="n">
-        <v>23</v>
+        <v>314.1423</v>
       </c>
       <c r="G115" t="n">
-        <v>22.8935</v>
+        <v>22.90016666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4616,14 +4430,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>23</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4636,19 +4444,19 @@
         <v>22.7</v>
       </c>
       <c r="C116" t="n">
-        <v>22.75</v>
+        <v>22.7</v>
       </c>
       <c r="D116" t="n">
-        <v>22.75</v>
+        <v>22.7</v>
       </c>
       <c r="E116" t="n">
         <v>22.7</v>
       </c>
       <c r="F116" t="n">
-        <v>50000</v>
+        <v>23</v>
       </c>
       <c r="G116" t="n">
-        <v>22.891</v>
+        <v>22.8935</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4657,14 +4465,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>23</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4674,22 +4476,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>22.74</v>
+        <v>22.7</v>
       </c>
       <c r="C117" t="n">
-        <v>22.94</v>
+        <v>22.75</v>
       </c>
       <c r="D117" t="n">
-        <v>22.94</v>
+        <v>22.75</v>
       </c>
       <c r="E117" t="n">
-        <v>22.74</v>
+        <v>22.7</v>
       </c>
       <c r="F117" t="n">
-        <v>62400</v>
+        <v>50000</v>
       </c>
       <c r="G117" t="n">
-        <v>22.89333333333333</v>
+        <v>22.891</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4698,14 +4500,8 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>23</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4715,7 +4511,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>22.94</v>
+        <v>22.74</v>
       </c>
       <c r="C118" t="n">
         <v>22.94</v>
@@ -4724,13 +4520,13 @@
         <v>22.94</v>
       </c>
       <c r="E118" t="n">
-        <v>22.94</v>
+        <v>22.74</v>
       </c>
       <c r="F118" t="n">
-        <v>20050</v>
+        <v>62400</v>
       </c>
       <c r="G118" t="n">
-        <v>22.89566666666667</v>
+        <v>22.89333333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4739,14 +4535,8 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>23</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4756,22 +4546,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>22.95</v>
+        <v>22.94</v>
       </c>
       <c r="C119" t="n">
-        <v>23.09</v>
+        <v>22.94</v>
       </c>
       <c r="D119" t="n">
-        <v>23.09</v>
+        <v>22.94</v>
       </c>
       <c r="E119" t="n">
-        <v>22.95</v>
+        <v>22.94</v>
       </c>
       <c r="F119" t="n">
-        <v>9800</v>
+        <v>20050</v>
       </c>
       <c r="G119" t="n">
-        <v>22.9005</v>
+        <v>22.89566666666667</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4780,14 +4570,8 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>23</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4797,22 +4581,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>23.16</v>
+        <v>22.95</v>
       </c>
       <c r="C120" t="n">
-        <v>23.16</v>
+        <v>23.09</v>
       </c>
       <c r="D120" t="n">
-        <v>23.16</v>
+        <v>23.09</v>
       </c>
       <c r="E120" t="n">
-        <v>23.16</v>
+        <v>22.95</v>
       </c>
       <c r="F120" t="n">
-        <v>23</v>
+        <v>9800</v>
       </c>
       <c r="G120" t="n">
-        <v>22.90483333333333</v>
+        <v>22.9005</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4821,14 +4605,8 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>23</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4838,22 +4616,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>23.11</v>
+        <v>23.16</v>
       </c>
       <c r="C121" t="n">
-        <v>23.11</v>
+        <v>23.16</v>
       </c>
       <c r="D121" t="n">
-        <v>23.11</v>
+        <v>23.16</v>
       </c>
       <c r="E121" t="n">
-        <v>23.11</v>
+        <v>23.16</v>
       </c>
       <c r="F121" t="n">
-        <v>14725.1145</v>
+        <v>23</v>
       </c>
       <c r="G121" t="n">
-        <v>22.90833333333333</v>
+        <v>22.90483333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4862,14 +4640,8 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>23</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4879,22 +4651,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>23.17</v>
+        <v>23.11</v>
       </c>
       <c r="C122" t="n">
-        <v>23.17</v>
+        <v>23.11</v>
       </c>
       <c r="D122" t="n">
-        <v>23.17</v>
+        <v>23.11</v>
       </c>
       <c r="E122" t="n">
-        <v>23.17</v>
+        <v>23.11</v>
       </c>
       <c r="F122" t="n">
-        <v>23</v>
+        <v>14725.1145</v>
       </c>
       <c r="G122" t="n">
-        <v>22.90633333333333</v>
+        <v>22.90833333333333</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4903,14 +4675,8 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>23</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4920,22 +4686,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>23.11</v>
+        <v>23.17</v>
       </c>
       <c r="C123" t="n">
-        <v>23.11</v>
+        <v>23.17</v>
       </c>
       <c r="D123" t="n">
-        <v>23.11</v>
+        <v>23.17</v>
       </c>
       <c r="E123" t="n">
-        <v>23.11</v>
+        <v>23.17</v>
       </c>
       <c r="F123" t="n">
-        <v>5582.3865</v>
+        <v>23</v>
       </c>
       <c r="G123" t="n">
-        <v>22.9085</v>
+        <v>22.90633333333333</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4944,14 +4710,8 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>23</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4961,22 +4721,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>23.1</v>
+        <v>23.11</v>
       </c>
       <c r="C124" t="n">
-        <v>22.91</v>
+        <v>23.11</v>
       </c>
       <c r="D124" t="n">
-        <v>23.1</v>
+        <v>23.11</v>
       </c>
       <c r="E124" t="n">
-        <v>22.91</v>
+        <v>23.11</v>
       </c>
       <c r="F124" t="n">
-        <v>7341.2376</v>
+        <v>5582.3865</v>
       </c>
       <c r="G124" t="n">
-        <v>22.90316666666666</v>
+        <v>22.9085</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4985,14 +4745,8 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>23</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5002,22 +4756,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>23.13</v>
+        <v>23.1</v>
       </c>
       <c r="C125" t="n">
-        <v>23.13</v>
+        <v>22.91</v>
       </c>
       <c r="D125" t="n">
-        <v>23.13</v>
+        <v>23.1</v>
       </c>
       <c r="E125" t="n">
-        <v>23.13</v>
+        <v>22.91</v>
       </c>
       <c r="F125" t="n">
-        <v>23</v>
+        <v>7341.2376</v>
       </c>
       <c r="G125" t="n">
-        <v>22.902</v>
+        <v>22.90316666666666</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5026,14 +4780,8 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>23</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5043,22 +4791,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>23.15</v>
+        <v>23.13</v>
       </c>
       <c r="C126" t="n">
-        <v>23.3</v>
+        <v>23.13</v>
       </c>
       <c r="D126" t="n">
-        <v>23.3</v>
+        <v>23.13</v>
       </c>
       <c r="E126" t="n">
-        <v>23.15</v>
+        <v>23.13</v>
       </c>
       <c r="F126" t="n">
-        <v>64869.204</v>
+        <v>23</v>
       </c>
       <c r="G126" t="n">
-        <v>22.90366666666666</v>
+        <v>22.902</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5067,14 +4815,8 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>23</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5084,22 +4826,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>23.24</v>
+        <v>23.15</v>
       </c>
       <c r="C127" t="n">
-        <v>23.24</v>
+        <v>23.3</v>
       </c>
       <c r="D127" t="n">
-        <v>23.24</v>
+        <v>23.3</v>
       </c>
       <c r="E127" t="n">
-        <v>23.24</v>
+        <v>23.15</v>
       </c>
       <c r="F127" t="n">
-        <v>3754.2161</v>
+        <v>64869.204</v>
       </c>
       <c r="G127" t="n">
-        <v>22.9055</v>
+        <v>22.90366666666666</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5108,14 +4850,8 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>23</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5125,22 +4861,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>23.29</v>
+        <v>23.24</v>
       </c>
       <c r="C128" t="n">
-        <v>23.29</v>
+        <v>23.24</v>
       </c>
       <c r="D128" t="n">
-        <v>23.29</v>
+        <v>23.24</v>
       </c>
       <c r="E128" t="n">
-        <v>23.29</v>
+        <v>23.24</v>
       </c>
       <c r="F128" t="n">
-        <v>2127.2082</v>
+        <v>3754.2161</v>
       </c>
       <c r="G128" t="n">
-        <v>22.90799999999999</v>
+        <v>22.9055</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5149,14 +4885,8 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>23</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5178,28 +4908,22 @@
         <v>23.29</v>
       </c>
       <c r="F129" t="n">
-        <v>9200</v>
+        <v>2127.2082</v>
       </c>
       <c r="G129" t="n">
-        <v>22.91199999999999</v>
+        <v>22.90799999999999</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>23</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>1.007608695652174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -5207,22 +4931,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>23.28</v>
+        <v>23.29</v>
       </c>
       <c r="C130" t="n">
-        <v>23.4</v>
+        <v>23.29</v>
       </c>
       <c r="D130" t="n">
-        <v>23.4</v>
+        <v>23.29</v>
       </c>
       <c r="E130" t="n">
-        <v>23.28</v>
+        <v>23.29</v>
       </c>
       <c r="F130" t="n">
-        <v>10564.9086</v>
+        <v>9200</v>
       </c>
       <c r="G130" t="n">
-        <v>22.9175</v>
+        <v>22.91199999999999</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5242,10 +4966,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="C131" t="n">
         <v>23.4</v>
-      </c>
-      <c r="C131" t="n">
-        <v>23.28</v>
       </c>
       <c r="D131" t="n">
         <v>23.4</v>
@@ -5254,10 +4978,10 @@
         <v>23.28</v>
       </c>
       <c r="F131" t="n">
-        <v>934.4854</v>
+        <v>10564.9086</v>
       </c>
       <c r="G131" t="n">
-        <v>22.92083333333333</v>
+        <v>22.9175</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5277,22 +5001,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C132" t="n">
         <v>23.28</v>
       </c>
-      <c r="C132" t="n">
-        <v>23.54</v>
-      </c>
       <c r="D132" t="n">
-        <v>23.54</v>
+        <v>23.4</v>
       </c>
       <c r="E132" t="n">
         <v>23.28</v>
       </c>
       <c r="F132" t="n">
-        <v>10023</v>
+        <v>934.4854</v>
       </c>
       <c r="G132" t="n">
-        <v>22.92983333333333</v>
+        <v>22.92083333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5312,22 +5036,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>23.16</v>
+        <v>23.28</v>
       </c>
       <c r="C133" t="n">
-        <v>23.16</v>
+        <v>23.54</v>
       </c>
       <c r="D133" t="n">
-        <v>23.16</v>
+        <v>23.54</v>
       </c>
       <c r="E133" t="n">
-        <v>23.16</v>
+        <v>23.28</v>
       </c>
       <c r="F133" t="n">
-        <v>973.3475</v>
+        <v>10023</v>
       </c>
       <c r="G133" t="n">
-        <v>22.93333333333333</v>
+        <v>22.92983333333333</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5347,22 +5071,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>23.26</v>
+        <v>23.16</v>
       </c>
       <c r="C134" t="n">
-        <v>23.26</v>
+        <v>23.16</v>
       </c>
       <c r="D134" t="n">
-        <v>23.26</v>
+        <v>23.16</v>
       </c>
       <c r="E134" t="n">
-        <v>23.26</v>
+        <v>23.16</v>
       </c>
       <c r="F134" t="n">
-        <v>23</v>
+        <v>973.3475</v>
       </c>
       <c r="G134" t="n">
-        <v>22.941</v>
+        <v>22.93333333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5382,28 +5106,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>23.16</v>
+        <v>23.26</v>
       </c>
       <c r="C135" t="n">
-        <v>22.9</v>
+        <v>23.26</v>
       </c>
       <c r="D135" t="n">
-        <v>23.16</v>
+        <v>23.26</v>
       </c>
       <c r="E135" t="n">
-        <v>22.9</v>
+        <v>23.26</v>
       </c>
       <c r="F135" t="n">
-        <v>22224.5179</v>
+        <v>23</v>
       </c>
       <c r="G135" t="n">
-        <v>22.94266666666666</v>
+        <v>22.941</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5417,28 +5141,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>23.17</v>
+        <v>23.16</v>
       </c>
       <c r="C136" t="n">
-        <v>23.17</v>
+        <v>22.9</v>
       </c>
       <c r="D136" t="n">
-        <v>23.17</v>
+        <v>23.16</v>
       </c>
       <c r="E136" t="n">
-        <v>23.17</v>
+        <v>22.9</v>
       </c>
       <c r="F136" t="n">
-        <v>23</v>
+        <v>22224.5179</v>
       </c>
       <c r="G136" t="n">
-        <v>22.94716666666666</v>
+        <v>22.94266666666666</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5452,28 +5176,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>22.88</v>
+        <v>23.17</v>
       </c>
       <c r="C137" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="D137" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="E137" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="F137" t="n">
         <v>23</v>
       </c>
-      <c r="D137" t="n">
-        <v>23</v>
-      </c>
-      <c r="E137" t="n">
-        <v>22.87</v>
-      </c>
-      <c r="F137" t="n">
-        <v>48648.1921</v>
-      </c>
       <c r="G137" t="n">
-        <v>22.94816666666667</v>
+        <v>22.94716666666666</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5487,22 +5211,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="C138" t="n">
         <v>23</v>
       </c>
-      <c r="C138" t="n">
-        <v>23.05</v>
-      </c>
       <c r="D138" t="n">
-        <v>23.05</v>
+        <v>23</v>
       </c>
       <c r="E138" t="n">
-        <v>23</v>
+        <v>22.87</v>
       </c>
       <c r="F138" t="n">
-        <v>72764.2556</v>
+        <v>48648.1921</v>
       </c>
       <c r="G138" t="n">
-        <v>22.94916666666666</v>
+        <v>22.94816666666667</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5522,7 +5246,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>23.05</v>
+        <v>23</v>
       </c>
       <c r="C139" t="n">
         <v>23.05</v>
@@ -5531,13 +5255,13 @@
         <v>23.05</v>
       </c>
       <c r="E139" t="n">
-        <v>23.05</v>
+        <v>23</v>
       </c>
       <c r="F139" t="n">
-        <v>40000</v>
+        <v>72764.2556</v>
       </c>
       <c r="G139" t="n">
-        <v>22.94833333333333</v>
+        <v>22.94916666666666</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5569,10 +5293,10 @@
         <v>23.05</v>
       </c>
       <c r="F140" t="n">
-        <v>4551.673</v>
+        <v>40000</v>
       </c>
       <c r="G140" t="n">
-        <v>22.94716666666666</v>
+        <v>22.94833333333333</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5595,25 +5319,25 @@
         <v>23.05</v>
       </c>
       <c r="C141" t="n">
-        <v>22.82</v>
+        <v>23.05</v>
       </c>
       <c r="D141" t="n">
         <v>23.05</v>
       </c>
       <c r="E141" t="n">
-        <v>22.82</v>
+        <v>23.05</v>
       </c>
       <c r="F141" t="n">
-        <v>27487.8622</v>
+        <v>4551.673</v>
       </c>
       <c r="G141" t="n">
-        <v>22.94416666666666</v>
+        <v>22.94716666666666</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5627,28 +5351,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>23.1</v>
+        <v>23.05</v>
       </c>
       <c r="C142" t="n">
-        <v>23.1</v>
+        <v>22.82</v>
       </c>
       <c r="D142" t="n">
-        <v>23.1</v>
+        <v>23.05</v>
       </c>
       <c r="E142" t="n">
-        <v>23.1</v>
+        <v>22.82</v>
       </c>
       <c r="F142" t="n">
-        <v>41532.0076</v>
+        <v>27487.8622</v>
       </c>
       <c r="G142" t="n">
-        <v>22.94749999999999</v>
+        <v>22.94416666666666</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5662,22 +5386,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="C143" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="D143" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="E143" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="F143" t="n">
-        <v>40000</v>
+        <v>41532.0076</v>
       </c>
       <c r="G143" t="n">
-        <v>22.9495</v>
+        <v>22.94749999999999</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5697,22 +5421,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>22.86</v>
+        <v>22.9</v>
       </c>
       <c r="C144" t="n">
-        <v>22.82</v>
+        <v>22.9</v>
       </c>
       <c r="D144" t="n">
-        <v>22.86</v>
+        <v>22.9</v>
       </c>
       <c r="E144" t="n">
-        <v>22.82</v>
+        <v>22.9</v>
       </c>
       <c r="F144" t="n">
-        <v>91911.461</v>
+        <v>40000</v>
       </c>
       <c r="G144" t="n">
-        <v>22.94816666666666</v>
+        <v>22.9495</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5732,22 +5456,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>22.82</v>
+        <v>22.86</v>
       </c>
       <c r="C145" t="n">
         <v>22.82</v>
       </c>
       <c r="D145" t="n">
-        <v>22.82</v>
+        <v>22.86</v>
       </c>
       <c r="E145" t="n">
         <v>22.82</v>
       </c>
       <c r="F145" t="n">
-        <v>1099.7781</v>
+        <v>91911.461</v>
       </c>
       <c r="G145" t="n">
-        <v>22.95016666666666</v>
+        <v>22.94816666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5767,19 +5491,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>22.81</v>
+        <v>22.82</v>
       </c>
       <c r="C146" t="n">
-        <v>22.7</v>
+        <v>22.82</v>
       </c>
       <c r="D146" t="n">
-        <v>22.81</v>
+        <v>22.82</v>
       </c>
       <c r="E146" t="n">
-        <v>22.7</v>
+        <v>22.82</v>
       </c>
       <c r="F146" t="n">
-        <v>7152.9526</v>
+        <v>1099.7781</v>
       </c>
       <c r="G146" t="n">
         <v>22.95016666666666</v>
@@ -5802,22 +5526,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>22.65</v>
+        <v>22.81</v>
       </c>
       <c r="C147" t="n">
-        <v>22.65</v>
+        <v>22.7</v>
       </c>
       <c r="D147" t="n">
-        <v>22.65</v>
+        <v>22.81</v>
       </c>
       <c r="E147" t="n">
-        <v>22.65</v>
+        <v>22.7</v>
       </c>
       <c r="F147" t="n">
-        <v>3384.6857</v>
+        <v>7152.9526</v>
       </c>
       <c r="G147" t="n">
-        <v>22.94666666666666</v>
+        <v>22.95016666666666</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5837,22 +5561,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>22.7</v>
+        <v>22.65</v>
       </c>
       <c r="C148" t="n">
-        <v>22.66</v>
+        <v>22.65</v>
       </c>
       <c r="D148" t="n">
-        <v>22.7</v>
+        <v>22.65</v>
       </c>
       <c r="E148" t="n">
-        <v>22.66</v>
+        <v>22.65</v>
       </c>
       <c r="F148" t="n">
-        <v>4161.4121</v>
+        <v>3384.6857</v>
       </c>
       <c r="G148" t="n">
-        <v>22.94316666666667</v>
+        <v>22.94666666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5872,22 +5596,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>22.89</v>
+        <v>22.7</v>
       </c>
       <c r="C149" t="n">
-        <v>22.89</v>
+        <v>22.66</v>
       </c>
       <c r="D149" t="n">
-        <v>22.89</v>
+        <v>22.7</v>
       </c>
       <c r="E149" t="n">
-        <v>22.89</v>
+        <v>22.66</v>
       </c>
       <c r="F149" t="n">
-        <v>23</v>
+        <v>4161.4121</v>
       </c>
       <c r="G149" t="n">
-        <v>22.94466666666667</v>
+        <v>22.94316666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5907,22 +5631,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>22.8</v>
+        <v>22.89</v>
       </c>
       <c r="C150" t="n">
-        <v>22.8</v>
+        <v>22.89</v>
       </c>
       <c r="D150" t="n">
-        <v>22.8</v>
+        <v>22.89</v>
       </c>
       <c r="E150" t="n">
-        <v>22.8</v>
+        <v>22.89</v>
       </c>
       <c r="F150" t="n">
-        <v>2296.3744</v>
+        <v>23</v>
       </c>
       <c r="G150" t="n">
-        <v>22.948</v>
+        <v>22.94466666666667</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5942,22 +5666,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>22.89</v>
+        <v>22.8</v>
       </c>
       <c r="C151" t="n">
-        <v>22.89</v>
+        <v>22.8</v>
       </c>
       <c r="D151" t="n">
-        <v>22.89</v>
+        <v>22.8</v>
       </c>
       <c r="E151" t="n">
-        <v>22.89</v>
+        <v>22.8</v>
       </c>
       <c r="F151" t="n">
-        <v>23</v>
+        <v>2296.3744</v>
       </c>
       <c r="G151" t="n">
-        <v>22.95283333333334</v>
+        <v>22.948</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5977,22 +5701,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>22.8</v>
+        <v>22.89</v>
       </c>
       <c r="C152" t="n">
-        <v>22.8</v>
+        <v>22.89</v>
       </c>
       <c r="D152" t="n">
-        <v>22.8</v>
+        <v>22.89</v>
       </c>
       <c r="E152" t="n">
-        <v>22.8</v>
+        <v>22.89</v>
       </c>
       <c r="F152" t="n">
-        <v>921.6312</v>
+        <v>23</v>
       </c>
       <c r="G152" t="n">
-        <v>22.95383333333334</v>
+        <v>22.95283333333334</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6024,10 +5748,10 @@
         <v>22.8</v>
       </c>
       <c r="F153" t="n">
-        <v>1933.15</v>
+        <v>921.6312</v>
       </c>
       <c r="G153" t="n">
-        <v>22.94866666666667</v>
+        <v>22.95383333333334</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6047,22 +5771,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>22.95</v>
+        <v>22.8</v>
       </c>
       <c r="C154" t="n">
-        <v>22.95</v>
+        <v>22.8</v>
       </c>
       <c r="D154" t="n">
-        <v>22.95</v>
+        <v>22.8</v>
       </c>
       <c r="E154" t="n">
-        <v>22.95</v>
+        <v>22.8</v>
       </c>
       <c r="F154" t="n">
-        <v>23</v>
+        <v>1933.15</v>
       </c>
       <c r="G154" t="n">
-        <v>22.94633333333334</v>
+        <v>22.94866666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6082,22 +5806,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>22.9</v>
+        <v>22.95</v>
       </c>
       <c r="C155" t="n">
-        <v>22.8</v>
+        <v>22.95</v>
       </c>
       <c r="D155" t="n">
-        <v>22.9</v>
+        <v>22.95</v>
       </c>
       <c r="E155" t="n">
-        <v>22.8</v>
+        <v>22.95</v>
       </c>
       <c r="F155" t="n">
-        <v>373.5288</v>
+        <v>23</v>
       </c>
       <c r="G155" t="n">
-        <v>22.94133333333334</v>
+        <v>22.94633333333334</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6117,22 +5841,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>22.97</v>
+        <v>22.9</v>
       </c>
       <c r="C156" t="n">
-        <v>22.97</v>
+        <v>22.8</v>
       </c>
       <c r="D156" t="n">
-        <v>22.97</v>
+        <v>22.9</v>
       </c>
       <c r="E156" t="n">
-        <v>22.97</v>
+        <v>22.8</v>
       </c>
       <c r="F156" t="n">
-        <v>23</v>
+        <v>373.5288</v>
       </c>
       <c r="G156" t="n">
-        <v>22.94083333333334</v>
+        <v>22.94133333333334</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6164,10 +5888,10 @@
         <v>22.97</v>
       </c>
       <c r="F157" t="n">
-        <v>10486.634</v>
+        <v>23</v>
       </c>
       <c r="G157" t="n">
-        <v>22.94016666666668</v>
+        <v>22.94083333333334</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6187,22 +5911,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>22.8</v>
+        <v>22.97</v>
       </c>
       <c r="C158" t="n">
-        <v>22.8</v>
+        <v>22.97</v>
       </c>
       <c r="D158" t="n">
-        <v>22.8</v>
+        <v>22.97</v>
       </c>
       <c r="E158" t="n">
-        <v>22.8</v>
+        <v>22.97</v>
       </c>
       <c r="F158" t="n">
-        <v>9725.5931</v>
+        <v>10486.634</v>
       </c>
       <c r="G158" t="n">
-        <v>22.93850000000001</v>
+        <v>22.94016666666668</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6234,10 +5958,10 @@
         <v>22.8</v>
       </c>
       <c r="F159" t="n">
-        <v>7875.1367</v>
+        <v>9725.5931</v>
       </c>
       <c r="G159" t="n">
-        <v>22.93683333333334</v>
+        <v>22.93850000000001</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6257,22 +5981,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>22.73</v>
+        <v>22.8</v>
       </c>
       <c r="C160" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="D160" t="n">
-        <v>22.73</v>
+        <v>22.8</v>
       </c>
       <c r="E160" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="F160" t="n">
-        <v>3087.6011</v>
+        <v>7875.1367</v>
       </c>
       <c r="G160" t="n">
-        <v>22.93516666666667</v>
+        <v>22.93683333333334</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6292,19 +6016,19 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>22.8</v>
+        <v>22.73</v>
       </c>
       <c r="C161" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="D161" t="n">
-        <v>22.8</v>
+        <v>22.73</v>
       </c>
       <c r="E161" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="F161" t="n">
-        <v>1826.2576</v>
+        <v>3087.6011</v>
       </c>
       <c r="G161" t="n">
         <v>22.93516666666667</v>
@@ -6327,22 +6051,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="C162" t="n">
-        <v>23.05</v>
+        <v>22.8</v>
       </c>
       <c r="D162" t="n">
-        <v>23.05</v>
+        <v>22.8</v>
       </c>
       <c r="E162" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="F162" t="n">
-        <v>40023</v>
+        <v>1826.2576</v>
       </c>
       <c r="G162" t="n">
-        <v>22.93783333333334</v>
+        <v>22.93516666666667</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6365,19 +6089,19 @@
         <v>22.9</v>
       </c>
       <c r="C163" t="n">
-        <v>22.9</v>
+        <v>23.05</v>
       </c>
       <c r="D163" t="n">
-        <v>22.9</v>
+        <v>23.05</v>
       </c>
       <c r="E163" t="n">
         <v>22.9</v>
       </c>
       <c r="F163" t="n">
-        <v>779.0531</v>
+        <v>40023</v>
       </c>
       <c r="G163" t="n">
-        <v>22.94116666666667</v>
+        <v>22.93783333333334</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6392,6 +6116,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C164" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F164" t="n">
+        <v>779.0531</v>
+      </c>
+      <c r="G164" t="n">
+        <v>22.94116666666667</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-14 BackTest LBA.xlsx
+++ b/BackTest/2020-01-14 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M164"/>
+  <dimension ref="A1:N174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>50062.75734588781</v>
       </c>
       <c r="G2" t="n">
+        <v>23.71666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>23.76483333333333</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>5000</v>
       </c>
       <c r="G3" t="n">
+        <v>23.67333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>23.76066666666666</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>616.12</v>
       </c>
       <c r="G4" t="n">
+        <v>23.64733333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>23.7565</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>4105.1056</v>
       </c>
       <c r="G5" t="n">
+        <v>23.62333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>23.75216666666666</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>654.6928</v>
       </c>
       <c r="G6" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="H6" t="n">
         <v>23.74799999999999</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>8184.86</v>
       </c>
       <c r="G7" t="n">
+        <v>23.57133333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>23.74399999999999</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>16526.7873</v>
       </c>
       <c r="G8" t="n">
+        <v>23.54266666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>23.74816666666666</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>34759.0672</v>
       </c>
       <c r="G9" t="n">
+        <v>23.52133333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>23.74816666666666</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>75235.5529</v>
       </c>
       <c r="G10" t="n">
+        <v>23.49066666666666</v>
+      </c>
+      <c r="H10" t="n">
         <v>23.74216666666666</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>240849.4162</v>
       </c>
       <c r="G11" t="n">
+        <v>23.44599999999999</v>
+      </c>
+      <c r="H11" t="n">
         <v>23.72699999999999</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>3009.9761</v>
       </c>
       <c r="G12" t="n">
+        <v>23.41466666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>23.71866666666666</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1270.4355</v>
       </c>
       <c r="G13" t="n">
+        <v>23.41066666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>23.71566666666666</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>89693.5738</v>
       </c>
       <c r="G14" t="n">
+        <v>23.41333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>23.71249999999999</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>4920.5991</v>
       </c>
       <c r="G15" t="n">
+        <v>23.398</v>
+      </c>
+      <c r="H15" t="n">
         <v>23.70966666666666</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>193.0084</v>
       </c>
       <c r="G16" t="n">
+        <v>23.382</v>
+      </c>
+      <c r="H16" t="n">
         <v>23.70899999999999</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>7098.8423</v>
       </c>
       <c r="G17" t="n">
+        <v>23.35866666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>23.71166666666665</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>602.4761</v>
       </c>
       <c r="G18" t="n">
+        <v>23.35533333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>23.71166666666665</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>58355.2628</v>
       </c>
       <c r="G19" t="n">
+        <v>23.35866666666667</v>
+      </c>
+      <c r="H19" t="n">
         <v>23.71333333333332</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>36480.3279</v>
       </c>
       <c r="G20" t="n">
+        <v>23.362</v>
+      </c>
+      <c r="H20" t="n">
         <v>23.71383333333332</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>616.0779</v>
       </c>
       <c r="G21" t="n">
+        <v>23.36533333333334</v>
+      </c>
+      <c r="H21" t="n">
         <v>23.71416666666665</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>15772.7713</v>
       </c>
       <c r="G22" t="n">
+        <v>23.36733333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>23.71733333333332</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>25093.9935</v>
       </c>
       <c r="G23" t="n">
+        <v>23.37066666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>23.71666666666665</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>15551.2911</v>
       </c>
       <c r="G24" t="n">
+        <v>23.37866666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>23.71266666666665</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>25250.9571</v>
       </c>
       <c r="G25" t="n">
+        <v>23.39866666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>23.70733333333332</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>1746.159</v>
       </c>
       <c r="G26" t="n">
+        <v>23.43333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>23.69749999999998</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>21</v>
       </c>
       <c r="G27" t="n">
+        <v>23.47733333333333</v>
+      </c>
+      <c r="H27" t="n">
         <v>23.69466666666665</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>22255.7658</v>
       </c>
       <c r="G28" t="n">
+        <v>23.49066666666667</v>
+      </c>
+      <c r="H28" t="n">
         <v>23.69533333333332</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>597.2184999999999</v>
       </c>
       <c r="G29" t="n">
+        <v>23.50733333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>23.69199999999998</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>7902.7815</v>
       </c>
       <c r="G30" t="n">
+        <v>23.52333333333333</v>
+      </c>
+      <c r="H30" t="n">
         <v>23.68416666666665</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>21921.2336</v>
       </c>
       <c r="G31" t="n">
+        <v>23.53933333333334</v>
+      </c>
+      <c r="H31" t="n">
         <v>23.67916666666664</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>3428</v>
       </c>
       <c r="G32" t="n">
+        <v>23.55533333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>23.67566666666664</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>8149.405</v>
       </c>
       <c r="G33" t="n">
+        <v>23.57866666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>23.66899999999998</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>84435.27000544161</v>
       </c>
       <c r="G34" t="n">
+        <v>23.60466666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>23.66633333333331</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>33839.7432</v>
       </c>
       <c r="G35" t="n">
+        <v>23.63600000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>23.66749999999998</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>3796.4569</v>
       </c>
       <c r="G36" t="n">
+        <v>23.662</v>
+      </c>
+      <c r="H36" t="n">
         <v>23.66483333333331</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>32306.9377</v>
       </c>
       <c r="G37" t="n">
+        <v>23.67066666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>23.65766666666665</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>591.4315</v>
       </c>
       <c r="G38" t="n">
+        <v>23.68266666666667</v>
+      </c>
+      <c r="H38" t="n">
         <v>23.65183333333332</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>28578.1007</v>
       </c>
       <c r="G39" t="n">
+        <v>23.686</v>
+      </c>
+      <c r="H39" t="n">
         <v>23.64299999999998</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>50853.9414</v>
       </c>
       <c r="G40" t="n">
+        <v>23.68733333333334</v>
+      </c>
+      <c r="H40" t="n">
         <v>23.63399999999998</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>1092.115</v>
       </c>
       <c r="G41" t="n">
+        <v>23.68866666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>23.62499999999999</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>156287.0509</v>
       </c>
       <c r="G42" t="n">
+        <v>23.65933333333334</v>
+      </c>
+      <c r="H42" t="n">
         <v>23.61199999999998</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>25212.4065</v>
       </c>
       <c r="G43" t="n">
+        <v>23.65066666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>23.60066666666665</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>1669.1856</v>
       </c>
       <c r="G44" t="n">
+        <v>23.63466666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>23.58983333333332</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>575190.4991</v>
       </c>
       <c r="G45" t="n">
+        <v>23.61866666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>23.57749999999999</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>55194.4219</v>
       </c>
       <c r="G46" t="n">
+        <v>23.59866666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>23.56566666666665</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>2655.7495</v>
       </c>
       <c r="G47" t="n">
+        <v>23.57866666666667</v>
+      </c>
+      <c r="H47" t="n">
         <v>23.55233333333332</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>204</v>
       </c>
       <c r="G48" t="n">
+        <v>23.542</v>
+      </c>
+      <c r="H48" t="n">
         <v>23.53733333333332</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>1643.4815</v>
       </c>
       <c r="G49" t="n">
+        <v>23.50266666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>23.52833333333332</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>19426.9874</v>
       </c>
       <c r="G50" t="n">
+        <v>23.458</v>
+      </c>
+      <c r="H50" t="n">
         <v>23.51983333333332</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>772.3848</v>
       </c>
       <c r="G51" t="n">
+        <v>23.42466666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>23.51299999999999</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>4630.2935</v>
       </c>
       <c r="G52" t="n">
+        <v>23.40733333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>23.50416666666666</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>126</v>
       </c>
       <c r="G53" t="n">
+        <v>23.38066666666667</v>
+      </c>
+      <c r="H53" t="n">
         <v>23.49416666666665</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>203</v>
       </c>
       <c r="G54" t="n">
+        <v>23.36266666666667</v>
+      </c>
+      <c r="H54" t="n">
         <v>23.48716666666665</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>51685.1201</v>
       </c>
       <c r="G55" t="n">
+        <v>23.35066666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>23.48183333333332</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>64529.9182</v>
       </c>
       <c r="G56" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="H56" t="n">
         <v>23.47199999999998</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>160053.1988</v>
       </c>
       <c r="G57" t="n">
+        <v>23.28533333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>23.45916666666665</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>55495.1954</v>
       </c>
       <c r="G58" t="n">
+        <v>23.244</v>
+      </c>
+      <c r="H58" t="n">
         <v>23.44899999999998</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>44539.8832</v>
       </c>
       <c r="G59" t="n">
+        <v>23.20666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>23.44049999999998</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>46972.6835</v>
       </c>
       <c r="G60" t="n">
+        <v>23.16933333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>23.42733333333332</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>91497.5123</v>
       </c>
       <c r="G61" t="n">
+        <v>23.14266666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>23.41566666666665</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>39658.7143</v>
       </c>
       <c r="G62" t="n">
+        <v>23.116</v>
+      </c>
+      <c r="H62" t="n">
         <v>23.40216666666665</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>42432</v>
       </c>
       <c r="G63" t="n">
+        <v>23.122</v>
+      </c>
+      <c r="H63" t="n">
         <v>23.39949999999999</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>111596</v>
       </c>
       <c r="G64" t="n">
+        <v>23.10066666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>23.39166666666665</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>11666</v>
       </c>
       <c r="G65" t="n">
+        <v>23.096</v>
+      </c>
+      <c r="H65" t="n">
         <v>23.38799999999998</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>4079.819</v>
       </c>
       <c r="G66" t="n">
+        <v>23.08333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>23.38383333333332</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>9546.845300000001</v>
       </c>
       <c r="G67" t="n">
+        <v>23.072</v>
+      </c>
+      <c r="H67" t="n">
         <v>23.37933333333332</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>68493.113</v>
       </c>
       <c r="G68" t="n">
+        <v>23.06066666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>23.37366666666665</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>4462.2117</v>
       </c>
       <c r="G69" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="H69" t="n">
         <v>23.36933333333332</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>125</v>
       </c>
       <c r="G70" t="n">
+        <v>23.028</v>
+      </c>
+      <c r="H70" t="n">
         <v>23.36616666666665</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>250</v>
       </c>
       <c r="G71" t="n">
+        <v>23.026</v>
+      </c>
+      <c r="H71" t="n">
         <v>23.36699999999998</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>125</v>
       </c>
       <c r="G72" t="n">
+        <v>23.038</v>
+      </c>
+      <c r="H72" t="n">
         <v>23.36499999999998</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>30195.01</v>
       </c>
       <c r="G73" t="n">
+        <v>23.05133333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>23.35916666666665</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>48734.5426</v>
       </c>
       <c r="G74" t="n">
+        <v>23.06133333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>23.35249999999998</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>60000</v>
       </c>
       <c r="G75" t="n">
+        <v>23.06133333333333</v>
+      </c>
+      <c r="H75" t="n">
         <v>23.34316666666665</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>26138</v>
       </c>
       <c r="G76" t="n">
+        <v>23.05466666666666</v>
+      </c>
+      <c r="H76" t="n">
         <v>23.33383333333332</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>4300.1642</v>
       </c>
       <c r="G77" t="n">
+        <v>23.05466666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>23.32616666666666</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>5000</v>
       </c>
       <c r="G78" t="n">
+        <v>23.03133333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>23.31849999999999</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>4290.5413</v>
       </c>
       <c r="G79" t="n">
+        <v>23.03199999999999</v>
+      </c>
+      <c r="H79" t="n">
         <v>23.30999999999999</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>23</v>
       </c>
       <c r="G80" t="n">
+        <v>23.02333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>23.30333333333332</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>17189.6271</v>
       </c>
       <c r="G81" t="n">
+        <v>23.01799999999999</v>
+      </c>
+      <c r="H81" t="n">
         <v>23.29699999999999</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>291.2369</v>
       </c>
       <c r="G82" t="n">
+        <v>23.00466666666666</v>
+      </c>
+      <c r="H82" t="n">
         <v>23.28866666666665</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>291.2369</v>
       </c>
       <c r="G83" t="n">
+        <v>22.98933333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>23.27833333333332</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>39658.7143</v>
       </c>
       <c r="G84" t="n">
+        <v>22.96533333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>23.26599999999999</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>614.481</v>
       </c>
       <c r="G85" t="n">
+        <v>22.95533333333332</v>
+      </c>
+      <c r="H85" t="n">
         <v>23.25533333333333</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>313.736</v>
       </c>
       <c r="G86" t="n">
+        <v>22.93066666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>23.24133333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>300.745</v>
       </c>
       <c r="G87" t="n">
+        <v>22.90533333333332</v>
+      </c>
+      <c r="H87" t="n">
         <v>23.22199999999999</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>22</v>
       </c>
       <c r="G88" t="n">
+        <v>22.89599999999999</v>
+      </c>
+      <c r="H88" t="n">
         <v>23.21049999999999</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>23</v>
       </c>
       <c r="G89" t="n">
+        <v>22.89066666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>23.19833333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>3087.6011</v>
       </c>
       <c r="G90" t="n">
+        <v>22.89066666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>23.185</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>28373.3301</v>
       </c>
       <c r="G91" t="n">
+        <v>22.87733333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>23.16833333333333</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>120455.5402</v>
       </c>
       <c r="G92" t="n">
+        <v>22.85733333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>23.15166666666666</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,22 +3911,21 @@
         <v>23</v>
       </c>
       <c r="G93" t="n">
+        <v>22.844</v>
+      </c>
+      <c r="H93" t="n">
         <v>23.13483333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K93" t="n">
-        <v>22.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3672,802 +3949,869 @@
         <v>23</v>
       </c>
       <c r="G94" t="n">
+        <v>22.852</v>
+      </c>
+      <c r="H94" t="n">
         <v>23.12183333333332</v>
       </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="C95" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="D95" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="E95" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="F95" t="n">
+        <v>23</v>
+      </c>
+      <c r="G95" t="n">
+        <v>22.85133333333333</v>
+      </c>
+      <c r="H95" t="n">
+        <v>23.10716666666666</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C96" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D96" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E96" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="F96" t="n">
+        <v>5611.8569</v>
+      </c>
+      <c r="G96" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="H96" t="n">
+        <v>23.09399999999999</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>23</v>
+      </c>
+      <c r="C97" t="n">
+        <v>23</v>
+      </c>
+      <c r="D97" t="n">
+        <v>23</v>
+      </c>
+      <c r="E97" t="n">
+        <v>23</v>
+      </c>
+      <c r="F97" t="n">
+        <v>611.8569</v>
+      </c>
+      <c r="G97" t="n">
+        <v>22.85</v>
+      </c>
+      <c r="H97" t="n">
+        <v>23.08349999999998</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="C98" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="D98" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="E98" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="F98" t="n">
+        <v>130.0096</v>
+      </c>
+      <c r="G98" t="n">
+        <v>22.85733333333333</v>
+      </c>
+      <c r="H98" t="n">
+        <v>23.07199999999998</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C99" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D99" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E99" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F99" t="n">
+        <v>602.2035</v>
+      </c>
+      <c r="G99" t="n">
+        <v>22.86533333333333</v>
+      </c>
+      <c r="H99" t="n">
+        <v>23.06083333333332</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C100" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D100" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E100" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F100" t="n">
+        <v>87.33624454148472</v>
+      </c>
+      <c r="G100" t="n">
+        <v>22.86533333333333</v>
+      </c>
+      <c r="H100" t="n">
+        <v>23.04983333333332</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C101" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F101" t="n">
+        <v>66808.86719999999</v>
+      </c>
+      <c r="G101" t="n">
+        <v>22.872</v>
+      </c>
+      <c r="H101" t="n">
+        <v>23.03716666666666</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C102" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D102" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E102" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F102" t="n">
+        <v>17190.0941</v>
+      </c>
+      <c r="G102" t="n">
+        <v>22.87866666666666</v>
+      </c>
+      <c r="H102" t="n">
+        <v>23.02683333333332</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="C103" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="D103" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="E103" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="F103" t="n">
+        <v>23</v>
+      </c>
+      <c r="G103" t="n">
+        <v>22.88066666666666</v>
+      </c>
+      <c r="H103" t="n">
+        <v>23.01799999999999</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C104" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D104" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E104" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F104" t="n">
+        <v>87.33620000000001</v>
+      </c>
+      <c r="G104" t="n">
+        <v>22.86933333333333</v>
+      </c>
+      <c r="H104" t="n">
+        <v>23.00699999999999</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="C105" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D105" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="E105" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F105" t="n">
+        <v>112897.2611</v>
+      </c>
+      <c r="G105" t="n">
+        <v>22.86266666666666</v>
+      </c>
+      <c r="H105" t="n">
+        <v>22.99599999999999</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="C106" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="D106" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="E106" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="F106" t="n">
+        <v>546.6738</v>
+      </c>
+      <c r="G106" t="n">
+        <v>22.88666666666666</v>
+      </c>
+      <c r="H106" t="n">
+        <v>22.99033333333333</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C107" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D107" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E107" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F107" t="n">
+        <v>6276.1826</v>
+      </c>
+      <c r="G107" t="n">
+        <v>22.89333333333332</v>
+      </c>
+      <c r="H107" t="n">
+        <v>22.98033333333333</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C108" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D108" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E108" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F108" t="n">
+        <v>941.4272999999999</v>
+      </c>
+      <c r="G108" t="n">
+        <v>22.89066666666665</v>
+      </c>
+      <c r="H108" t="n">
+        <v>22.97199999999999</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="C109" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="D109" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="E109" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="F109" t="n">
+        <v>23</v>
+      </c>
+      <c r="G109" t="n">
+        <v>22.87799999999999</v>
+      </c>
+      <c r="H109" t="n">
+        <v>22.96566666666666</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C110" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D110" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E110" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F110" t="n">
+        <v>57284.617</v>
+      </c>
+      <c r="G110" t="n">
+        <v>22.85199999999999</v>
+      </c>
+      <c r="H110" t="n">
+        <v>22.95566666666667</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C111" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D111" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="E111" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="F111" t="n">
+        <v>26729</v>
+      </c>
+      <c r="G111" t="n">
+        <v>22.84133333333332</v>
+      </c>
+      <c r="H111" t="n">
+        <v>22.94816666666667</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="C112" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="D112" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="E112" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1374.3263</v>
+      </c>
+      <c r="G112" t="n">
+        <v>22.81599999999998</v>
+      </c>
+      <c r="H112" t="n">
+        <v>22.93566666666667</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="C113" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="D113" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="E113" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1492.2794</v>
+      </c>
+      <c r="G113" t="n">
+        <v>22.78533333333332</v>
+      </c>
+      <c r="H113" t="n">
+        <v>22.92316666666666</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C114" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D114" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E114" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F114" t="n">
+        <v>583.1064</v>
+      </c>
+      <c r="G114" t="n">
+        <v>22.77199999999999</v>
+      </c>
+      <c r="H114" t="n">
+        <v>22.91316666666667</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
         <v>22.6</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="C115" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E115" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="F115" t="n">
+        <v>314.1423</v>
+      </c>
+      <c r="G115" t="n">
+        <v>22.75199999999999</v>
+      </c>
+      <c r="H115" t="n">
+        <v>22.90016666666666</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L115" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C116" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D116" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E116" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F116" t="n">
+        <v>23</v>
+      </c>
+      <c r="G116" t="n">
+        <v>22.74533333333332</v>
+      </c>
+      <c r="H116" t="n">
+        <v>22.8935</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="L116" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="C95" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="D95" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="E95" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="F95" t="n">
-        <v>23</v>
-      </c>
-      <c r="G95" t="n">
-        <v>23.10716666666666</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="C96" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="D96" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="E96" t="n">
-        <v>22.79</v>
-      </c>
-      <c r="F96" t="n">
-        <v>5611.8569</v>
-      </c>
-      <c r="G96" t="n">
-        <v>23.09399999999999</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>23</v>
-      </c>
-      <c r="C97" t="n">
-        <v>23</v>
-      </c>
-      <c r="D97" t="n">
-        <v>23</v>
-      </c>
-      <c r="E97" t="n">
-        <v>23</v>
-      </c>
-      <c r="F97" t="n">
-        <v>611.8569</v>
-      </c>
-      <c r="G97" t="n">
-        <v>23.08349999999998</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="C98" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="D98" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="E98" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="F98" t="n">
-        <v>130.0096</v>
-      </c>
-      <c r="G98" t="n">
-        <v>23.07199999999998</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="C99" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="D99" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="E99" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="F99" t="n">
-        <v>602.2035</v>
-      </c>
-      <c r="G99" t="n">
-        <v>23.06083333333332</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="C100" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="D100" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="E100" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="F100" t="n">
-        <v>87.33624454148472</v>
-      </c>
-      <c r="G100" t="n">
-        <v>23.04983333333332</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C101" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D101" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E101" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F101" t="n">
-        <v>66808.86719999999</v>
-      </c>
-      <c r="G101" t="n">
-        <v>23.03716666666666</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C102" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D102" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E102" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F102" t="n">
-        <v>17190.0941</v>
-      </c>
-      <c r="G102" t="n">
-        <v>23.02683333333332</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="C103" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="D103" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="E103" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="F103" t="n">
-        <v>23</v>
-      </c>
-      <c r="G103" t="n">
-        <v>23.01799999999999</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C104" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D104" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E104" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F104" t="n">
-        <v>87.33620000000001</v>
-      </c>
-      <c r="G104" t="n">
-        <v>23.00699999999999</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="C105" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D105" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="E105" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F105" t="n">
-        <v>112897.2611</v>
-      </c>
-      <c r="G105" t="n">
-        <v>22.99599999999999</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="C106" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="D106" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="E106" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="F106" t="n">
-        <v>546.6738</v>
-      </c>
-      <c r="G106" t="n">
-        <v>22.99033333333333</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C107" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D107" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E107" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F107" t="n">
-        <v>6276.1826</v>
-      </c>
-      <c r="G107" t="n">
-        <v>22.98033333333333</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C108" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D108" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E108" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F108" t="n">
-        <v>941.4272999999999</v>
-      </c>
-      <c r="G108" t="n">
-        <v>22.97199999999999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="C109" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="D109" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="E109" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="F109" t="n">
-        <v>23</v>
-      </c>
-      <c r="G109" t="n">
-        <v>22.96566666666666</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C110" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D110" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E110" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F110" t="n">
-        <v>57284.617</v>
-      </c>
-      <c r="G110" t="n">
-        <v>22.95566666666667</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C111" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="D111" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="E111" t="n">
-        <v>22.63</v>
-      </c>
-      <c r="F111" t="n">
-        <v>26729</v>
-      </c>
-      <c r="G111" t="n">
-        <v>22.94816666666667</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="C112" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="D112" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="E112" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1374.3263</v>
-      </c>
-      <c r="G112" t="n">
-        <v>22.93566666666667</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="C113" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="D113" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="E113" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1492.2794</v>
-      </c>
-      <c r="G113" t="n">
-        <v>22.92316666666666</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C114" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D114" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E114" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F114" t="n">
-        <v>583.1064</v>
-      </c>
-      <c r="G114" t="n">
-        <v>22.91316666666667</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="C115" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="D115" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="E115" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="F115" t="n">
-        <v>314.1423</v>
-      </c>
-      <c r="G115" t="n">
-        <v>22.90016666666666</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C116" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D116" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E116" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F116" t="n">
-        <v>23</v>
-      </c>
-      <c r="G116" t="n">
-        <v>22.8935</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +4835,29 @@
         <v>50000</v>
       </c>
       <c r="G117" t="n">
+        <v>22.74199999999999</v>
+      </c>
+      <c r="H117" t="n">
         <v>22.891</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L117" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,18 +4881,29 @@
         <v>62400</v>
       </c>
       <c r="G118" t="n">
+        <v>22.74533333333332</v>
+      </c>
+      <c r="H118" t="n">
         <v>22.89333333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="L118" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,18 +4927,29 @@
         <v>20050</v>
       </c>
       <c r="G119" t="n">
+        <v>22.76133333333332</v>
+      </c>
+      <c r="H119" t="n">
         <v>22.89566666666667</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="L119" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +4973,29 @@
         <v>9800</v>
       </c>
       <c r="G120" t="n">
+        <v>22.78733333333332</v>
+      </c>
+      <c r="H120" t="n">
         <v>22.9005</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="L120" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,18 +5019,27 @@
         <v>23</v>
       </c>
       <c r="G121" t="n">
+        <v>22.80066666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>22.90483333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,18 +5063,27 @@
         <v>14725.1145</v>
       </c>
       <c r="G122" t="n">
+        <v>22.82799999999999</v>
+      </c>
+      <c r="H122" t="n">
         <v>22.90833333333333</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,18 +5107,27 @@
         <v>23</v>
       </c>
       <c r="G123" t="n">
+        <v>22.85933333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>22.90633333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5151,27 @@
         <v>5582.3865</v>
       </c>
       <c r="G124" t="n">
+        <v>22.872</v>
+      </c>
+      <c r="H124" t="n">
         <v>22.9085</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,18 +5195,27 @@
         <v>7341.2376</v>
       </c>
       <c r="G125" t="n">
+        <v>22.886</v>
+      </c>
+      <c r="H125" t="n">
         <v>22.90316666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,18 +5239,27 @@
         <v>23</v>
       </c>
       <c r="G126" t="n">
+        <v>22.89866666666666</v>
+      </c>
+      <c r="H126" t="n">
         <v>22.902</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,18 +5283,27 @@
         <v>64869.204</v>
       </c>
       <c r="G127" t="n">
+        <v>22.944</v>
+      </c>
+      <c r="H127" t="n">
         <v>22.90366666666666</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,18 +5327,27 @@
         <v>3754.2161</v>
       </c>
       <c r="G128" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="H128" t="n">
         <v>22.9055</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,18 +5371,27 @@
         <v>2127.2082</v>
       </c>
       <c r="G129" t="n">
+        <v>23.02933333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>22.90799999999999</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,18 +5415,27 @@
         <v>9200</v>
       </c>
       <c r="G130" t="n">
+        <v>23.07533333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>22.91199999999999</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +5459,27 @@
         <v>10564.9086</v>
       </c>
       <c r="G131" t="n">
+        <v>23.122</v>
+      </c>
+      <c r="H131" t="n">
         <v>22.9175</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +5503,27 @@
         <v>934.4854</v>
       </c>
       <c r="G132" t="n">
+        <v>23.15733333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>22.92083333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +5547,27 @@
         <v>10023</v>
       </c>
       <c r="G133" t="n">
+        <v>23.19733333333334</v>
+      </c>
+      <c r="H133" t="n">
         <v>22.92983333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +5591,27 @@
         <v>973.3475</v>
       </c>
       <c r="G134" t="n">
+        <v>23.212</v>
+      </c>
+      <c r="H134" t="n">
         <v>22.93333333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +5635,27 @@
         <v>23</v>
       </c>
       <c r="G135" t="n">
+        <v>23.22333333333334</v>
+      </c>
+      <c r="H135" t="n">
         <v>22.941</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,18 +5679,27 @@
         <v>22224.5179</v>
       </c>
       <c r="G136" t="n">
+        <v>23.206</v>
+      </c>
+      <c r="H136" t="n">
         <v>22.94266666666666</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,18 +5723,27 @@
         <v>23</v>
       </c>
       <c r="G137" t="n">
+        <v>23.21</v>
+      </c>
+      <c r="H137" t="n">
         <v>22.94716666666666</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,18 +5767,27 @@
         <v>48648.1921</v>
       </c>
       <c r="G138" t="n">
+        <v>23.19866666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>22.94816666666667</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,18 +5811,29 @@
         <v>72764.2556</v>
       </c>
       <c r="G139" t="n">
+        <v>23.19466666666667</v>
+      </c>
+      <c r="H139" t="n">
         <v>22.94916666666666</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>23</v>
+      </c>
+      <c r="L139" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,18 +5857,29 @@
         <v>40000</v>
       </c>
       <c r="G140" t="n">
+        <v>23.204</v>
+      </c>
+      <c r="H140" t="n">
         <v>22.94833333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="L140" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5331,18 +5903,27 @@
         <v>4551.673</v>
       </c>
       <c r="G141" t="n">
+        <v>23.19866666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>22.94716666666666</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,18 +5947,27 @@
         <v>27487.8622</v>
       </c>
       <c r="G142" t="n">
+        <v>23.16666666666667</v>
+      </c>
+      <c r="H142" t="n">
         <v>22.94416666666666</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,18 +5991,27 @@
         <v>41532.0076</v>
       </c>
       <c r="G143" t="n">
+        <v>23.15733333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>22.94749999999999</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,18 +6035,27 @@
         <v>40000</v>
       </c>
       <c r="G144" t="n">
+        <v>23.13133333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>22.9495</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5471,18 +6079,27 @@
         <v>91911.461</v>
       </c>
       <c r="G145" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="H145" t="n">
         <v>22.94816666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,18 +6123,27 @@
         <v>1099.7781</v>
       </c>
       <c r="G146" t="n">
+        <v>23.06133333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>22.95016666666666</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5541,18 +6167,27 @@
         <v>7152.9526</v>
       </c>
       <c r="G147" t="n">
+        <v>23.02266666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>22.95016666666666</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,18 +6211,27 @@
         <v>3384.6857</v>
       </c>
       <c r="G148" t="n">
+        <v>22.96333333333332</v>
+      </c>
+      <c r="H148" t="n">
         <v>22.94666666666666</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,18 +6255,27 @@
         <v>4161.4121</v>
       </c>
       <c r="G149" t="n">
+        <v>22.92999999999999</v>
+      </c>
+      <c r="H149" t="n">
         <v>22.94316666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,18 +6299,27 @@
         <v>23</v>
       </c>
       <c r="G150" t="n">
+        <v>22.90533333333332</v>
+      </c>
+      <c r="H150" t="n">
         <v>22.94466666666667</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5681,18 +6343,27 @@
         <v>2296.3744</v>
       </c>
       <c r="G151" t="n">
+        <v>22.89866666666666</v>
+      </c>
+      <c r="H151" t="n">
         <v>22.948</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5716,18 +6387,27 @@
         <v>23</v>
       </c>
       <c r="G152" t="n">
+        <v>22.87999999999999</v>
+      </c>
+      <c r="H152" t="n">
         <v>22.95283333333334</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,18 +6431,27 @@
         <v>921.6312</v>
       </c>
       <c r="G153" t="n">
+        <v>22.86666666666666</v>
+      </c>
+      <c r="H153" t="n">
         <v>22.95383333333334</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5786,18 +6475,27 @@
         <v>1933.15</v>
       </c>
       <c r="G154" t="n">
+        <v>22.84999999999999</v>
+      </c>
+      <c r="H154" t="n">
         <v>22.94866666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,18 +6519,27 @@
         <v>23</v>
       </c>
       <c r="G155" t="n">
+        <v>22.84333333333332</v>
+      </c>
+      <c r="H155" t="n">
         <v>22.94633333333334</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,18 +6563,27 @@
         <v>373.5288</v>
       </c>
       <c r="G156" t="n">
+        <v>22.82666666666666</v>
+      </c>
+      <c r="H156" t="n">
         <v>22.94133333333334</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5891,18 +6607,27 @@
         <v>23</v>
       </c>
       <c r="G157" t="n">
+        <v>22.83666666666666</v>
+      </c>
+      <c r="H157" t="n">
         <v>22.94083333333334</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,18 +6651,27 @@
         <v>10486.634</v>
       </c>
       <c r="G158" t="n">
+        <v>22.82799999999999</v>
+      </c>
+      <c r="H158" t="n">
         <v>22.94016666666668</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,18 +6695,27 @@
         <v>9725.5931</v>
       </c>
       <c r="G159" t="n">
+        <v>22.82133333333332</v>
+      </c>
+      <c r="H159" t="n">
         <v>22.93850000000001</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5996,18 +6739,27 @@
         <v>7875.1367</v>
       </c>
       <c r="G160" t="n">
+        <v>22.81999999999999</v>
+      </c>
+      <c r="H160" t="n">
         <v>22.93683333333334</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6031,18 +6783,27 @@
         <v>3087.6011</v>
       </c>
       <c r="G161" t="n">
+        <v>22.81199999999999</v>
+      </c>
+      <c r="H161" t="n">
         <v>22.93516666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,18 +6827,29 @@
         <v>1826.2576</v>
       </c>
       <c r="G162" t="n">
+        <v>22.81866666666666</v>
+      </c>
+      <c r="H162" t="n">
         <v>22.93516666666667</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L162" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,18 +6873,29 @@
         <v>40023</v>
       </c>
       <c r="G163" t="n">
+        <v>22.84533333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>22.93783333333334</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="L163" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6136,18 +6919,469 @@
         <v>779.0531</v>
       </c>
       <c r="G164" t="n">
+        <v>22.86133333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>22.94116666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="L164" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="C165" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="D165" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="E165" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="F165" t="n">
+        <v>23</v>
+      </c>
+      <c r="G165" t="n">
+        <v>22.86933333333333</v>
+      </c>
+      <c r="H165" t="n">
+        <v>22.94633333333334</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="C166" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D166" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="E166" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G166" t="n">
+        <v>22.87066666666666</v>
+      </c>
+      <c r="H166" t="n">
+        <v>22.944</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="C167" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="D167" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="E167" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="F167" t="n">
+        <v>23</v>
+      </c>
+      <c r="G167" t="n">
+        <v>22.87733333333333</v>
+      </c>
+      <c r="H167" t="n">
+        <v>22.94883333333333</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="C168" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D168" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="E168" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1498.2245</v>
+      </c>
+      <c r="G168" t="n">
+        <v>22.87866666666666</v>
+      </c>
+      <c r="H168" t="n">
+        <v>22.95083333333333</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="C169" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="D169" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="E169" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="F169" t="n">
+        <v>23</v>
+      </c>
+      <c r="G169" t="n">
+        <v>22.89533333333333</v>
+      </c>
+      <c r="H169" t="n">
+        <v>22.953</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="C170" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="D170" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="E170" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="F170" t="n">
+        <v>31049.7296</v>
+      </c>
+      <c r="G170" t="n">
+        <v>22.90266666666666</v>
+      </c>
+      <c r="H170" t="n">
+        <v>22.959</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="C171" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="D171" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="E171" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1194.3396</v>
+      </c>
+      <c r="G171" t="n">
+        <v>22.91999999999999</v>
+      </c>
+      <c r="H171" t="n">
+        <v>22.96099999999999</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="C172" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="D172" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="E172" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="F172" t="n">
+        <v>188623</v>
+      </c>
+      <c r="G172" t="n">
+        <v>22.91933333333332</v>
+      </c>
+      <c r="H172" t="n">
+        <v>22.96666666666666</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="C173" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="D173" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="E173" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="F173" t="n">
+        <v>22377.1521</v>
+      </c>
+      <c r="G173" t="n">
+        <v>22.90999999999999</v>
+      </c>
+      <c r="H173" t="n">
+        <v>22.97133333333333</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="C174" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="D174" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="E174" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="F174" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G174" t="n">
+        <v>22.89999999999999</v>
+      </c>
+      <c r="H174" t="n">
+        <v>22.9705</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest LBA.xlsx
+++ b/BackTest/2020-01-14 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N174"/>
+  <dimension ref="A1:M203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23.6</v>
+        <v>24.21</v>
       </c>
       <c r="C2" t="n">
-        <v>23.71</v>
+        <v>24.15</v>
       </c>
       <c r="D2" t="n">
-        <v>23.71</v>
+        <v>24.21</v>
       </c>
       <c r="E2" t="n">
-        <v>23.6</v>
+        <v>23.81</v>
       </c>
       <c r="F2" t="n">
-        <v>50062.75734588781</v>
+        <v>755.807</v>
       </c>
       <c r="G2" t="n">
-        <v>23.71666666666667</v>
+        <v>-384383.6879664157</v>
       </c>
       <c r="H2" t="n">
-        <v>23.76483333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.6</v>
+        <v>24.05</v>
       </c>
       <c r="C3" t="n">
-        <v>23.45</v>
+        <v>24.05</v>
       </c>
       <c r="D3" t="n">
-        <v>23.6</v>
+        <v>24.2</v>
       </c>
       <c r="E3" t="n">
-        <v>23.45</v>
+        <v>24.05</v>
       </c>
       <c r="F3" t="n">
-        <v>5000</v>
+        <v>210448.0228</v>
       </c>
       <c r="G3" t="n">
-        <v>23.67333333333333</v>
+        <v>-594831.7107664157</v>
       </c>
       <c r="H3" t="n">
-        <v>23.76066666666666</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.45</v>
+        <v>24.35</v>
       </c>
       <c r="C4" t="n">
-        <v>23.45</v>
+        <v>23.9</v>
       </c>
       <c r="D4" t="n">
-        <v>23.45</v>
+        <v>24.35</v>
       </c>
       <c r="E4" t="n">
-        <v>23.45</v>
+        <v>23.8</v>
       </c>
       <c r="F4" t="n">
-        <v>616.12</v>
+        <v>40971.6706</v>
       </c>
       <c r="G4" t="n">
-        <v>23.64733333333333</v>
+        <v>-635803.3813664156</v>
       </c>
       <c r="H4" t="n">
-        <v>23.7565</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23.45</v>
+        <v>24.05</v>
       </c>
       <c r="C5" t="n">
-        <v>23.45</v>
+        <v>24.05</v>
       </c>
       <c r="D5" t="n">
-        <v>23.45</v>
+        <v>24.05</v>
       </c>
       <c r="E5" t="n">
-        <v>23.45</v>
+        <v>24.05</v>
       </c>
       <c r="F5" t="n">
-        <v>4105.1056</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>23.62333333333333</v>
+        <v>-635782.3813664156</v>
       </c>
       <c r="H5" t="n">
-        <v>23.75216666666666</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.6</v>
+        <v>24.06</v>
       </c>
       <c r="C6" t="n">
-        <v>23.45</v>
+        <v>24.06</v>
       </c>
       <c r="D6" t="n">
-        <v>23.6</v>
+        <v>24.06</v>
       </c>
       <c r="E6" t="n">
-        <v>23.45</v>
+        <v>24.06</v>
       </c>
       <c r="F6" t="n">
-        <v>654.6928</v>
+        <v>20.9999</v>
       </c>
       <c r="G6" t="n">
-        <v>23.6</v>
+        <v>-635761.3814664156</v>
       </c>
       <c r="H6" t="n">
-        <v>23.74799999999999</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.61</v>
+        <v>24.05</v>
       </c>
       <c r="C7" t="n">
-        <v>23.47</v>
+        <v>24.05</v>
       </c>
       <c r="D7" t="n">
-        <v>23.61</v>
+        <v>24.05</v>
       </c>
       <c r="E7" t="n">
-        <v>23.47</v>
+        <v>24.05</v>
       </c>
       <c r="F7" t="n">
-        <v>8184.86</v>
+        <v>1312.782</v>
       </c>
       <c r="G7" t="n">
-        <v>23.57133333333333</v>
+        <v>-637074.1634664156</v>
       </c>
       <c r="H7" t="n">
-        <v>23.74399999999999</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.47</v>
+        <v>24.06</v>
       </c>
       <c r="C8" t="n">
-        <v>23.47</v>
+        <v>24.1</v>
       </c>
       <c r="D8" t="n">
-        <v>23.47</v>
+        <v>24.1</v>
       </c>
       <c r="E8" t="n">
-        <v>23.47</v>
+        <v>24.06</v>
       </c>
       <c r="F8" t="n">
-        <v>16526.7873</v>
+        <v>45</v>
       </c>
       <c r="G8" t="n">
-        <v>23.54266666666667</v>
+        <v>-637029.1634664156</v>
       </c>
       <c r="H8" t="n">
-        <v>23.74816666666666</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.47</v>
+        <v>24.1</v>
       </c>
       <c r="C9" t="n">
-        <v>23.4</v>
+        <v>24.1</v>
       </c>
       <c r="D9" t="n">
-        <v>23.47</v>
+        <v>24.1</v>
       </c>
       <c r="E9" t="n">
-        <v>23.4</v>
+        <v>24.1</v>
       </c>
       <c r="F9" t="n">
-        <v>34759.0672</v>
+        <v>20.9997</v>
       </c>
       <c r="G9" t="n">
-        <v>23.52133333333333</v>
+        <v>-637029.1634664156</v>
       </c>
       <c r="H9" t="n">
-        <v>23.74816666666666</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="C10" t="n">
-        <v>23.24</v>
+        <v>24.1</v>
       </c>
       <c r="D10" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="E10" t="n">
-        <v>23.23</v>
+        <v>24.1</v>
       </c>
       <c r="F10" t="n">
-        <v>75235.5529</v>
+        <v>33.33</v>
       </c>
       <c r="G10" t="n">
-        <v>23.49066666666666</v>
+        <v>-637029.1634664156</v>
       </c>
       <c r="H10" t="n">
-        <v>23.74216666666666</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.3</v>
+        <v>24.2</v>
       </c>
       <c r="C11" t="n">
-        <v>23.02</v>
+        <v>24.2</v>
       </c>
       <c r="D11" t="n">
-        <v>23.3</v>
+        <v>24.2</v>
       </c>
       <c r="E11" t="n">
-        <v>23.02</v>
+        <v>24.2</v>
       </c>
       <c r="F11" t="n">
-        <v>240849.4162</v>
+        <v>29.1</v>
       </c>
       <c r="G11" t="n">
-        <v>23.44599999999999</v>
+        <v>-637000.0634664156</v>
       </c>
       <c r="H11" t="n">
-        <v>23.72699999999999</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.2</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>23.2</v>
+        <v>24.1</v>
       </c>
       <c r="D12" t="n">
-        <v>23.2</v>
+        <v>24.1</v>
       </c>
       <c r="E12" t="n">
-        <v>23.2</v>
+        <v>23.88</v>
       </c>
       <c r="F12" t="n">
-        <v>3009.9761</v>
+        <v>2265.3634</v>
       </c>
       <c r="G12" t="n">
-        <v>23.41466666666666</v>
+        <v>-639265.4268664157</v>
       </c>
       <c r="H12" t="n">
-        <v>23.71866666666666</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23.35</v>
+        <v>24.01</v>
       </c>
       <c r="C13" t="n">
-        <v>23.35</v>
+        <v>24.01</v>
       </c>
       <c r="D13" t="n">
-        <v>23.35</v>
+        <v>24.01</v>
       </c>
       <c r="E13" t="n">
-        <v>23.35</v>
+        <v>24.01</v>
       </c>
       <c r="F13" t="n">
-        <v>1270.4355</v>
+        <v>20.9978</v>
       </c>
       <c r="G13" t="n">
-        <v>23.41066666666666</v>
+        <v>-639286.4246664157</v>
       </c>
       <c r="H13" t="n">
-        <v>23.71566666666666</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23.35</v>
+        <v>24.1</v>
       </c>
       <c r="C14" t="n">
-        <v>23.35</v>
+        <v>24.1</v>
       </c>
       <c r="D14" t="n">
-        <v>23.35</v>
+        <v>24.1</v>
       </c>
       <c r="E14" t="n">
-        <v>23.35</v>
+        <v>24.1</v>
       </c>
       <c r="F14" t="n">
-        <v>89693.5738</v>
+        <v>40.1</v>
       </c>
       <c r="G14" t="n">
-        <v>23.41333333333333</v>
+        <v>-639246.3246664157</v>
       </c>
       <c r="H14" t="n">
-        <v>23.71249999999999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.36</v>
+        <v>24.01</v>
       </c>
       <c r="C15" t="n">
-        <v>23.36</v>
+        <v>24.01</v>
       </c>
       <c r="D15" t="n">
-        <v>23.36</v>
+        <v>24.01</v>
       </c>
       <c r="E15" t="n">
-        <v>23.36</v>
+        <v>24.01</v>
       </c>
       <c r="F15" t="n">
-        <v>4920.5991</v>
+        <v>26.7</v>
       </c>
       <c r="G15" t="n">
-        <v>23.398</v>
+        <v>-639273.0246664156</v>
       </c>
       <c r="H15" t="n">
-        <v>23.70966666666666</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23.36</v>
+        <v>24.1</v>
       </c>
       <c r="C16" t="n">
-        <v>23.36</v>
+        <v>24.1</v>
       </c>
       <c r="D16" t="n">
-        <v>23.36</v>
+        <v>24.1</v>
       </c>
       <c r="E16" t="n">
-        <v>23.36</v>
+        <v>24.1</v>
       </c>
       <c r="F16" t="n">
-        <v>193.0084</v>
+        <v>25.9</v>
       </c>
       <c r="G16" t="n">
-        <v>23.382</v>
+        <v>-639247.1246664156</v>
       </c>
       <c r="H16" t="n">
-        <v>23.70899999999999</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23.36</v>
+        <v>24.01</v>
       </c>
       <c r="C17" t="n">
-        <v>23.36</v>
+        <v>24.1</v>
       </c>
       <c r="D17" t="n">
-        <v>23.36</v>
+        <v>24.1</v>
       </c>
       <c r="E17" t="n">
-        <v>23.36</v>
+        <v>23.91</v>
       </c>
       <c r="F17" t="n">
-        <v>7098.8423</v>
+        <v>28927.6087</v>
       </c>
       <c r="G17" t="n">
-        <v>23.35866666666667</v>
+        <v>-639247.1246664156</v>
       </c>
       <c r="H17" t="n">
-        <v>23.71166666666665</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23.4</v>
+        <v>24.01</v>
       </c>
       <c r="C18" t="n">
-        <v>23.4</v>
+        <v>23.84</v>
       </c>
       <c r="D18" t="n">
-        <v>23.4</v>
+        <v>24.01</v>
       </c>
       <c r="E18" t="n">
-        <v>23.4</v>
+        <v>23.84</v>
       </c>
       <c r="F18" t="n">
-        <v>602.4761</v>
+        <v>32275.666</v>
       </c>
       <c r="G18" t="n">
-        <v>23.35533333333333</v>
+        <v>-671522.7906664156</v>
       </c>
       <c r="H18" t="n">
-        <v>23.71166666666665</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23.5</v>
+        <v>23.81</v>
       </c>
       <c r="C19" t="n">
-        <v>23.5</v>
+        <v>23.81</v>
       </c>
       <c r="D19" t="n">
-        <v>23.5</v>
+        <v>23.81</v>
       </c>
       <c r="E19" t="n">
-        <v>23.5</v>
+        <v>23.81</v>
       </c>
       <c r="F19" t="n">
-        <v>58355.2628</v>
+        <v>2674.1326</v>
       </c>
       <c r="G19" t="n">
-        <v>23.35866666666667</v>
+        <v>-674196.9232664156</v>
       </c>
       <c r="H19" t="n">
-        <v>23.71333333333332</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="C20" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="D20" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="E20" t="n">
-        <v>23.5</v>
+        <v>23.8</v>
       </c>
       <c r="F20" t="n">
-        <v>36480.3279</v>
+        <v>422.2451</v>
       </c>
       <c r="G20" t="n">
-        <v>23.362</v>
+        <v>-674619.1683664155</v>
       </c>
       <c r="H20" t="n">
-        <v>23.71383333333332</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="C21" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="D21" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="E21" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="F21" t="n">
-        <v>616.0779</v>
+        <v>196.4996</v>
       </c>
       <c r="G21" t="n">
-        <v>23.36533333333334</v>
+        <v>-674422.6687664156</v>
       </c>
       <c r="H21" t="n">
-        <v>23.71416666666665</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="C22" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="D22" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="E22" t="n">
-        <v>23.5</v>
+        <v>23.9</v>
       </c>
       <c r="F22" t="n">
-        <v>15772.7713</v>
+        <v>211.7842</v>
       </c>
       <c r="G22" t="n">
-        <v>23.36733333333333</v>
+        <v>-674422.6687664156</v>
       </c>
       <c r="H22" t="n">
-        <v>23.71733333333332</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>23.52</v>
+        <v>23.72</v>
       </c>
       <c r="C23" t="n">
-        <v>23.52</v>
+        <v>23.72</v>
       </c>
       <c r="D23" t="n">
-        <v>23.52</v>
+        <v>23.72</v>
       </c>
       <c r="E23" t="n">
-        <v>23.52</v>
+        <v>23.72</v>
       </c>
       <c r="F23" t="n">
-        <v>25093.9935</v>
+        <v>3089.7502</v>
       </c>
       <c r="G23" t="n">
-        <v>23.37066666666666</v>
+        <v>-677512.4189664156</v>
       </c>
       <c r="H23" t="n">
-        <v>23.71666666666665</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>23.49</v>
+        <v>23.7</v>
       </c>
       <c r="C24" t="n">
-        <v>23.52</v>
+        <v>23.7</v>
       </c>
       <c r="D24" t="n">
-        <v>23.52</v>
+        <v>23.7</v>
       </c>
       <c r="E24" t="n">
-        <v>23.49</v>
+        <v>23.7</v>
       </c>
       <c r="F24" t="n">
-        <v>15551.2911</v>
+        <v>381.6198</v>
       </c>
       <c r="G24" t="n">
-        <v>23.37866666666666</v>
+        <v>-677894.0387664156</v>
       </c>
       <c r="H24" t="n">
-        <v>23.71266666666665</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23.42</v>
+        <v>23.69</v>
       </c>
       <c r="C25" t="n">
-        <v>23.54</v>
+        <v>23.69</v>
       </c>
       <c r="D25" t="n">
-        <v>23.54</v>
+        <v>23.69</v>
       </c>
       <c r="E25" t="n">
-        <v>23.42</v>
+        <v>23.69</v>
       </c>
       <c r="F25" t="n">
-        <v>25250.9571</v>
+        <v>2369.0311</v>
       </c>
       <c r="G25" t="n">
-        <v>23.39866666666666</v>
+        <v>-680263.0698664156</v>
       </c>
       <c r="H25" t="n">
-        <v>23.70733333333332</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23.54</v>
+        <v>23.67</v>
       </c>
       <c r="C26" t="n">
-        <v>23.54</v>
+        <v>23.67</v>
       </c>
       <c r="D26" t="n">
-        <v>23.54</v>
+        <v>23.67</v>
       </c>
       <c r="E26" t="n">
-        <v>23.54</v>
+        <v>23.67</v>
       </c>
       <c r="F26" t="n">
-        <v>1746.159</v>
+        <v>9281.293100000001</v>
       </c>
       <c r="G26" t="n">
-        <v>23.43333333333333</v>
+        <v>-689544.3629664156</v>
       </c>
       <c r="H26" t="n">
-        <v>23.69749999999998</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23.86</v>
+        <v>23.64</v>
       </c>
       <c r="C27" t="n">
-        <v>23.86</v>
+        <v>23.41</v>
       </c>
       <c r="D27" t="n">
-        <v>23.86</v>
+        <v>23.64</v>
       </c>
       <c r="E27" t="n">
-        <v>23.86</v>
+        <v>23.41</v>
       </c>
       <c r="F27" t="n">
-        <v>21</v>
+        <v>9541</v>
       </c>
       <c r="G27" t="n">
-        <v>23.47733333333333</v>
+        <v>-699085.3629664156</v>
       </c>
       <c r="H27" t="n">
-        <v>23.69466666666665</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23.85</v>
+        <v>23.5</v>
       </c>
       <c r="C28" t="n">
-        <v>23.55</v>
+        <v>23.31</v>
       </c>
       <c r="D28" t="n">
-        <v>23.85</v>
+        <v>23.5</v>
       </c>
       <c r="E28" t="n">
-        <v>23.55</v>
+        <v>23.31</v>
       </c>
       <c r="F28" t="n">
-        <v>22255.7658</v>
+        <v>105251.1272</v>
       </c>
       <c r="G28" t="n">
-        <v>23.49066666666667</v>
+        <v>-804336.4901664156</v>
       </c>
       <c r="H28" t="n">
-        <v>23.69533333333332</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>23.6</v>
+        <v>23.59</v>
       </c>
       <c r="C29" t="n">
-        <v>23.6</v>
+        <v>23.59</v>
       </c>
       <c r="D29" t="n">
-        <v>23.6</v>
+        <v>23.59</v>
       </c>
       <c r="E29" t="n">
-        <v>23.6</v>
+        <v>23.59</v>
       </c>
       <c r="F29" t="n">
-        <v>597.2184999999999</v>
+        <v>5413.5867</v>
       </c>
       <c r="G29" t="n">
-        <v>23.50733333333334</v>
+        <v>-798922.9034664156</v>
       </c>
       <c r="H29" t="n">
-        <v>23.69199999999998</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,7 +1413,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>23.6</v>
+        <v>23.59</v>
       </c>
       <c r="C30" t="n">
         <v>23.6</v>
@@ -1511,27 +1422,24 @@
         <v>23.6</v>
       </c>
       <c r="E30" t="n">
-        <v>23.6</v>
+        <v>23.59</v>
       </c>
       <c r="F30" t="n">
-        <v>7902.7815</v>
+        <v>663.9124</v>
       </c>
       <c r="G30" t="n">
-        <v>23.52333333333333</v>
+        <v>-798258.9910664156</v>
       </c>
       <c r="H30" t="n">
-        <v>23.68416666666665</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1543,33 +1451,30 @@
         <v>23.6</v>
       </c>
       <c r="C31" t="n">
-        <v>23.6</v>
+        <v>23.71</v>
       </c>
       <c r="D31" t="n">
-        <v>23.6</v>
+        <v>23.71</v>
       </c>
       <c r="E31" t="n">
         <v>23.6</v>
       </c>
       <c r="F31" t="n">
-        <v>21921.2336</v>
+        <v>50062.75734588781</v>
       </c>
       <c r="G31" t="n">
-        <v>23.53933333333334</v>
+        <v>-748196.2337205277</v>
       </c>
       <c r="H31" t="n">
-        <v>23.67916666666664</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1581,33 +1486,30 @@
         <v>23.6</v>
       </c>
       <c r="C32" t="n">
-        <v>23.6</v>
+        <v>23.45</v>
       </c>
       <c r="D32" t="n">
         <v>23.6</v>
       </c>
       <c r="E32" t="n">
-        <v>23.6</v>
+        <v>23.45</v>
       </c>
       <c r="F32" t="n">
-        <v>3428</v>
+        <v>5000</v>
       </c>
       <c r="G32" t="n">
-        <v>23.55533333333334</v>
+        <v>-753196.2337205277</v>
       </c>
       <c r="H32" t="n">
-        <v>23.67566666666664</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>23.75</v>
+        <v>23.45</v>
       </c>
       <c r="C33" t="n">
-        <v>23.75</v>
+        <v>23.45</v>
       </c>
       <c r="D33" t="n">
-        <v>23.75</v>
+        <v>23.45</v>
       </c>
       <c r="E33" t="n">
-        <v>23.75</v>
+        <v>23.45</v>
       </c>
       <c r="F33" t="n">
-        <v>8149.405</v>
+        <v>616.12</v>
       </c>
       <c r="G33" t="n">
-        <v>23.57866666666667</v>
+        <v>-753196.2337205277</v>
       </c>
       <c r="H33" t="n">
-        <v>23.66899999999998</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>23.75</v>
+        <v>23.45</v>
       </c>
       <c r="C34" t="n">
-        <v>23.89</v>
+        <v>23.45</v>
       </c>
       <c r="D34" t="n">
-        <v>23.89</v>
+        <v>23.45</v>
       </c>
       <c r="E34" t="n">
-        <v>23.75</v>
+        <v>23.45</v>
       </c>
       <c r="F34" t="n">
-        <v>84435.27000544161</v>
+        <v>4105.1056</v>
       </c>
       <c r="G34" t="n">
-        <v>23.60466666666667</v>
+        <v>-753196.2337205277</v>
       </c>
       <c r="H34" t="n">
-        <v>23.66633333333331</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>23.89</v>
+        <v>23.6</v>
       </c>
       <c r="C35" t="n">
-        <v>23.97</v>
+        <v>23.45</v>
       </c>
       <c r="D35" t="n">
-        <v>23.97</v>
+        <v>23.6</v>
       </c>
       <c r="E35" t="n">
-        <v>23.89</v>
+        <v>23.45</v>
       </c>
       <c r="F35" t="n">
-        <v>33839.7432</v>
+        <v>654.6928</v>
       </c>
       <c r="G35" t="n">
-        <v>23.63600000000001</v>
+        <v>-753196.2337205277</v>
       </c>
       <c r="H35" t="n">
-        <v>23.66749999999998</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>23.89</v>
+        <v>23.61</v>
       </c>
       <c r="C36" t="n">
-        <v>23.89</v>
+        <v>23.47</v>
       </c>
       <c r="D36" t="n">
-        <v>23.89</v>
+        <v>23.61</v>
       </c>
       <c r="E36" t="n">
-        <v>23.89</v>
+        <v>23.47</v>
       </c>
       <c r="F36" t="n">
-        <v>3796.4569</v>
+        <v>8184.86</v>
       </c>
       <c r="G36" t="n">
-        <v>23.662</v>
+        <v>-745011.3737205277</v>
       </c>
       <c r="H36" t="n">
-        <v>23.66483333333331</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>23.89</v>
+        <v>23.47</v>
       </c>
       <c r="C37" t="n">
-        <v>23.63</v>
+        <v>23.47</v>
       </c>
       <c r="D37" t="n">
-        <v>23.89</v>
+        <v>23.47</v>
       </c>
       <c r="E37" t="n">
-        <v>23.63</v>
+        <v>23.47</v>
       </c>
       <c r="F37" t="n">
-        <v>32306.9377</v>
+        <v>16526.7873</v>
       </c>
       <c r="G37" t="n">
-        <v>23.67066666666667</v>
+        <v>-745011.3737205277</v>
       </c>
       <c r="H37" t="n">
-        <v>23.65766666666665</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23.7</v>
+        <v>23.47</v>
       </c>
       <c r="C38" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="D38" t="n">
-        <v>23.7</v>
+        <v>23.47</v>
       </c>
       <c r="E38" t="n">
-        <v>23.7</v>
+        <v>23.4</v>
       </c>
       <c r="F38" t="n">
-        <v>591.4315</v>
+        <v>34759.0672</v>
       </c>
       <c r="G38" t="n">
-        <v>23.68266666666667</v>
+        <v>-779770.4409205278</v>
       </c>
       <c r="H38" t="n">
-        <v>23.65183333333332</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="C39" t="n">
-        <v>23.57</v>
+        <v>23.24</v>
       </c>
       <c r="D39" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="E39" t="n">
-        <v>23.57</v>
+        <v>23.23</v>
       </c>
       <c r="F39" t="n">
-        <v>28578.1007</v>
+        <v>75235.5529</v>
       </c>
       <c r="G39" t="n">
-        <v>23.686</v>
+        <v>-855005.9938205278</v>
       </c>
       <c r="H39" t="n">
-        <v>23.64299999999998</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>23.56</v>
+        <v>23.3</v>
       </c>
       <c r="C40" t="n">
-        <v>23.56</v>
+        <v>23.02</v>
       </c>
       <c r="D40" t="n">
-        <v>23.56</v>
+        <v>23.3</v>
       </c>
       <c r="E40" t="n">
-        <v>23.56</v>
+        <v>23.02</v>
       </c>
       <c r="F40" t="n">
-        <v>50853.9414</v>
+        <v>240849.4162</v>
       </c>
       <c r="G40" t="n">
-        <v>23.68733333333334</v>
+        <v>-1095855.410020528</v>
       </c>
       <c r="H40" t="n">
-        <v>23.63399999999998</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23.56</v>
+        <v>23.2</v>
       </c>
       <c r="C41" t="n">
-        <v>23.56</v>
+        <v>23.2</v>
       </c>
       <c r="D41" t="n">
-        <v>23.56</v>
+        <v>23.2</v>
       </c>
       <c r="E41" t="n">
-        <v>23.56</v>
+        <v>23.2</v>
       </c>
       <c r="F41" t="n">
-        <v>1092.115</v>
+        <v>3009.9761</v>
       </c>
       <c r="G41" t="n">
-        <v>23.68866666666667</v>
+        <v>-1092845.433920528</v>
       </c>
       <c r="H41" t="n">
-        <v>23.62499999999999</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23.59</v>
+        <v>23.35</v>
       </c>
       <c r="C42" t="n">
-        <v>23.42</v>
+        <v>23.35</v>
       </c>
       <c r="D42" t="n">
-        <v>23.59</v>
+        <v>23.35</v>
       </c>
       <c r="E42" t="n">
-        <v>23.42</v>
+        <v>23.35</v>
       </c>
       <c r="F42" t="n">
-        <v>156287.0509</v>
+        <v>1270.4355</v>
       </c>
       <c r="G42" t="n">
-        <v>23.65933333333334</v>
+        <v>-1091574.998420528</v>
       </c>
       <c r="H42" t="n">
-        <v>23.61199999999998</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23.42</v>
+        <v>23.35</v>
       </c>
       <c r="C43" t="n">
-        <v>23.42</v>
+        <v>23.35</v>
       </c>
       <c r="D43" t="n">
-        <v>23.42</v>
+        <v>23.35</v>
       </c>
       <c r="E43" t="n">
-        <v>23.42</v>
+        <v>23.35</v>
       </c>
       <c r="F43" t="n">
-        <v>25212.4065</v>
+        <v>89693.5738</v>
       </c>
       <c r="G43" t="n">
-        <v>23.65066666666667</v>
+        <v>-1091574.998420528</v>
       </c>
       <c r="H43" t="n">
-        <v>23.60066666666665</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2046,24 +1915,21 @@
         <v>23.36</v>
       </c>
       <c r="F44" t="n">
-        <v>1669.1856</v>
+        <v>4920.5991</v>
       </c>
       <c r="G44" t="n">
-        <v>23.63466666666667</v>
+        <v>-1086654.399320528</v>
       </c>
       <c r="H44" t="n">
-        <v>23.58983333333332</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,7 +1938,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23.21</v>
+        <v>23.36</v>
       </c>
       <c r="C45" t="n">
         <v>23.36</v>
@@ -2081,27 +1947,24 @@
         <v>23.36</v>
       </c>
       <c r="E45" t="n">
-        <v>23.05</v>
+        <v>23.36</v>
       </c>
       <c r="F45" t="n">
-        <v>575190.4991</v>
+        <v>193.0084</v>
       </c>
       <c r="G45" t="n">
-        <v>23.61866666666667</v>
+        <v>-1086654.399320528</v>
       </c>
       <c r="H45" t="n">
-        <v>23.57749999999999</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>23.1</v>
+        <v>23.36</v>
       </c>
       <c r="C46" t="n">
-        <v>23.3</v>
+        <v>23.36</v>
       </c>
       <c r="D46" t="n">
         <v>23.36</v>
       </c>
       <c r="E46" t="n">
-        <v>23.1</v>
+        <v>23.36</v>
       </c>
       <c r="F46" t="n">
-        <v>55194.4219</v>
+        <v>7098.8423</v>
       </c>
       <c r="G46" t="n">
-        <v>23.59866666666667</v>
+        <v>-1086654.399320528</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56566666666665</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="C47" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="D47" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="E47" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="F47" t="n">
-        <v>2655.7495</v>
+        <v>602.4761</v>
       </c>
       <c r="G47" t="n">
-        <v>23.57866666666667</v>
+        <v>-1086051.923220528</v>
       </c>
       <c r="H47" t="n">
-        <v>23.55233333333332</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="C48" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="D48" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="E48" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="F48" t="n">
-        <v>204</v>
+        <v>58355.2628</v>
       </c>
       <c r="G48" t="n">
-        <v>23.542</v>
+        <v>-1027696.660420528</v>
       </c>
       <c r="H48" t="n">
-        <v>23.53733333333332</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="C49" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D49" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="E49" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F49" t="n">
-        <v>1643.4815</v>
+        <v>36480.3279</v>
       </c>
       <c r="G49" t="n">
-        <v>23.50266666666667</v>
+        <v>-1027696.660420528</v>
       </c>
       <c r="H49" t="n">
-        <v>23.52833333333332</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="C50" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="D50" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="E50" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="F50" t="n">
-        <v>19426.9874</v>
+        <v>616.0779</v>
       </c>
       <c r="G50" t="n">
-        <v>23.458</v>
+        <v>-1027696.660420528</v>
       </c>
       <c r="H50" t="n">
-        <v>23.51983333333332</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>23.39</v>
+        <v>23.5</v>
       </c>
       <c r="C51" t="n">
-        <v>23.39</v>
+        <v>23.5</v>
       </c>
       <c r="D51" t="n">
-        <v>23.39</v>
+        <v>23.5</v>
       </c>
       <c r="E51" t="n">
-        <v>23.39</v>
+        <v>23.5</v>
       </c>
       <c r="F51" t="n">
-        <v>772.3848</v>
+        <v>15772.7713</v>
       </c>
       <c r="G51" t="n">
-        <v>23.42466666666667</v>
+        <v>-1027696.660420528</v>
       </c>
       <c r="H51" t="n">
-        <v>23.51299999999999</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>23.2</v>
+        <v>23.52</v>
       </c>
       <c r="C52" t="n">
-        <v>23.37</v>
+        <v>23.52</v>
       </c>
       <c r="D52" t="n">
-        <v>23.37</v>
+        <v>23.52</v>
       </c>
       <c r="E52" t="n">
-        <v>23.2</v>
+        <v>23.52</v>
       </c>
       <c r="F52" t="n">
-        <v>4630.2935</v>
+        <v>25093.9935</v>
       </c>
       <c r="G52" t="n">
-        <v>23.40733333333333</v>
+        <v>-1002602.666920528</v>
       </c>
       <c r="H52" t="n">
-        <v>23.50416666666666</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>23.3</v>
+        <v>23.49</v>
       </c>
       <c r="C53" t="n">
-        <v>23.3</v>
+        <v>23.52</v>
       </c>
       <c r="D53" t="n">
-        <v>23.3</v>
+        <v>23.52</v>
       </c>
       <c r="E53" t="n">
-        <v>23.3</v>
+        <v>23.49</v>
       </c>
       <c r="F53" t="n">
-        <v>126</v>
+        <v>15551.2911</v>
       </c>
       <c r="G53" t="n">
-        <v>23.38066666666667</v>
+        <v>-1002602.666920528</v>
       </c>
       <c r="H53" t="n">
-        <v>23.49416666666665</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23.3</v>
+        <v>23.42</v>
       </c>
       <c r="C54" t="n">
-        <v>23.3</v>
+        <v>23.54</v>
       </c>
       <c r="D54" t="n">
-        <v>23.3</v>
+        <v>23.54</v>
       </c>
       <c r="E54" t="n">
-        <v>23.3</v>
+        <v>23.42</v>
       </c>
       <c r="F54" t="n">
-        <v>203</v>
+        <v>25250.9571</v>
       </c>
       <c r="G54" t="n">
-        <v>23.36266666666667</v>
+        <v>-977351.7098205278</v>
       </c>
       <c r="H54" t="n">
-        <v>23.48716666666665</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>23.16</v>
+        <v>23.54</v>
       </c>
       <c r="C55" t="n">
-        <v>23.38</v>
+        <v>23.54</v>
       </c>
       <c r="D55" t="n">
-        <v>23.38</v>
+        <v>23.54</v>
       </c>
       <c r="E55" t="n">
-        <v>23.04</v>
+        <v>23.54</v>
       </c>
       <c r="F55" t="n">
-        <v>51685.1201</v>
+        <v>1746.159</v>
       </c>
       <c r="G55" t="n">
-        <v>23.35066666666667</v>
+        <v>-977351.7098205278</v>
       </c>
       <c r="H55" t="n">
-        <v>23.48183333333332</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>23.1</v>
+        <v>23.86</v>
       </c>
       <c r="C56" t="n">
-        <v>23.1</v>
+        <v>23.86</v>
       </c>
       <c r="D56" t="n">
-        <v>23.1</v>
+        <v>23.86</v>
       </c>
       <c r="E56" t="n">
-        <v>23.1</v>
+        <v>23.86</v>
       </c>
       <c r="F56" t="n">
-        <v>64529.9182</v>
+        <v>21</v>
       </c>
       <c r="G56" t="n">
-        <v>23.32</v>
+        <v>-977330.7098205278</v>
       </c>
       <c r="H56" t="n">
-        <v>23.47199999999998</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>23.1</v>
+        <v>23.85</v>
       </c>
       <c r="C57" t="n">
-        <v>22.9</v>
+        <v>23.55</v>
       </c>
       <c r="D57" t="n">
-        <v>23.1</v>
+        <v>23.85</v>
       </c>
       <c r="E57" t="n">
-        <v>22.9</v>
+        <v>23.55</v>
       </c>
       <c r="F57" t="n">
-        <v>160053.1988</v>
+        <v>22255.7658</v>
       </c>
       <c r="G57" t="n">
-        <v>23.28533333333333</v>
+        <v>-999586.4756205279</v>
       </c>
       <c r="H57" t="n">
-        <v>23.45916666666665</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="C58" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="D58" t="n">
-        <v>22.96</v>
+        <v>23.6</v>
       </c>
       <c r="E58" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="F58" t="n">
-        <v>55495.1954</v>
+        <v>597.2184999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>23.244</v>
+        <v>-998989.2571205279</v>
       </c>
       <c r="H58" t="n">
-        <v>23.44899999999998</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="C59" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="D59" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="E59" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="F59" t="n">
-        <v>44539.8832</v>
+        <v>7902.7815</v>
       </c>
       <c r="G59" t="n">
-        <v>23.20666666666667</v>
+        <v>-998989.2571205279</v>
       </c>
       <c r="H59" t="n">
-        <v>23.44049999999998</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="C60" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="D60" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="E60" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="F60" t="n">
-        <v>46972.6835</v>
+        <v>21921.2336</v>
       </c>
       <c r="G60" t="n">
-        <v>23.16933333333333</v>
+        <v>-998989.2571205279</v>
       </c>
       <c r="H60" t="n">
-        <v>23.42733333333332</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22.81</v>
+        <v>23.6</v>
       </c>
       <c r="C61" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="D61" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="E61" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="F61" t="n">
-        <v>91497.5123</v>
+        <v>3428</v>
       </c>
       <c r="G61" t="n">
-        <v>23.14266666666667</v>
+        <v>-998989.2571205279</v>
       </c>
       <c r="H61" t="n">
-        <v>23.41566666666665</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22.9</v>
+        <v>23.75</v>
       </c>
       <c r="C62" t="n">
-        <v>22.9</v>
+        <v>23.75</v>
       </c>
       <c r="D62" t="n">
-        <v>22.9</v>
+        <v>23.75</v>
       </c>
       <c r="E62" t="n">
-        <v>22.9</v>
+        <v>23.75</v>
       </c>
       <c r="F62" t="n">
-        <v>39658.7143</v>
+        <v>8149.405</v>
       </c>
       <c r="G62" t="n">
-        <v>23.116</v>
+        <v>-990839.8521205279</v>
       </c>
       <c r="H62" t="n">
-        <v>23.40216666666665</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>22.9</v>
+        <v>23.75</v>
       </c>
       <c r="C63" t="n">
-        <v>23.29</v>
+        <v>23.89</v>
       </c>
       <c r="D63" t="n">
-        <v>23.29</v>
+        <v>23.89</v>
       </c>
       <c r="E63" t="n">
-        <v>22.9</v>
+        <v>23.75</v>
       </c>
       <c r="F63" t="n">
-        <v>42432</v>
+        <v>84435.27000544161</v>
       </c>
       <c r="G63" t="n">
-        <v>23.122</v>
+        <v>-906404.5821150863</v>
       </c>
       <c r="H63" t="n">
-        <v>23.39949999999999</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>22.98</v>
+        <v>23.89</v>
       </c>
       <c r="C64" t="n">
-        <v>22.98</v>
+        <v>23.97</v>
       </c>
       <c r="D64" t="n">
-        <v>22.98</v>
+        <v>23.97</v>
       </c>
       <c r="E64" t="n">
-        <v>22.98</v>
+        <v>23.89</v>
       </c>
       <c r="F64" t="n">
-        <v>111596</v>
+        <v>33839.7432</v>
       </c>
       <c r="G64" t="n">
-        <v>23.10066666666667</v>
+        <v>-872564.8389150862</v>
       </c>
       <c r="H64" t="n">
-        <v>23.39166666666665</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>22.98</v>
+        <v>23.89</v>
       </c>
       <c r="C65" t="n">
-        <v>23.23</v>
+        <v>23.89</v>
       </c>
       <c r="D65" t="n">
-        <v>23.23</v>
+        <v>23.89</v>
       </c>
       <c r="E65" t="n">
-        <v>22.98</v>
+        <v>23.89</v>
       </c>
       <c r="F65" t="n">
-        <v>11666</v>
+        <v>3796.4569</v>
       </c>
       <c r="G65" t="n">
-        <v>23.096</v>
+        <v>-876361.2958150862</v>
       </c>
       <c r="H65" t="n">
-        <v>23.38799999999998</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>23.2</v>
+        <v>23.89</v>
       </c>
       <c r="C66" t="n">
-        <v>23.2</v>
+        <v>23.63</v>
       </c>
       <c r="D66" t="n">
-        <v>23.2</v>
+        <v>23.89</v>
       </c>
       <c r="E66" t="n">
-        <v>23.2</v>
+        <v>23.63</v>
       </c>
       <c r="F66" t="n">
-        <v>4079.819</v>
+        <v>32306.9377</v>
       </c>
       <c r="G66" t="n">
-        <v>23.08333333333333</v>
+        <v>-908668.2335150862</v>
       </c>
       <c r="H66" t="n">
-        <v>23.38383333333332</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="C67" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="D67" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="E67" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="F67" t="n">
-        <v>9546.845300000001</v>
+        <v>591.4315</v>
       </c>
       <c r="G67" t="n">
-        <v>23.072</v>
+        <v>-908076.8020150863</v>
       </c>
       <c r="H67" t="n">
-        <v>23.37933333333332</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>23.1</v>
+        <v>23.6</v>
       </c>
       <c r="C68" t="n">
-        <v>23.13</v>
+        <v>23.57</v>
       </c>
       <c r="D68" t="n">
-        <v>23.13</v>
+        <v>23.6</v>
       </c>
       <c r="E68" t="n">
-        <v>23.1</v>
+        <v>23.57</v>
       </c>
       <c r="F68" t="n">
-        <v>68493.113</v>
+        <v>28578.1007</v>
       </c>
       <c r="G68" t="n">
-        <v>23.06066666666667</v>
+        <v>-936654.9027150862</v>
       </c>
       <c r="H68" t="n">
-        <v>23.37366666666665</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>23.14</v>
+        <v>23.56</v>
       </c>
       <c r="C69" t="n">
-        <v>23.14</v>
+        <v>23.56</v>
       </c>
       <c r="D69" t="n">
-        <v>23.14</v>
+        <v>23.56</v>
       </c>
       <c r="E69" t="n">
-        <v>23.14</v>
+        <v>23.56</v>
       </c>
       <c r="F69" t="n">
-        <v>4462.2117</v>
+        <v>50853.9414</v>
       </c>
       <c r="G69" t="n">
-        <v>23.05</v>
+        <v>-987508.8441150862</v>
       </c>
       <c r="H69" t="n">
-        <v>23.36933333333332</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>23.05</v>
+        <v>23.56</v>
       </c>
       <c r="C70" t="n">
-        <v>23.05</v>
+        <v>23.56</v>
       </c>
       <c r="D70" t="n">
-        <v>23.05</v>
+        <v>23.56</v>
       </c>
       <c r="E70" t="n">
-        <v>23.05</v>
+        <v>23.56</v>
       </c>
       <c r="F70" t="n">
-        <v>125</v>
+        <v>1092.115</v>
       </c>
       <c r="G70" t="n">
-        <v>23.028</v>
+        <v>-987508.8441150862</v>
       </c>
       <c r="H70" t="n">
-        <v>23.36616666666665</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>23.06</v>
+        <v>23.59</v>
       </c>
       <c r="C71" t="n">
-        <v>23.07</v>
+        <v>23.42</v>
       </c>
       <c r="D71" t="n">
-        <v>23.07</v>
+        <v>23.59</v>
       </c>
       <c r="E71" t="n">
-        <v>23.06</v>
+        <v>23.42</v>
       </c>
       <c r="F71" t="n">
-        <v>250</v>
+        <v>156287.0509</v>
       </c>
       <c r="G71" t="n">
-        <v>23.026</v>
+        <v>-1143795.895015086</v>
       </c>
       <c r="H71" t="n">
-        <v>23.36699999999998</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>23.08</v>
+        <v>23.42</v>
       </c>
       <c r="C72" t="n">
-        <v>23.08</v>
+        <v>23.42</v>
       </c>
       <c r="D72" t="n">
-        <v>23.08</v>
+        <v>23.42</v>
       </c>
       <c r="E72" t="n">
-        <v>23.08</v>
+        <v>23.42</v>
       </c>
       <c r="F72" t="n">
-        <v>125</v>
+        <v>25212.4065</v>
       </c>
       <c r="G72" t="n">
-        <v>23.038</v>
+        <v>-1143795.895015086</v>
       </c>
       <c r="H72" t="n">
-        <v>23.36499999999998</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>23.01</v>
+        <v>23.36</v>
       </c>
       <c r="C73" t="n">
-        <v>23</v>
+        <v>23.36</v>
       </c>
       <c r="D73" t="n">
-        <v>23.01</v>
+        <v>23.36</v>
       </c>
       <c r="E73" t="n">
-        <v>23</v>
+        <v>23.36</v>
       </c>
       <c r="F73" t="n">
-        <v>30195.01</v>
+        <v>1669.1856</v>
       </c>
       <c r="G73" t="n">
-        <v>23.05133333333333</v>
+        <v>-1145465.080615086</v>
       </c>
       <c r="H73" t="n">
-        <v>23.35916666666665</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>22.95</v>
+        <v>23.21</v>
       </c>
       <c r="C74" t="n">
-        <v>22.95</v>
+        <v>23.36</v>
       </c>
       <c r="D74" t="n">
-        <v>22.95</v>
+        <v>23.36</v>
       </c>
       <c r="E74" t="n">
-        <v>22.95</v>
+        <v>23.05</v>
       </c>
       <c r="F74" t="n">
-        <v>48734.5426</v>
+        <v>575190.4991</v>
       </c>
       <c r="G74" t="n">
-        <v>23.06133333333333</v>
+        <v>-1145465.080615086</v>
       </c>
       <c r="H74" t="n">
-        <v>23.35249999999998</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="C75" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="D75" t="n">
-        <v>22.8</v>
+        <v>23.36</v>
       </c>
       <c r="E75" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="F75" t="n">
-        <v>60000</v>
+        <v>55194.4219</v>
       </c>
       <c r="G75" t="n">
-        <v>23.06133333333333</v>
+        <v>-1200659.502515086</v>
       </c>
       <c r="H75" t="n">
-        <v>23.34316666666665</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="C76" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="D76" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="E76" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="F76" t="n">
-        <v>26138</v>
+        <v>2655.7495</v>
       </c>
       <c r="G76" t="n">
-        <v>23.05466666666666</v>
+        <v>-1200659.502515086</v>
       </c>
       <c r="H76" t="n">
-        <v>23.33383333333332</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="C77" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="D77" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="E77" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="F77" t="n">
-        <v>4300.1642</v>
+        <v>204</v>
       </c>
       <c r="G77" t="n">
-        <v>23.05466666666666</v>
+        <v>-1200863.502515086</v>
       </c>
       <c r="H77" t="n">
-        <v>23.32616666666666</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="C78" t="n">
-        <v>22.94</v>
+        <v>23.3</v>
       </c>
       <c r="D78" t="n">
-        <v>22.94</v>
+        <v>23.3</v>
       </c>
       <c r="E78" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="F78" t="n">
-        <v>5000</v>
+        <v>1643.4815</v>
       </c>
       <c r="G78" t="n">
-        <v>23.03133333333333</v>
+        <v>-1199220.021015086</v>
       </c>
       <c r="H78" t="n">
-        <v>23.31849999999999</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>22.99</v>
+        <v>23.3</v>
       </c>
       <c r="C79" t="n">
-        <v>22.99</v>
+        <v>23.3</v>
       </c>
       <c r="D79" t="n">
-        <v>22.99</v>
+        <v>23.3</v>
       </c>
       <c r="E79" t="n">
-        <v>22.99</v>
+        <v>23.3</v>
       </c>
       <c r="F79" t="n">
-        <v>4290.5413</v>
+        <v>19426.9874</v>
       </c>
       <c r="G79" t="n">
-        <v>23.03199999999999</v>
+        <v>-1199220.021015086</v>
       </c>
       <c r="H79" t="n">
-        <v>23.30999999999999</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3402,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>23.1</v>
+        <v>23.39</v>
       </c>
       <c r="C80" t="n">
-        <v>23.1</v>
+        <v>23.39</v>
       </c>
       <c r="D80" t="n">
-        <v>23.1</v>
+        <v>23.39</v>
       </c>
       <c r="E80" t="n">
-        <v>23.1</v>
+        <v>23.39</v>
       </c>
       <c r="F80" t="n">
-        <v>23</v>
+        <v>772.3848</v>
       </c>
       <c r="G80" t="n">
-        <v>23.02333333333333</v>
+        <v>-1198447.636215086</v>
       </c>
       <c r="H80" t="n">
-        <v>23.30333333333332</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23.12</v>
+        <v>23.2</v>
       </c>
       <c r="C81" t="n">
-        <v>23.12</v>
+        <v>23.37</v>
       </c>
       <c r="D81" t="n">
-        <v>23.12</v>
+        <v>23.37</v>
       </c>
       <c r="E81" t="n">
-        <v>23.12</v>
+        <v>23.2</v>
       </c>
       <c r="F81" t="n">
-        <v>17189.6271</v>
+        <v>4630.2935</v>
       </c>
       <c r="G81" t="n">
-        <v>23.01799999999999</v>
+        <v>-1203077.929715086</v>
       </c>
       <c r="H81" t="n">
-        <v>23.29699999999999</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="C82" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="D82" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="E82" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="F82" t="n">
-        <v>291.2369</v>
+        <v>126</v>
       </c>
       <c r="G82" t="n">
-        <v>23.00466666666666</v>
+        <v>-1203203.929715086</v>
       </c>
       <c r="H82" t="n">
-        <v>23.28866666666665</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="C83" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="D83" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="E83" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="F83" t="n">
-        <v>291.2369</v>
+        <v>203</v>
       </c>
       <c r="G83" t="n">
-        <v>22.98933333333333</v>
+        <v>-1203203.929715086</v>
       </c>
       <c r="H83" t="n">
-        <v>23.27833333333332</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>22.9</v>
+        <v>23.16</v>
       </c>
       <c r="C84" t="n">
-        <v>22.78</v>
+        <v>23.38</v>
       </c>
       <c r="D84" t="n">
-        <v>22.9</v>
+        <v>23.38</v>
       </c>
       <c r="E84" t="n">
-        <v>22.78</v>
+        <v>23.04</v>
       </c>
       <c r="F84" t="n">
-        <v>39658.7143</v>
+        <v>51685.1201</v>
       </c>
       <c r="G84" t="n">
-        <v>22.96533333333333</v>
+        <v>-1151518.809615086</v>
       </c>
       <c r="H84" t="n">
-        <v>23.26599999999999</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="C85" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="D85" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="E85" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="F85" t="n">
-        <v>614.481</v>
+        <v>64529.9182</v>
       </c>
       <c r="G85" t="n">
-        <v>22.95533333333332</v>
+        <v>-1216048.727815086</v>
       </c>
       <c r="H85" t="n">
-        <v>23.25533333333333</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3630,36 +3373,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>22.7</v>
+        <v>23.1</v>
       </c>
       <c r="C86" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="D86" t="n">
-        <v>22.7</v>
+        <v>23.1</v>
       </c>
       <c r="E86" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="F86" t="n">
-        <v>313.736</v>
+        <v>160053.1988</v>
       </c>
       <c r="G86" t="n">
-        <v>22.93066666666666</v>
+        <v>-1376101.926615086</v>
       </c>
       <c r="H86" t="n">
-        <v>23.24133333333333</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3414,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="C87" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="D87" t="n">
-        <v>22.7</v>
+        <v>22.96</v>
       </c>
       <c r="E87" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="F87" t="n">
-        <v>300.745</v>
+        <v>55495.1954</v>
       </c>
       <c r="G87" t="n">
-        <v>22.90533333333332</v>
+        <v>-1431597.122015086</v>
       </c>
       <c r="H87" t="n">
-        <v>23.22199999999999</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3455,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>22.86</v>
+        <v>22.8</v>
       </c>
       <c r="C88" t="n">
-        <v>22.86</v>
+        <v>22.8</v>
       </c>
       <c r="D88" t="n">
-        <v>22.86</v>
+        <v>22.8</v>
       </c>
       <c r="E88" t="n">
-        <v>22.86</v>
+        <v>22.8</v>
       </c>
       <c r="F88" t="n">
-        <v>22</v>
+        <v>44539.8832</v>
       </c>
       <c r="G88" t="n">
-        <v>22.89599999999999</v>
+        <v>-1431597.122015086</v>
       </c>
       <c r="H88" t="n">
-        <v>23.21049999999999</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3496,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>22.87</v>
+        <v>22.8</v>
       </c>
       <c r="C89" t="n">
-        <v>22.87</v>
+        <v>22.8</v>
       </c>
       <c r="D89" t="n">
-        <v>22.87</v>
+        <v>22.8</v>
       </c>
       <c r="E89" t="n">
-        <v>22.87</v>
+        <v>22.8</v>
       </c>
       <c r="F89" t="n">
-        <v>23</v>
+        <v>46972.6835</v>
       </c>
       <c r="G89" t="n">
-        <v>22.89066666666666</v>
+        <v>-1431597.122015086</v>
       </c>
       <c r="H89" t="n">
-        <v>23.19833333333333</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3537,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>22.8</v>
+        <v>22.81</v>
       </c>
       <c r="C90" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="D90" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="E90" t="n">
         <v>22.8</v>
       </c>
       <c r="F90" t="n">
-        <v>3087.6011</v>
+        <v>91497.5123</v>
       </c>
       <c r="G90" t="n">
-        <v>22.89066666666666</v>
+        <v>-1340099.609715086</v>
       </c>
       <c r="H90" t="n">
-        <v>23.185</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3578,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>22.65</v>
+        <v>22.9</v>
       </c>
       <c r="C91" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="D91" t="n">
-        <v>22.65</v>
+        <v>22.9</v>
       </c>
       <c r="E91" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="F91" t="n">
-        <v>28373.3301</v>
+        <v>39658.7143</v>
       </c>
       <c r="G91" t="n">
-        <v>22.87733333333333</v>
+        <v>-1340099.609715086</v>
       </c>
       <c r="H91" t="n">
-        <v>23.16833333333333</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3619,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="C92" t="n">
-        <v>22.6</v>
+        <v>23.29</v>
       </c>
       <c r="D92" t="n">
-        <v>22.6</v>
+        <v>23.29</v>
       </c>
       <c r="E92" t="n">
-        <v>22.6</v>
+        <v>22.9</v>
       </c>
       <c r="F92" t="n">
-        <v>120455.5402</v>
+        <v>42432</v>
       </c>
       <c r="G92" t="n">
-        <v>22.85733333333333</v>
+        <v>-1297667.609715086</v>
       </c>
       <c r="H92" t="n">
-        <v>23.15166666666666</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>22.9</v>
       </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3660,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>22.74</v>
+        <v>22.98</v>
       </c>
       <c r="C93" t="n">
-        <v>22.74</v>
+        <v>22.98</v>
       </c>
       <c r="D93" t="n">
-        <v>22.74</v>
+        <v>22.98</v>
       </c>
       <c r="E93" t="n">
-        <v>22.74</v>
+        <v>22.98</v>
       </c>
       <c r="F93" t="n">
-        <v>23</v>
+        <v>111596</v>
       </c>
       <c r="G93" t="n">
-        <v>22.844</v>
+        <v>-1409263.609715086</v>
       </c>
       <c r="H93" t="n">
-        <v>23.13483333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3699,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>23.11</v>
+        <v>22.98</v>
       </c>
       <c r="C94" t="n">
-        <v>23.11</v>
+        <v>23.23</v>
       </c>
       <c r="D94" t="n">
-        <v>23.11</v>
+        <v>23.23</v>
       </c>
       <c r="E94" t="n">
-        <v>23.11</v>
+        <v>22.98</v>
       </c>
       <c r="F94" t="n">
-        <v>23</v>
+        <v>11666</v>
       </c>
       <c r="G94" t="n">
-        <v>22.852</v>
+        <v>-1397597.609715086</v>
       </c>
       <c r="H94" t="n">
-        <v>23.12183333333332</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3738,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>23.09</v>
+        <v>23.2</v>
       </c>
       <c r="C95" t="n">
-        <v>23.09</v>
+        <v>23.2</v>
       </c>
       <c r="D95" t="n">
-        <v>23.09</v>
+        <v>23.2</v>
       </c>
       <c r="E95" t="n">
-        <v>23.09</v>
+        <v>23.2</v>
       </c>
       <c r="F95" t="n">
-        <v>23</v>
+        <v>4079.819</v>
       </c>
       <c r="G95" t="n">
-        <v>22.85133333333333</v>
+        <v>-1401677.428715086</v>
       </c>
       <c r="H95" t="n">
-        <v>23.10716666666666</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3777,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="C96" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D96" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="E96" t="n">
-        <v>22.79</v>
+        <v>23.2</v>
       </c>
       <c r="F96" t="n">
-        <v>5611.8569</v>
+        <v>9546.845300000001</v>
       </c>
       <c r="G96" t="n">
-        <v>22.85</v>
+        <v>-1401677.428715086</v>
       </c>
       <c r="H96" t="n">
-        <v>23.09399999999999</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3816,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="C97" t="n">
-        <v>23</v>
+        <v>23.13</v>
       </c>
       <c r="D97" t="n">
-        <v>23</v>
+        <v>23.13</v>
       </c>
       <c r="E97" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="F97" t="n">
-        <v>611.8569</v>
+        <v>68493.113</v>
       </c>
       <c r="G97" t="n">
-        <v>22.85</v>
+        <v>-1470170.541715086</v>
       </c>
       <c r="H97" t="n">
-        <v>23.08349999999998</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3855,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>23.01</v>
+        <v>23.14</v>
       </c>
       <c r="C98" t="n">
-        <v>23.01</v>
+        <v>23.14</v>
       </c>
       <c r="D98" t="n">
-        <v>23.01</v>
+        <v>23.14</v>
       </c>
       <c r="E98" t="n">
-        <v>23.01</v>
+        <v>23.14</v>
       </c>
       <c r="F98" t="n">
-        <v>130.0096</v>
+        <v>4462.2117</v>
       </c>
       <c r="G98" t="n">
-        <v>22.85733333333333</v>
+        <v>-1465708.330015086</v>
       </c>
       <c r="H98" t="n">
-        <v>23.07199999999998</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3894,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>22.9</v>
+        <v>23.05</v>
       </c>
       <c r="C99" t="n">
-        <v>22.9</v>
+        <v>23.05</v>
       </c>
       <c r="D99" t="n">
-        <v>22.9</v>
+        <v>23.05</v>
       </c>
       <c r="E99" t="n">
-        <v>22.9</v>
+        <v>23.05</v>
       </c>
       <c r="F99" t="n">
-        <v>602.2035</v>
+        <v>125</v>
       </c>
       <c r="G99" t="n">
-        <v>22.86533333333333</v>
+        <v>-1465833.330015086</v>
       </c>
       <c r="H99" t="n">
-        <v>23.06083333333332</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4162,36 +3933,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>22.9</v>
+        <v>23.06</v>
       </c>
       <c r="C100" t="n">
-        <v>22.9</v>
+        <v>23.07</v>
       </c>
       <c r="D100" t="n">
-        <v>22.9</v>
+        <v>23.07</v>
       </c>
       <c r="E100" t="n">
-        <v>22.9</v>
+        <v>23.06</v>
       </c>
       <c r="F100" t="n">
-        <v>87.33624454148472</v>
+        <v>250</v>
       </c>
       <c r="G100" t="n">
-        <v>22.86533333333333</v>
+        <v>-1465583.330015086</v>
       </c>
       <c r="H100" t="n">
-        <v>23.04983333333332</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3972,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>22.8</v>
+        <v>23.08</v>
       </c>
       <c r="C101" t="n">
-        <v>22.8</v>
+        <v>23.08</v>
       </c>
       <c r="D101" t="n">
-        <v>22.8</v>
+        <v>23.08</v>
       </c>
       <c r="E101" t="n">
-        <v>22.8</v>
+        <v>23.08</v>
       </c>
       <c r="F101" t="n">
-        <v>66808.86719999999</v>
+        <v>125</v>
       </c>
       <c r="G101" t="n">
-        <v>22.872</v>
+        <v>-1465458.330015086</v>
       </c>
       <c r="H101" t="n">
-        <v>23.03716666666666</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +4011,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>22.8</v>
+        <v>23.01</v>
       </c>
       <c r="C102" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="D102" t="n">
-        <v>22.8</v>
+        <v>23.01</v>
       </c>
       <c r="E102" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="F102" t="n">
-        <v>17190.0941</v>
+        <v>30195.01</v>
       </c>
       <c r="G102" t="n">
-        <v>22.87866666666666</v>
+        <v>-1495653.340015086</v>
       </c>
       <c r="H102" t="n">
-        <v>23.02683333333332</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +4050,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>22.89</v>
+        <v>22.95</v>
       </c>
       <c r="C103" t="n">
-        <v>22.89</v>
+        <v>22.95</v>
       </c>
       <c r="D103" t="n">
-        <v>22.89</v>
+        <v>22.95</v>
       </c>
       <c r="E103" t="n">
-        <v>22.89</v>
+        <v>22.95</v>
       </c>
       <c r="F103" t="n">
-        <v>23</v>
+        <v>48734.5426</v>
       </c>
       <c r="G103" t="n">
-        <v>22.88066666666666</v>
+        <v>-1544387.882615086</v>
       </c>
       <c r="H103" t="n">
-        <v>23.01799999999999</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4089,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="C104" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="D104" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="E104" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="F104" t="n">
-        <v>87.33620000000001</v>
+        <v>60000</v>
       </c>
       <c r="G104" t="n">
-        <v>22.86933333333333</v>
+        <v>-1604387.882615086</v>
       </c>
       <c r="H104" t="n">
-        <v>23.00699999999999</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4128,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>22.75</v>
+        <v>22.8</v>
       </c>
       <c r="C105" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="D105" t="n">
-        <v>22.75</v>
+        <v>22.8</v>
       </c>
       <c r="E105" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="F105" t="n">
-        <v>112897.2611</v>
+        <v>26138</v>
       </c>
       <c r="G105" t="n">
-        <v>22.86266666666666</v>
+        <v>-1604387.882615086</v>
       </c>
       <c r="H105" t="n">
-        <v>22.99599999999999</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4167,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>22.96</v>
+        <v>22.9</v>
       </c>
       <c r="C106" t="n">
-        <v>22.96</v>
+        <v>22.9</v>
       </c>
       <c r="D106" t="n">
-        <v>22.96</v>
+        <v>22.9</v>
       </c>
       <c r="E106" t="n">
-        <v>22.96</v>
+        <v>22.9</v>
       </c>
       <c r="F106" t="n">
-        <v>546.6738</v>
+        <v>4300.1642</v>
       </c>
       <c r="G106" t="n">
-        <v>22.88666666666666</v>
+        <v>-1600087.718415086</v>
       </c>
       <c r="H106" t="n">
-        <v>22.99033333333333</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4206,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="C107" t="n">
-        <v>22.7</v>
+        <v>22.94</v>
       </c>
       <c r="D107" t="n">
-        <v>22.7</v>
+        <v>22.94</v>
       </c>
       <c r="E107" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="F107" t="n">
-        <v>6276.1826</v>
+        <v>5000</v>
       </c>
       <c r="G107" t="n">
-        <v>22.89333333333332</v>
+        <v>-1595087.718415086</v>
       </c>
       <c r="H107" t="n">
-        <v>22.98033333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4466,36 +4245,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>22.7</v>
+        <v>22.99</v>
       </c>
       <c r="C108" t="n">
-        <v>22.7</v>
+        <v>22.99</v>
       </c>
       <c r="D108" t="n">
-        <v>22.7</v>
+        <v>22.99</v>
       </c>
       <c r="E108" t="n">
-        <v>22.7</v>
+        <v>22.99</v>
       </c>
       <c r="F108" t="n">
-        <v>941.4272999999999</v>
+        <v>4290.5413</v>
       </c>
       <c r="G108" t="n">
-        <v>22.89066666666665</v>
+        <v>-1590797.177115086</v>
       </c>
       <c r="H108" t="n">
-        <v>22.97199999999999</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4504,36 +4284,37 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>22.92</v>
+        <v>23.1</v>
       </c>
       <c r="C109" t="n">
-        <v>22.92</v>
+        <v>23.1</v>
       </c>
       <c r="D109" t="n">
-        <v>22.92</v>
+        <v>23.1</v>
       </c>
       <c r="E109" t="n">
-        <v>22.92</v>
+        <v>23.1</v>
       </c>
       <c r="F109" t="n">
         <v>23</v>
       </c>
       <c r="G109" t="n">
-        <v>22.87799999999999</v>
+        <v>-1590774.177115086</v>
       </c>
       <c r="H109" t="n">
-        <v>22.96566666666666</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4542,36 +4323,37 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>22.7</v>
+        <v>23.12</v>
       </c>
       <c r="C110" t="n">
-        <v>22.7</v>
+        <v>23.12</v>
       </c>
       <c r="D110" t="n">
-        <v>22.7</v>
+        <v>23.12</v>
       </c>
       <c r="E110" t="n">
-        <v>22.7</v>
+        <v>23.12</v>
       </c>
       <c r="F110" t="n">
-        <v>57284.617</v>
+        <v>17189.6271</v>
       </c>
       <c r="G110" t="n">
-        <v>22.85199999999999</v>
+        <v>-1573584.550015086</v>
       </c>
       <c r="H110" t="n">
-        <v>22.95566666666667</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4580,36 +4362,37 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="C111" t="n">
-        <v>22.94</v>
+        <v>23</v>
       </c>
       <c r="D111" t="n">
-        <v>22.94</v>
+        <v>23</v>
       </c>
       <c r="E111" t="n">
-        <v>22.63</v>
+        <v>23</v>
       </c>
       <c r="F111" t="n">
-        <v>26729</v>
+        <v>291.2369</v>
       </c>
       <c r="G111" t="n">
-        <v>22.84133333333332</v>
+        <v>-1573875.786915086</v>
       </c>
       <c r="H111" t="n">
-        <v>22.94816666666667</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4618,36 +4401,37 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>22.62</v>
+        <v>22.9</v>
       </c>
       <c r="C112" t="n">
-        <v>22.62</v>
+        <v>22.9</v>
       </c>
       <c r="D112" t="n">
-        <v>22.62</v>
+        <v>22.9</v>
       </c>
       <c r="E112" t="n">
-        <v>22.62</v>
+        <v>22.9</v>
       </c>
       <c r="F112" t="n">
-        <v>1374.3263</v>
+        <v>291.2369</v>
       </c>
       <c r="G112" t="n">
-        <v>22.81599999999998</v>
+        <v>-1574167.023815086</v>
       </c>
       <c r="H112" t="n">
-        <v>22.93566666666667</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4656,36 +4440,37 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>22.55</v>
+        <v>22.9</v>
       </c>
       <c r="C113" t="n">
-        <v>22.55</v>
+        <v>22.78</v>
       </c>
       <c r="D113" t="n">
-        <v>22.55</v>
+        <v>22.9</v>
       </c>
       <c r="E113" t="n">
-        <v>22.55</v>
+        <v>22.78</v>
       </c>
       <c r="F113" t="n">
-        <v>1492.2794</v>
+        <v>39658.7143</v>
       </c>
       <c r="G113" t="n">
-        <v>22.78533333333332</v>
+        <v>-1613825.738115086</v>
       </c>
       <c r="H113" t="n">
-        <v>22.92316666666666</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4694,36 +4479,37 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="C114" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="D114" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="E114" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="F114" t="n">
-        <v>583.1064</v>
+        <v>614.481</v>
       </c>
       <c r="G114" t="n">
-        <v>22.77199999999999</v>
+        <v>-1613211.257115086</v>
       </c>
       <c r="H114" t="n">
-        <v>22.91316666666667</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,40 +4518,37 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="C115" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="D115" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="E115" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="F115" t="n">
-        <v>314.1423</v>
+        <v>313.736</v>
       </c>
       <c r="G115" t="n">
-        <v>22.75199999999999</v>
+        <v>-1613524.993115086</v>
       </c>
       <c r="H115" t="n">
-        <v>22.90016666666666</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L115" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4786,32 +4569,25 @@
         <v>22.7</v>
       </c>
       <c r="F116" t="n">
-        <v>23</v>
+        <v>300.745</v>
       </c>
       <c r="G116" t="n">
-        <v>22.74533333333332</v>
+        <v>-1613524.993115086</v>
       </c>
       <c r="H116" t="n">
-        <v>22.8935</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="L116" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4820,44 +4596,37 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>22.7</v>
+        <v>22.86</v>
       </c>
       <c r="C117" t="n">
-        <v>22.75</v>
+        <v>22.86</v>
       </c>
       <c r="D117" t="n">
-        <v>22.75</v>
+        <v>22.86</v>
       </c>
       <c r="E117" t="n">
-        <v>22.7</v>
+        <v>22.86</v>
       </c>
       <c r="F117" t="n">
-        <v>50000</v>
+        <v>22</v>
       </c>
       <c r="G117" t="n">
-        <v>22.74199999999999</v>
+        <v>-1613502.993115086</v>
       </c>
       <c r="H117" t="n">
-        <v>22.891</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L117" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4866,44 +4635,37 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>22.74</v>
+        <v>22.87</v>
       </c>
       <c r="C118" t="n">
-        <v>22.94</v>
+        <v>22.87</v>
       </c>
       <c r="D118" t="n">
-        <v>22.94</v>
+        <v>22.87</v>
       </c>
       <c r="E118" t="n">
-        <v>22.74</v>
+        <v>22.87</v>
       </c>
       <c r="F118" t="n">
-        <v>62400</v>
+        <v>23</v>
       </c>
       <c r="G118" t="n">
-        <v>22.74533333333332</v>
+        <v>-1613479.993115086</v>
       </c>
       <c r="H118" t="n">
-        <v>22.89333333333333</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="L118" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4912,44 +4674,37 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>22.94</v>
+        <v>22.8</v>
       </c>
       <c r="C119" t="n">
-        <v>22.94</v>
+        <v>22.8</v>
       </c>
       <c r="D119" t="n">
-        <v>22.94</v>
+        <v>22.8</v>
       </c>
       <c r="E119" t="n">
-        <v>22.94</v>
+        <v>22.8</v>
       </c>
       <c r="F119" t="n">
-        <v>20050</v>
+        <v>3087.6011</v>
       </c>
       <c r="G119" t="n">
-        <v>22.76133333333332</v>
+        <v>-1616567.594215086</v>
       </c>
       <c r="H119" t="n">
-        <v>22.89566666666667</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="L119" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4958,44 +4713,37 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>22.95</v>
+        <v>22.65</v>
       </c>
       <c r="C120" t="n">
-        <v>23.09</v>
+        <v>22.6</v>
       </c>
       <c r="D120" t="n">
-        <v>23.09</v>
+        <v>22.65</v>
       </c>
       <c r="E120" t="n">
-        <v>22.95</v>
+        <v>22.6</v>
       </c>
       <c r="F120" t="n">
-        <v>9800</v>
+        <v>28373.3301</v>
       </c>
       <c r="G120" t="n">
-        <v>22.78733333333332</v>
+        <v>-1644940.924315086</v>
       </c>
       <c r="H120" t="n">
-        <v>22.9005</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="L120" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5004,42 +4752,37 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>23.16</v>
+        <v>22.6</v>
       </c>
       <c r="C121" t="n">
-        <v>23.16</v>
+        <v>22.6</v>
       </c>
       <c r="D121" t="n">
-        <v>23.16</v>
+        <v>22.6</v>
       </c>
       <c r="E121" t="n">
-        <v>23.16</v>
+        <v>22.6</v>
       </c>
       <c r="F121" t="n">
-        <v>23</v>
+        <v>120455.5402</v>
       </c>
       <c r="G121" t="n">
-        <v>22.80066666666666</v>
+        <v>-1644940.924315086</v>
       </c>
       <c r="H121" t="n">
-        <v>22.90483333333333</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5048,42 +4791,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>23.11</v>
+        <v>22.74</v>
       </c>
       <c r="C122" t="n">
-        <v>23.11</v>
+        <v>22.74</v>
       </c>
       <c r="D122" t="n">
-        <v>23.11</v>
+        <v>22.74</v>
       </c>
       <c r="E122" t="n">
-        <v>23.11</v>
+        <v>22.74</v>
       </c>
       <c r="F122" t="n">
-        <v>14725.1145</v>
+        <v>23</v>
       </c>
       <c r="G122" t="n">
-        <v>22.82799999999999</v>
+        <v>-1644917.924315086</v>
       </c>
       <c r="H122" t="n">
-        <v>22.90833333333333</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5092,42 +4830,37 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>23.17</v>
+        <v>23.11</v>
       </c>
       <c r="C123" t="n">
-        <v>23.17</v>
+        <v>23.11</v>
       </c>
       <c r="D123" t="n">
-        <v>23.17</v>
+        <v>23.11</v>
       </c>
       <c r="E123" t="n">
-        <v>23.17</v>
+        <v>23.11</v>
       </c>
       <c r="F123" t="n">
         <v>23</v>
       </c>
       <c r="G123" t="n">
-        <v>22.85933333333333</v>
+        <v>-1644894.924315086</v>
       </c>
       <c r="H123" t="n">
-        <v>22.90633333333333</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5136,42 +4869,37 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>23.11</v>
+        <v>23.09</v>
       </c>
       <c r="C124" t="n">
-        <v>23.11</v>
+        <v>23.09</v>
       </c>
       <c r="D124" t="n">
-        <v>23.11</v>
+        <v>23.09</v>
       </c>
       <c r="E124" t="n">
-        <v>23.11</v>
+        <v>23.09</v>
       </c>
       <c r="F124" t="n">
-        <v>5582.3865</v>
+        <v>23</v>
       </c>
       <c r="G124" t="n">
-        <v>22.872</v>
+        <v>-1644917.924315086</v>
       </c>
       <c r="H124" t="n">
-        <v>22.9085</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5180,42 +4908,37 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C125" t="n">
         <v>23.1</v>
-      </c>
-      <c r="C125" t="n">
-        <v>22.91</v>
       </c>
       <c r="D125" t="n">
         <v>23.1</v>
       </c>
       <c r="E125" t="n">
-        <v>22.91</v>
+        <v>22.79</v>
       </c>
       <c r="F125" t="n">
-        <v>7341.2376</v>
+        <v>5611.8569</v>
       </c>
       <c r="G125" t="n">
-        <v>22.886</v>
+        <v>-1639306.067415086</v>
       </c>
       <c r="H125" t="n">
-        <v>22.90316666666666</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,42 +4947,37 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>23.13</v>
+        <v>23</v>
       </c>
       <c r="C126" t="n">
-        <v>23.13</v>
+        <v>23</v>
       </c>
       <c r="D126" t="n">
-        <v>23.13</v>
+        <v>23</v>
       </c>
       <c r="E126" t="n">
-        <v>23.13</v>
+        <v>23</v>
       </c>
       <c r="F126" t="n">
-        <v>23</v>
+        <v>611.8569</v>
       </c>
       <c r="G126" t="n">
-        <v>22.89866666666666</v>
+        <v>-1639917.924315086</v>
       </c>
       <c r="H126" t="n">
-        <v>22.902</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5268,42 +4986,37 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>23.15</v>
+        <v>23.01</v>
       </c>
       <c r="C127" t="n">
-        <v>23.3</v>
+        <v>23.01</v>
       </c>
       <c r="D127" t="n">
-        <v>23.3</v>
+        <v>23.01</v>
       </c>
       <c r="E127" t="n">
-        <v>23.15</v>
+        <v>23.01</v>
       </c>
       <c r="F127" t="n">
-        <v>64869.204</v>
+        <v>130.0096</v>
       </c>
       <c r="G127" t="n">
-        <v>22.944</v>
+        <v>-1639787.914715086</v>
       </c>
       <c r="H127" t="n">
-        <v>22.90366666666666</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5312,42 +5025,37 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>23.24</v>
+        <v>22.9</v>
       </c>
       <c r="C128" t="n">
-        <v>23.24</v>
+        <v>22.9</v>
       </c>
       <c r="D128" t="n">
-        <v>23.24</v>
+        <v>22.9</v>
       </c>
       <c r="E128" t="n">
-        <v>23.24</v>
+        <v>22.9</v>
       </c>
       <c r="F128" t="n">
-        <v>3754.2161</v>
+        <v>602.2035</v>
       </c>
       <c r="G128" t="n">
-        <v>22.99</v>
+        <v>-1640390.118215086</v>
       </c>
       <c r="H128" t="n">
-        <v>22.9055</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N128" t="n">
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5356,42 +5064,37 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>23.29</v>
+        <v>22.9</v>
       </c>
       <c r="C129" t="n">
-        <v>23.29</v>
+        <v>22.9</v>
       </c>
       <c r="D129" t="n">
-        <v>23.29</v>
+        <v>22.9</v>
       </c>
       <c r="E129" t="n">
-        <v>23.29</v>
+        <v>22.9</v>
       </c>
       <c r="F129" t="n">
-        <v>2127.2082</v>
+        <v>87.33624454148472</v>
       </c>
       <c r="G129" t="n">
-        <v>23.02933333333333</v>
+        <v>-1640390.118215086</v>
       </c>
       <c r="H129" t="n">
-        <v>22.90799999999999</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5400,42 +5103,37 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>23.29</v>
+        <v>22.8</v>
       </c>
       <c r="C130" t="n">
-        <v>23.29</v>
+        <v>22.8</v>
       </c>
       <c r="D130" t="n">
-        <v>23.29</v>
+        <v>22.8</v>
       </c>
       <c r="E130" t="n">
-        <v>23.29</v>
+        <v>22.8</v>
       </c>
       <c r="F130" t="n">
-        <v>9200</v>
+        <v>66808.86719999999</v>
       </c>
       <c r="G130" t="n">
-        <v>23.07533333333333</v>
+        <v>-1707198.985415086</v>
       </c>
       <c r="H130" t="n">
-        <v>22.91199999999999</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N130" t="n">
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5444,42 +5142,37 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>23.28</v>
+        <v>22.8</v>
       </c>
       <c r="C131" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="D131" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="E131" t="n">
-        <v>23.28</v>
+        <v>22.8</v>
       </c>
       <c r="F131" t="n">
-        <v>10564.9086</v>
+        <v>17190.0941</v>
       </c>
       <c r="G131" t="n">
-        <v>23.122</v>
+        <v>-1707198.985415086</v>
       </c>
       <c r="H131" t="n">
-        <v>22.9175</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,42 +5181,37 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>23.4</v>
+        <v>22.89</v>
       </c>
       <c r="C132" t="n">
-        <v>23.28</v>
+        <v>22.89</v>
       </c>
       <c r="D132" t="n">
-        <v>23.4</v>
+        <v>22.89</v>
       </c>
       <c r="E132" t="n">
-        <v>23.28</v>
+        <v>22.89</v>
       </c>
       <c r="F132" t="n">
-        <v>934.4854</v>
+        <v>23</v>
       </c>
       <c r="G132" t="n">
-        <v>23.15733333333333</v>
+        <v>-1707175.985415086</v>
       </c>
       <c r="H132" t="n">
-        <v>22.92083333333333</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5532,42 +5220,37 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>23.28</v>
+        <v>22.7</v>
       </c>
       <c r="C133" t="n">
-        <v>23.54</v>
+        <v>22.7</v>
       </c>
       <c r="D133" t="n">
-        <v>23.54</v>
+        <v>22.7</v>
       </c>
       <c r="E133" t="n">
-        <v>23.28</v>
+        <v>22.7</v>
       </c>
       <c r="F133" t="n">
-        <v>10023</v>
+        <v>87.33620000000001</v>
       </c>
       <c r="G133" t="n">
-        <v>23.19733333333334</v>
+        <v>-1707263.321615086</v>
       </c>
       <c r="H133" t="n">
-        <v>22.92983333333333</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N133" t="n">
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,42 +5259,37 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>23.16</v>
+        <v>22.75</v>
       </c>
       <c r="C134" t="n">
-        <v>23.16</v>
+        <v>22.7</v>
       </c>
       <c r="D134" t="n">
-        <v>23.16</v>
+        <v>22.75</v>
       </c>
       <c r="E134" t="n">
-        <v>23.16</v>
+        <v>22.7</v>
       </c>
       <c r="F134" t="n">
-        <v>973.3475</v>
+        <v>112897.2611</v>
       </c>
       <c r="G134" t="n">
-        <v>23.212</v>
+        <v>-1707263.321615086</v>
       </c>
       <c r="H134" t="n">
-        <v>22.93333333333333</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N134" t="n">
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5620,42 +5298,37 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>23.26</v>
+        <v>22.96</v>
       </c>
       <c r="C135" t="n">
-        <v>23.26</v>
+        <v>22.96</v>
       </c>
       <c r="D135" t="n">
-        <v>23.26</v>
+        <v>22.96</v>
       </c>
       <c r="E135" t="n">
-        <v>23.26</v>
+        <v>22.96</v>
       </c>
       <c r="F135" t="n">
-        <v>23</v>
+        <v>546.6738</v>
       </c>
       <c r="G135" t="n">
-        <v>23.22333333333334</v>
+        <v>-1706716.647815086</v>
       </c>
       <c r="H135" t="n">
-        <v>22.941</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N135" t="n">
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5664,42 +5337,37 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>23.16</v>
+        <v>22.7</v>
       </c>
       <c r="C136" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="D136" t="n">
-        <v>23.16</v>
+        <v>22.7</v>
       </c>
       <c r="E136" t="n">
-        <v>22.9</v>
+        <v>22.7</v>
       </c>
       <c r="F136" t="n">
-        <v>22224.5179</v>
+        <v>6276.1826</v>
       </c>
       <c r="G136" t="n">
-        <v>23.206</v>
+        <v>-1712992.830415086</v>
       </c>
       <c r="H136" t="n">
-        <v>22.94266666666666</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N136" t="n">
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5708,42 +5376,37 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>23.17</v>
+        <v>22.7</v>
       </c>
       <c r="C137" t="n">
-        <v>23.17</v>
+        <v>22.7</v>
       </c>
       <c r="D137" t="n">
-        <v>23.17</v>
+        <v>22.7</v>
       </c>
       <c r="E137" t="n">
-        <v>23.17</v>
+        <v>22.7</v>
       </c>
       <c r="F137" t="n">
-        <v>23</v>
+        <v>941.4272999999999</v>
       </c>
       <c r="G137" t="n">
-        <v>23.21</v>
+        <v>-1712992.830415086</v>
       </c>
       <c r="H137" t="n">
-        <v>22.94716666666666</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N137" t="n">
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5752,42 +5415,37 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>22.88</v>
+        <v>22.92</v>
       </c>
       <c r="C138" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="D138" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="E138" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="F138" t="n">
         <v>23</v>
       </c>
-      <c r="D138" t="n">
-        <v>23</v>
-      </c>
-      <c r="E138" t="n">
-        <v>22.87</v>
-      </c>
-      <c r="F138" t="n">
-        <v>48648.1921</v>
-      </c>
       <c r="G138" t="n">
-        <v>23.19866666666667</v>
+        <v>-1712969.830415086</v>
       </c>
       <c r="H138" t="n">
-        <v>22.94816666666667</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N138" t="n">
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5796,44 +5454,37 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="C139" t="n">
-        <v>23.05</v>
+        <v>22.7</v>
       </c>
       <c r="D139" t="n">
-        <v>23.05</v>
+        <v>22.7</v>
       </c>
       <c r="E139" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="F139" t="n">
-        <v>72764.2556</v>
+        <v>57284.617</v>
       </c>
       <c r="G139" t="n">
-        <v>23.19466666666667</v>
+        <v>-1770254.447415086</v>
       </c>
       <c r="H139" t="n">
-        <v>22.94916666666666</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
-      <c r="K139" t="n">
-        <v>23</v>
-      </c>
-      <c r="L139" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5842,44 +5493,37 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>23.05</v>
+        <v>22.7</v>
       </c>
       <c r="C140" t="n">
-        <v>23.05</v>
+        <v>22.94</v>
       </c>
       <c r="D140" t="n">
-        <v>23.05</v>
+        <v>22.94</v>
       </c>
       <c r="E140" t="n">
-        <v>23.05</v>
+        <v>22.63</v>
       </c>
       <c r="F140" t="n">
-        <v>40000</v>
+        <v>26729</v>
       </c>
       <c r="G140" t="n">
-        <v>23.204</v>
+        <v>-1743525.447415086</v>
       </c>
       <c r="H140" t="n">
-        <v>22.94833333333333</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
-      <c r="K140" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="L140" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5888,42 +5532,37 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>23.05</v>
+        <v>22.62</v>
       </c>
       <c r="C141" t="n">
-        <v>23.05</v>
+        <v>22.62</v>
       </c>
       <c r="D141" t="n">
-        <v>23.05</v>
+        <v>22.62</v>
       </c>
       <c r="E141" t="n">
-        <v>23.05</v>
+        <v>22.62</v>
       </c>
       <c r="F141" t="n">
-        <v>4551.673</v>
+        <v>1374.3263</v>
       </c>
       <c r="G141" t="n">
-        <v>23.19866666666667</v>
+        <v>-1744899.773715086</v>
       </c>
       <c r="H141" t="n">
-        <v>22.94716666666666</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N141" t="n">
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5932,42 +5571,37 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>23.05</v>
+        <v>22.55</v>
       </c>
       <c r="C142" t="n">
-        <v>22.82</v>
+        <v>22.55</v>
       </c>
       <c r="D142" t="n">
-        <v>23.05</v>
+        <v>22.55</v>
       </c>
       <c r="E142" t="n">
-        <v>22.82</v>
+        <v>22.55</v>
       </c>
       <c r="F142" t="n">
-        <v>27487.8622</v>
+        <v>1492.2794</v>
       </c>
       <c r="G142" t="n">
-        <v>23.16666666666667</v>
+        <v>-1746392.053115086</v>
       </c>
       <c r="H142" t="n">
-        <v>22.94416666666666</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N142" t="n">
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5976,42 +5610,37 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="C143" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="D143" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="E143" t="n">
-        <v>23.1</v>
+        <v>22.7</v>
       </c>
       <c r="F143" t="n">
-        <v>41532.0076</v>
+        <v>583.1064</v>
       </c>
       <c r="G143" t="n">
-        <v>23.15733333333333</v>
+        <v>-1745808.946715086</v>
       </c>
       <c r="H143" t="n">
-        <v>22.94749999999999</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N143" t="n">
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6020,42 +5649,37 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="C144" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="D144" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="E144" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="F144" t="n">
-        <v>40000</v>
+        <v>314.1423</v>
       </c>
       <c r="G144" t="n">
-        <v>23.13133333333333</v>
+        <v>-1746123.089015086</v>
       </c>
       <c r="H144" t="n">
-        <v>22.9495</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N144" t="n">
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,42 +5688,37 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>22.86</v>
+        <v>22.7</v>
       </c>
       <c r="C145" t="n">
-        <v>22.82</v>
+        <v>22.7</v>
       </c>
       <c r="D145" t="n">
-        <v>22.86</v>
+        <v>22.7</v>
       </c>
       <c r="E145" t="n">
-        <v>22.82</v>
+        <v>22.7</v>
       </c>
       <c r="F145" t="n">
-        <v>91911.461</v>
+        <v>23</v>
       </c>
       <c r="G145" t="n">
-        <v>23.1</v>
+        <v>-1746100.089015086</v>
       </c>
       <c r="H145" t="n">
-        <v>22.94816666666666</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N145" t="n">
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6108,42 +5727,37 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>22.82</v>
+        <v>22.7</v>
       </c>
       <c r="C146" t="n">
-        <v>22.82</v>
+        <v>22.75</v>
       </c>
       <c r="D146" t="n">
-        <v>22.82</v>
+        <v>22.75</v>
       </c>
       <c r="E146" t="n">
-        <v>22.82</v>
+        <v>22.7</v>
       </c>
       <c r="F146" t="n">
-        <v>1099.7781</v>
+        <v>50000</v>
       </c>
       <c r="G146" t="n">
-        <v>23.06133333333333</v>
+        <v>-1696100.089015086</v>
       </c>
       <c r="H146" t="n">
-        <v>22.95016666666666</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N146" t="n">
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6152,42 +5766,37 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>22.81</v>
+        <v>22.74</v>
       </c>
       <c r="C147" t="n">
-        <v>22.7</v>
+        <v>22.94</v>
       </c>
       <c r="D147" t="n">
-        <v>22.81</v>
+        <v>22.94</v>
       </c>
       <c r="E147" t="n">
-        <v>22.7</v>
+        <v>22.74</v>
       </c>
       <c r="F147" t="n">
-        <v>7152.9526</v>
+        <v>62400</v>
       </c>
       <c r="G147" t="n">
-        <v>23.02266666666666</v>
+        <v>-1633700.089015086</v>
       </c>
       <c r="H147" t="n">
-        <v>22.95016666666666</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N147" t="n">
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6196,42 +5805,37 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>22.65</v>
+        <v>22.94</v>
       </c>
       <c r="C148" t="n">
-        <v>22.65</v>
+        <v>22.94</v>
       </c>
       <c r="D148" t="n">
-        <v>22.65</v>
+        <v>22.94</v>
       </c>
       <c r="E148" t="n">
-        <v>22.65</v>
+        <v>22.94</v>
       </c>
       <c r="F148" t="n">
-        <v>3384.6857</v>
+        <v>20050</v>
       </c>
       <c r="G148" t="n">
-        <v>22.96333333333332</v>
+        <v>-1633700.089015086</v>
       </c>
       <c r="H148" t="n">
-        <v>22.94666666666666</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N148" t="n">
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6240,42 +5844,37 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>22.7</v>
+        <v>22.95</v>
       </c>
       <c r="C149" t="n">
-        <v>22.66</v>
+        <v>23.09</v>
       </c>
       <c r="D149" t="n">
-        <v>22.7</v>
+        <v>23.09</v>
       </c>
       <c r="E149" t="n">
-        <v>22.66</v>
+        <v>22.95</v>
       </c>
       <c r="F149" t="n">
-        <v>4161.4121</v>
+        <v>9800</v>
       </c>
       <c r="G149" t="n">
-        <v>22.92999999999999</v>
+        <v>-1623900.089015086</v>
       </c>
       <c r="H149" t="n">
-        <v>22.94316666666667</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N149" t="n">
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6284,42 +5883,37 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>22.89</v>
+        <v>23.16</v>
       </c>
       <c r="C150" t="n">
-        <v>22.89</v>
+        <v>23.16</v>
       </c>
       <c r="D150" t="n">
-        <v>22.89</v>
+        <v>23.16</v>
       </c>
       <c r="E150" t="n">
-        <v>22.89</v>
+        <v>23.16</v>
       </c>
       <c r="F150" t="n">
         <v>23</v>
       </c>
       <c r="G150" t="n">
-        <v>22.90533333333332</v>
+        <v>-1623877.089015086</v>
       </c>
       <c r="H150" t="n">
-        <v>22.94466666666667</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N150" t="n">
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,42 +5922,37 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>22.8</v>
+        <v>23.11</v>
       </c>
       <c r="C151" t="n">
-        <v>22.8</v>
+        <v>23.11</v>
       </c>
       <c r="D151" t="n">
-        <v>22.8</v>
+        <v>23.11</v>
       </c>
       <c r="E151" t="n">
-        <v>22.8</v>
+        <v>23.11</v>
       </c>
       <c r="F151" t="n">
-        <v>2296.3744</v>
+        <v>14725.1145</v>
       </c>
       <c r="G151" t="n">
-        <v>22.89866666666666</v>
+        <v>-1638602.203515086</v>
       </c>
       <c r="H151" t="n">
-        <v>22.948</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N151" t="n">
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6372,42 +5961,37 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>22.89</v>
+        <v>23.17</v>
       </c>
       <c r="C152" t="n">
-        <v>22.89</v>
+        <v>23.17</v>
       </c>
       <c r="D152" t="n">
-        <v>22.89</v>
+        <v>23.17</v>
       </c>
       <c r="E152" t="n">
-        <v>22.89</v>
+        <v>23.17</v>
       </c>
       <c r="F152" t="n">
         <v>23</v>
       </c>
       <c r="G152" t="n">
-        <v>22.87999999999999</v>
+        <v>-1638579.203515086</v>
       </c>
       <c r="H152" t="n">
-        <v>22.95283333333334</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N152" t="n">
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6416,42 +6000,37 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>22.8</v>
+        <v>23.11</v>
       </c>
       <c r="C153" t="n">
-        <v>22.8</v>
+        <v>23.11</v>
       </c>
       <c r="D153" t="n">
-        <v>22.8</v>
+        <v>23.11</v>
       </c>
       <c r="E153" t="n">
-        <v>22.8</v>
+        <v>23.11</v>
       </c>
       <c r="F153" t="n">
-        <v>921.6312</v>
+        <v>5582.3865</v>
       </c>
       <c r="G153" t="n">
-        <v>22.86666666666666</v>
+        <v>-1644161.590015086</v>
       </c>
       <c r="H153" t="n">
-        <v>22.95383333333334</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N153" t="n">
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6460,42 +6039,37 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="C154" t="n">
-        <v>22.8</v>
+        <v>22.91</v>
       </c>
       <c r="D154" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="E154" t="n">
-        <v>22.8</v>
+        <v>22.91</v>
       </c>
       <c r="F154" t="n">
-        <v>1933.15</v>
+        <v>7341.2376</v>
       </c>
       <c r="G154" t="n">
-        <v>22.84999999999999</v>
+        <v>-1651502.827615086</v>
       </c>
       <c r="H154" t="n">
-        <v>22.94866666666667</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N154" t="n">
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6504,42 +6078,37 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>22.95</v>
+        <v>23.13</v>
       </c>
       <c r="C155" t="n">
-        <v>22.95</v>
+        <v>23.13</v>
       </c>
       <c r="D155" t="n">
-        <v>22.95</v>
+        <v>23.13</v>
       </c>
       <c r="E155" t="n">
-        <v>22.95</v>
+        <v>23.13</v>
       </c>
       <c r="F155" t="n">
         <v>23</v>
       </c>
       <c r="G155" t="n">
-        <v>22.84333333333332</v>
+        <v>-1651479.827615086</v>
       </c>
       <c r="H155" t="n">
-        <v>22.94633333333334</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N155" t="n">
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6548,42 +6117,37 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>22.9</v>
+        <v>23.15</v>
       </c>
       <c r="C156" t="n">
-        <v>22.8</v>
+        <v>23.3</v>
       </c>
       <c r="D156" t="n">
-        <v>22.9</v>
+        <v>23.3</v>
       </c>
       <c r="E156" t="n">
-        <v>22.8</v>
+        <v>23.15</v>
       </c>
       <c r="F156" t="n">
-        <v>373.5288</v>
+        <v>64869.204</v>
       </c>
       <c r="G156" t="n">
-        <v>22.82666666666666</v>
+        <v>-1586610.623615086</v>
       </c>
       <c r="H156" t="n">
-        <v>22.94133333333334</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N156" t="n">
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6592,42 +6156,37 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>22.97</v>
+        <v>23.24</v>
       </c>
       <c r="C157" t="n">
-        <v>22.97</v>
+        <v>23.24</v>
       </c>
       <c r="D157" t="n">
-        <v>22.97</v>
+        <v>23.24</v>
       </c>
       <c r="E157" t="n">
-        <v>22.97</v>
+        <v>23.24</v>
       </c>
       <c r="F157" t="n">
-        <v>23</v>
+        <v>3754.2161</v>
       </c>
       <c r="G157" t="n">
-        <v>22.83666666666666</v>
+        <v>-1590364.839715086</v>
       </c>
       <c r="H157" t="n">
-        <v>22.94083333333334</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N157" t="n">
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6636,42 +6195,37 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>22.97</v>
+        <v>23.29</v>
       </c>
       <c r="C158" t="n">
-        <v>22.97</v>
+        <v>23.29</v>
       </c>
       <c r="D158" t="n">
-        <v>22.97</v>
+        <v>23.29</v>
       </c>
       <c r="E158" t="n">
-        <v>22.97</v>
+        <v>23.29</v>
       </c>
       <c r="F158" t="n">
-        <v>10486.634</v>
+        <v>2127.2082</v>
       </c>
       <c r="G158" t="n">
-        <v>22.82799999999999</v>
+        <v>-1588237.631515086</v>
       </c>
       <c r="H158" t="n">
-        <v>22.94016666666668</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N158" t="n">
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6680,42 +6234,37 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>22.8</v>
+        <v>23.29</v>
       </c>
       <c r="C159" t="n">
-        <v>22.8</v>
+        <v>23.29</v>
       </c>
       <c r="D159" t="n">
-        <v>22.8</v>
+        <v>23.29</v>
       </c>
       <c r="E159" t="n">
-        <v>22.8</v>
+        <v>23.29</v>
       </c>
       <c r="F159" t="n">
-        <v>9725.5931</v>
+        <v>9200</v>
       </c>
       <c r="G159" t="n">
-        <v>22.82133333333332</v>
+        <v>-1588237.631515086</v>
       </c>
       <c r="H159" t="n">
-        <v>22.93850000000001</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N159" t="n">
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6724,42 +6273,37 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>22.8</v>
+        <v>23.28</v>
       </c>
       <c r="C160" t="n">
-        <v>22.8</v>
+        <v>23.4</v>
       </c>
       <c r="D160" t="n">
-        <v>22.8</v>
+        <v>23.4</v>
       </c>
       <c r="E160" t="n">
-        <v>22.8</v>
+        <v>23.28</v>
       </c>
       <c r="F160" t="n">
-        <v>7875.1367</v>
+        <v>10564.9086</v>
       </c>
       <c r="G160" t="n">
-        <v>22.81999999999999</v>
+        <v>-1577672.722915086</v>
       </c>
       <c r="H160" t="n">
-        <v>22.93683333333334</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N160" t="n">
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6768,42 +6312,37 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>22.73</v>
+        <v>23.4</v>
       </c>
       <c r="C161" t="n">
-        <v>22.7</v>
+        <v>23.28</v>
       </c>
       <c r="D161" t="n">
-        <v>22.73</v>
+        <v>23.4</v>
       </c>
       <c r="E161" t="n">
-        <v>22.7</v>
+        <v>23.28</v>
       </c>
       <c r="F161" t="n">
-        <v>3087.6011</v>
+        <v>934.4854</v>
       </c>
       <c r="G161" t="n">
-        <v>22.81199999999999</v>
+        <v>-1578607.208315086</v>
       </c>
       <c r="H161" t="n">
-        <v>22.93516666666667</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N161" t="n">
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6812,44 +6351,37 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>22.8</v>
+        <v>23.28</v>
       </c>
       <c r="C162" t="n">
-        <v>22.8</v>
+        <v>23.54</v>
       </c>
       <c r="D162" t="n">
-        <v>22.8</v>
+        <v>23.54</v>
       </c>
       <c r="E162" t="n">
-        <v>22.8</v>
+        <v>23.28</v>
       </c>
       <c r="F162" t="n">
-        <v>1826.2576</v>
+        <v>10023</v>
       </c>
       <c r="G162" t="n">
-        <v>22.81866666666666</v>
+        <v>-1568584.208315086</v>
       </c>
       <c r="H162" t="n">
-        <v>22.93516666666667</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
-      <c r="K162" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L162" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6858,44 +6390,37 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>22.9</v>
+        <v>23.16</v>
       </c>
       <c r="C163" t="n">
-        <v>23.05</v>
+        <v>23.16</v>
       </c>
       <c r="D163" t="n">
-        <v>23.05</v>
+        <v>23.16</v>
       </c>
       <c r="E163" t="n">
-        <v>22.9</v>
+        <v>23.16</v>
       </c>
       <c r="F163" t="n">
-        <v>40023</v>
+        <v>973.3475</v>
       </c>
       <c r="G163" t="n">
-        <v>22.84533333333333</v>
+        <v>-1569557.555815086</v>
       </c>
       <c r="H163" t="n">
-        <v>22.93783333333334</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
-      <c r="K163" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="L163" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6904,44 +6429,37 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>22.9</v>
+        <v>23.26</v>
       </c>
       <c r="C164" t="n">
-        <v>22.9</v>
+        <v>23.26</v>
       </c>
       <c r="D164" t="n">
-        <v>22.9</v>
+        <v>23.26</v>
       </c>
       <c r="E164" t="n">
-        <v>22.9</v>
+        <v>23.26</v>
       </c>
       <c r="F164" t="n">
-        <v>779.0531</v>
+        <v>23</v>
       </c>
       <c r="G164" t="n">
-        <v>22.86133333333333</v>
+        <v>-1569534.555815086</v>
       </c>
       <c r="H164" t="n">
-        <v>22.94116666666667</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
-      <c r="K164" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="L164" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6950,42 +6468,37 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>23.01</v>
+        <v>23.16</v>
       </c>
       <c r="C165" t="n">
-        <v>23.01</v>
+        <v>22.9</v>
       </c>
       <c r="D165" t="n">
-        <v>23.01</v>
+        <v>23.16</v>
       </c>
       <c r="E165" t="n">
-        <v>23.01</v>
+        <v>22.9</v>
       </c>
       <c r="F165" t="n">
-        <v>23</v>
+        <v>22224.5179</v>
       </c>
       <c r="G165" t="n">
-        <v>22.86933333333333</v>
+        <v>-1591759.073715086</v>
       </c>
       <c r="H165" t="n">
-        <v>22.94633333333334</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N165" t="n">
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6994,42 +6507,37 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>22.82</v>
+        <v>23.17</v>
       </c>
       <c r="C166" t="n">
-        <v>22.82</v>
+        <v>23.17</v>
       </c>
       <c r="D166" t="n">
-        <v>22.82</v>
+        <v>23.17</v>
       </c>
       <c r="E166" t="n">
-        <v>22.82</v>
+        <v>23.17</v>
       </c>
       <c r="F166" t="n">
-        <v>1500</v>
+        <v>23</v>
       </c>
       <c r="G166" t="n">
-        <v>22.87066666666666</v>
+        <v>-1591736.073715086</v>
       </c>
       <c r="H166" t="n">
-        <v>22.944</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N166" t="n">
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7038,42 +6546,37 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>22.99</v>
+        <v>22.88</v>
       </c>
       <c r="C167" t="n">
-        <v>22.99</v>
+        <v>23</v>
       </c>
       <c r="D167" t="n">
-        <v>22.99</v>
+        <v>23</v>
       </c>
       <c r="E167" t="n">
-        <v>22.99</v>
+        <v>22.87</v>
       </c>
       <c r="F167" t="n">
-        <v>23</v>
+        <v>48648.1921</v>
       </c>
       <c r="G167" t="n">
-        <v>22.87733333333333</v>
+        <v>-1640384.265815086</v>
       </c>
       <c r="H167" t="n">
-        <v>22.94883333333333</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>0</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N167" t="n">
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7082,42 +6585,37 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>22.82</v>
+        <v>23</v>
       </c>
       <c r="C168" t="n">
-        <v>22.82</v>
+        <v>23.05</v>
       </c>
       <c r="D168" t="n">
-        <v>22.82</v>
+        <v>23.05</v>
       </c>
       <c r="E168" t="n">
-        <v>22.82</v>
+        <v>23</v>
       </c>
       <c r="F168" t="n">
-        <v>1498.2245</v>
+        <v>72764.2556</v>
       </c>
       <c r="G168" t="n">
-        <v>22.87866666666666</v>
+        <v>-1567620.010215086</v>
       </c>
       <c r="H168" t="n">
-        <v>22.95083333333333</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>0</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N168" t="n">
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7138,30 +6636,25 @@
         <v>23.05</v>
       </c>
       <c r="F169" t="n">
-        <v>23</v>
+        <v>40000</v>
       </c>
       <c r="G169" t="n">
-        <v>22.89533333333333</v>
+        <v>-1567620.010215086</v>
       </c>
       <c r="H169" t="n">
-        <v>22.953</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N169" t="n">
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7173,39 +6666,34 @@
         <v>23.05</v>
       </c>
       <c r="C170" t="n">
-        <v>23.06</v>
+        <v>23.05</v>
       </c>
       <c r="D170" t="n">
-        <v>23.06</v>
+        <v>23.05</v>
       </c>
       <c r="E170" t="n">
         <v>23.05</v>
       </c>
       <c r="F170" t="n">
-        <v>31049.7296</v>
+        <v>4551.673</v>
       </c>
       <c r="G170" t="n">
-        <v>22.90266666666666</v>
+        <v>-1567620.010215086</v>
       </c>
       <c r="H170" t="n">
-        <v>22.959</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N170" t="n">
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7214,42 +6702,37 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>23.12</v>
+        <v>23.05</v>
       </c>
       <c r="C171" t="n">
-        <v>23.06</v>
+        <v>22.82</v>
       </c>
       <c r="D171" t="n">
-        <v>23.12</v>
+        <v>23.05</v>
       </c>
       <c r="E171" t="n">
-        <v>23.06</v>
+        <v>22.82</v>
       </c>
       <c r="F171" t="n">
-        <v>1194.3396</v>
+        <v>27487.8622</v>
       </c>
       <c r="G171" t="n">
-        <v>22.91999999999999</v>
+        <v>-1595107.872415086</v>
       </c>
       <c r="H171" t="n">
-        <v>22.96099999999999</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>0</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N171" t="n">
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7258,42 +6741,37 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>23.06</v>
+        <v>23.1</v>
       </c>
       <c r="C172" t="n">
-        <v>22.96</v>
+        <v>23.1</v>
       </c>
       <c r="D172" t="n">
-        <v>23.06</v>
+        <v>23.1</v>
       </c>
       <c r="E172" t="n">
-        <v>22.65</v>
+        <v>23.1</v>
       </c>
       <c r="F172" t="n">
-        <v>188623</v>
+        <v>41532.0076</v>
       </c>
       <c r="G172" t="n">
-        <v>22.91933333333332</v>
+        <v>-1553575.864815087</v>
       </c>
       <c r="H172" t="n">
-        <v>22.96666666666666</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>0</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N172" t="n">
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7302,42 +6780,37 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>22.83</v>
+        <v>22.9</v>
       </c>
       <c r="C173" t="n">
-        <v>22.83</v>
+        <v>22.9</v>
       </c>
       <c r="D173" t="n">
-        <v>22.83</v>
+        <v>22.9</v>
       </c>
       <c r="E173" t="n">
-        <v>22.83</v>
+        <v>22.9</v>
       </c>
       <c r="F173" t="n">
-        <v>22377.1521</v>
+        <v>40000</v>
       </c>
       <c r="G173" t="n">
-        <v>22.90999999999999</v>
+        <v>-1593575.864815087</v>
       </c>
       <c r="H173" t="n">
-        <v>22.97133333333333</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N173" t="n">
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7346,42 +6819,1172 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="C174" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D174" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="E174" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F174" t="n">
+        <v>91911.461</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1685487.325815086</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="C175" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D175" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="E175" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1099.7781</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1685487.325815086</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="C176" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D176" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="E176" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F176" t="n">
+        <v>7152.9526</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1692640.278415086</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
         <v>22.65</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C177" t="n">
         <v>22.65</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D177" t="n">
         <v>22.65</v>
       </c>
-      <c r="E174" t="n">
+      <c r="E177" t="n">
         <v>22.65</v>
       </c>
-      <c r="F174" t="n">
+      <c r="F177" t="n">
+        <v>3384.6857</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1696024.964115086</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C178" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="D178" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E178" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="F178" t="n">
+        <v>4161.4121</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1691863.552015086</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="C179" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="D179" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="E179" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="F179" t="n">
+        <v>23</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1691840.552015086</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C180" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D180" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E180" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2296.3744</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1694136.926415086</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="C181" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="D181" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="E181" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="F181" t="n">
+        <v>23</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1694113.926415086</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C182" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D182" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E182" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>921.6312</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1695035.557615086</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C183" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D183" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E183" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1933.15</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1695035.557615086</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="C184" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="D184" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="E184" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="F184" t="n">
+        <v>23</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1695012.557615086</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C185" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D185" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E185" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F185" t="n">
+        <v>373.5288</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1695386.086415086</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="C186" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="D186" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="E186" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="F186" t="n">
+        <v>23</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1695363.086415086</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="C187" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="D187" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="E187" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="F187" t="n">
+        <v>10486.634</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1695363.086415086</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C188" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D188" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E188" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F188" t="n">
+        <v>9725.5931</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1705088.679515086</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C189" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D189" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E189" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F189" t="n">
+        <v>7875.1367</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1705088.679515086</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="C190" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D190" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="E190" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F190" t="n">
+        <v>3087.6011</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1708176.280615086</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C191" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D191" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E191" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1826.2576</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1706350.023015087</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C192" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="D192" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="E192" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F192" t="n">
+        <v>40023</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1666327.023015087</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C193" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D193" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E193" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F193" t="n">
+        <v>779.0531</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1667106.076115086</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="C194" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="D194" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="E194" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="F194" t="n">
+        <v>23</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1667083.076115086</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="C195" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D195" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="E195" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1668583.076115086</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="C196" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="D196" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="E196" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="F196" t="n">
+        <v>23</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1668560.076115086</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="C197" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D197" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="E197" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1498.2245</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1670058.300615086</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="C198" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="D198" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="E198" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="F198" t="n">
+        <v>23</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1670035.300615086</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="C199" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="D199" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="E199" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="F199" t="n">
+        <v>31049.7296</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-1638985.571015086</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="C200" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="D200" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="E200" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1194.3396</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-1638985.571015086</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="C201" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="D201" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="E201" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="F201" t="n">
+        <v>188623</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1827608.571015086</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="C202" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="D202" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="E202" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="F202" t="n">
+        <v>22377.1521</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1849985.723115087</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="C203" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="D203" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="E203" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="F203" t="n">
         <v>40000</v>
       </c>
-      <c r="G174" t="n">
-        <v>22.89999999999999</v>
-      </c>
-      <c r="H174" t="n">
-        <v>22.9705</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N174" t="n">
+      <c r="G203" t="n">
+        <v>-1889985.723115087</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest LBA.xlsx
+++ b/BackTest/2020-01-14 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N161"/>
+  <dimension ref="A1:N232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23.36</v>
+        <v>23.71</v>
       </c>
       <c r="C2" t="n">
-        <v>23.36</v>
+        <v>23.7</v>
       </c>
       <c r="D2" t="n">
-        <v>23.36</v>
+        <v>23.71</v>
       </c>
       <c r="E2" t="n">
-        <v>23.36</v>
+        <v>23.7</v>
       </c>
       <c r="F2" t="n">
-        <v>4920.5991</v>
+        <v>28819.9242</v>
       </c>
       <c r="G2" t="n">
-        <v>-1086654.399320528</v>
+        <v>-380821.4692664157</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23.36</v>
+        <v>23.71</v>
       </c>
       <c r="C3" t="n">
-        <v>23.36</v>
+        <v>23.71</v>
       </c>
       <c r="D3" t="n">
-        <v>23.36</v>
+        <v>23.71</v>
       </c>
       <c r="E3" t="n">
-        <v>23.36</v>
+        <v>23.7</v>
       </c>
       <c r="F3" t="n">
-        <v>193.0084</v>
+        <v>132833.1814</v>
       </c>
       <c r="G3" t="n">
-        <v>-1086654.399320528</v>
+        <v>-247988.2878664157</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23.36</v>
+        <v>23.7</v>
       </c>
       <c r="C4" t="n">
-        <v>23.36</v>
+        <v>23.7</v>
       </c>
       <c r="D4" t="n">
-        <v>23.36</v>
+        <v>23.7</v>
       </c>
       <c r="E4" t="n">
-        <v>23.36</v>
+        <v>23.7</v>
       </c>
       <c r="F4" t="n">
-        <v>7098.8423</v>
+        <v>44652.9688</v>
       </c>
       <c r="G4" t="n">
-        <v>-1086654.399320528</v>
+        <v>-292641.2566664157</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>23.4</v>
+        <v>23.71</v>
       </c>
       <c r="C5" t="n">
-        <v>23.4</v>
+        <v>23.71</v>
       </c>
       <c r="D5" t="n">
-        <v>23.4</v>
+        <v>23.71</v>
       </c>
       <c r="E5" t="n">
-        <v>23.4</v>
+        <v>23.71</v>
       </c>
       <c r="F5" t="n">
-        <v>602.4761</v>
+        <v>77032</v>
       </c>
       <c r="G5" t="n">
-        <v>-1086051.923220528</v>
+        <v>-215609.2566664157</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.5</v>
+        <v>23.71</v>
       </c>
       <c r="C6" t="n">
-        <v>23.5</v>
+        <v>23.22</v>
       </c>
       <c r="D6" t="n">
-        <v>23.5</v>
+        <v>23.71</v>
       </c>
       <c r="E6" t="n">
-        <v>23.5</v>
+        <v>23.22</v>
       </c>
       <c r="F6" t="n">
-        <v>58355.2628</v>
+        <v>133291.69</v>
       </c>
       <c r="G6" t="n">
-        <v>-1027696.660420528</v>
+        <v>-348900.9466664157</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="C7" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="D7" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="E7" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="F7" t="n">
-        <v>36480.3279</v>
+        <v>22.3434</v>
       </c>
       <c r="G7" t="n">
-        <v>-1027696.660420528</v>
+        <v>-348878.6032664157</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,28 +654,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="D8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="E8" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="F8" t="n">
-        <v>616.0779</v>
+        <v>425</v>
       </c>
       <c r="G8" t="n">
-        <v>-1027696.660420528</v>
+        <v>-348453.6032664157</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="C9" t="n">
-        <v>23.5</v>
+        <v>23.93</v>
       </c>
       <c r="D9" t="n">
-        <v>23.5</v>
+        <v>23.93</v>
       </c>
       <c r="E9" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="F9" t="n">
-        <v>15772.7713</v>
+        <v>51659.1706</v>
       </c>
       <c r="G9" t="n">
-        <v>-1027696.660420528</v>
+        <v>-296794.4326664157</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>23.52</v>
+        <v>23.7</v>
       </c>
       <c r="C10" t="n">
-        <v>23.52</v>
+        <v>23.7</v>
       </c>
       <c r="D10" t="n">
-        <v>23.52</v>
+        <v>23.7</v>
       </c>
       <c r="E10" t="n">
-        <v>23.52</v>
+        <v>23.7</v>
       </c>
       <c r="F10" t="n">
-        <v>25093.9935</v>
+        <v>2386.5524</v>
       </c>
       <c r="G10" t="n">
-        <v>-1002602.666920528</v>
+        <v>-299180.9850664157</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>23.49</v>
+        <v>23.7</v>
       </c>
       <c r="C11" t="n">
-        <v>23.52</v>
+        <v>23.53</v>
       </c>
       <c r="D11" t="n">
-        <v>23.52</v>
+        <v>23.93</v>
       </c>
       <c r="E11" t="n">
-        <v>23.49</v>
+        <v>23.53</v>
       </c>
       <c r="F11" t="n">
-        <v>15551.2911</v>
+        <v>25008.5416</v>
       </c>
       <c r="G11" t="n">
-        <v>-1002602.666920528</v>
+        <v>-324189.5266664157</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>23.42</v>
+        <v>23.54</v>
       </c>
       <c r="C12" t="n">
         <v>23.54</v>
@@ -807,19 +807,19 @@
         <v>23.54</v>
       </c>
       <c r="E12" t="n">
-        <v>23.42</v>
+        <v>23.54</v>
       </c>
       <c r="F12" t="n">
-        <v>25250.9571</v>
+        <v>3340.0259</v>
       </c>
       <c r="G12" t="n">
-        <v>-977351.7098205278</v>
+        <v>-320849.5007664157</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>23.54</v>
+        <v>23.53</v>
       </c>
       <c r="C13" t="n">
-        <v>23.54</v>
+        <v>23.53</v>
       </c>
       <c r="D13" t="n">
-        <v>23.54</v>
+        <v>23.53</v>
       </c>
       <c r="E13" t="n">
-        <v>23.54</v>
+        <v>23.53</v>
       </c>
       <c r="F13" t="n">
-        <v>1746.159</v>
+        <v>1359.14</v>
       </c>
       <c r="G13" t="n">
-        <v>-977351.7098205278</v>
+        <v>-322208.6407664157</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>23.86</v>
+        <v>23.52</v>
       </c>
       <c r="C14" t="n">
-        <v>23.86</v>
+        <v>23.4</v>
       </c>
       <c r="D14" t="n">
-        <v>23.86</v>
+        <v>23.52</v>
       </c>
       <c r="E14" t="n">
-        <v>23.86</v>
+        <v>23.31</v>
       </c>
       <c r="F14" t="n">
-        <v>21</v>
+        <v>30906.4141</v>
       </c>
       <c r="G14" t="n">
-        <v>-977330.7098205278</v>
+        <v>-353115.0548664157</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.85</v>
+        <v>23.5</v>
       </c>
       <c r="C15" t="n">
-        <v>23.55</v>
+        <v>23.2</v>
       </c>
       <c r="D15" t="n">
-        <v>23.85</v>
+        <v>23.5</v>
       </c>
       <c r="E15" t="n">
-        <v>23.55</v>
+        <v>23.2</v>
       </c>
       <c r="F15" t="n">
-        <v>22255.7658</v>
+        <v>84920.6899</v>
       </c>
       <c r="G15" t="n">
-        <v>-999586.4756205279</v>
+        <v>-438035.7447664157</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="C16" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="D16" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="E16" t="n">
-        <v>23.6</v>
+        <v>23.29</v>
       </c>
       <c r="F16" t="n">
-        <v>597.2184999999999</v>
+        <v>44333.2891</v>
       </c>
       <c r="G16" t="n">
-        <v>-998989.2571205279</v>
+        <v>-393702.4556664157</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="C17" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="D17" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="E17" t="n">
-        <v>23.6</v>
+        <v>23.4</v>
       </c>
       <c r="F17" t="n">
-        <v>7902.7815</v>
+        <v>62710.1577</v>
       </c>
       <c r="G17" t="n">
-        <v>-998989.2571205279</v>
+        <v>-393702.4556664157</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23.6</v>
+        <v>23.47</v>
       </c>
       <c r="C18" t="n">
-        <v>23.6</v>
+        <v>23.47</v>
       </c>
       <c r="D18" t="n">
-        <v>23.6</v>
+        <v>23.47</v>
       </c>
       <c r="E18" t="n">
-        <v>23.6</v>
+        <v>23.47</v>
       </c>
       <c r="F18" t="n">
-        <v>21921.2336</v>
+        <v>11438.917</v>
       </c>
       <c r="G18" t="n">
-        <v>-998989.2571205279</v>
+        <v>-382263.5386664157</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>23.6</v>
+        <v>23.48</v>
       </c>
       <c r="C19" t="n">
-        <v>23.6</v>
+        <v>23.48</v>
       </c>
       <c r="D19" t="n">
-        <v>23.6</v>
+        <v>23.48</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6</v>
+        <v>23.48</v>
       </c>
       <c r="F19" t="n">
-        <v>3428</v>
+        <v>43357.0486</v>
       </c>
       <c r="G19" t="n">
-        <v>-998989.2571205279</v>
+        <v>-338906.4900664157</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>23.75</v>
+        <v>23.31</v>
       </c>
       <c r="C20" t="n">
-        <v>23.75</v>
+        <v>23.31</v>
       </c>
       <c r="D20" t="n">
-        <v>23.75</v>
+        <v>23.31</v>
       </c>
       <c r="E20" t="n">
-        <v>23.75</v>
+        <v>23.31</v>
       </c>
       <c r="F20" t="n">
-        <v>8149.405</v>
+        <v>12740.7127</v>
       </c>
       <c r="G20" t="n">
-        <v>-990839.8521205279</v>
+        <v>-351647.2027664157</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>23.75</v>
+        <v>23.56</v>
       </c>
       <c r="C21" t="n">
-        <v>23.89</v>
+        <v>23.56</v>
       </c>
       <c r="D21" t="n">
-        <v>23.89</v>
+        <v>23.56</v>
       </c>
       <c r="E21" t="n">
-        <v>23.75</v>
+        <v>23.56</v>
       </c>
       <c r="F21" t="n">
-        <v>84435.27000544161</v>
+        <v>21600</v>
       </c>
       <c r="G21" t="n">
-        <v>-906404.5821150863</v>
+        <v>-330047.2027664157</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>23.89</v>
+        <v>23.76</v>
       </c>
       <c r="C22" t="n">
-        <v>23.97</v>
+        <v>23.76</v>
       </c>
       <c r="D22" t="n">
-        <v>23.97</v>
+        <v>23.76</v>
       </c>
       <c r="E22" t="n">
-        <v>23.89</v>
+        <v>23.76</v>
       </c>
       <c r="F22" t="n">
-        <v>33839.7432</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>-872564.8389150862</v>
+        <v>-330025.2027664157</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>23.89</v>
+        <v>23.86</v>
       </c>
       <c r="C23" t="n">
-        <v>23.89</v>
+        <v>23.86</v>
       </c>
       <c r="D23" t="n">
-        <v>23.89</v>
+        <v>23.86</v>
       </c>
       <c r="E23" t="n">
-        <v>23.89</v>
+        <v>23.86</v>
       </c>
       <c r="F23" t="n">
-        <v>3796.4569</v>
+        <v>520</v>
       </c>
       <c r="G23" t="n">
-        <v>-876361.2958150862</v>
+        <v>-329505.2027664157</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>23.89</v>
+        <v>24.13</v>
       </c>
       <c r="C24" t="n">
-        <v>23.63</v>
+        <v>24.13</v>
       </c>
       <c r="D24" t="n">
-        <v>23.89</v>
+        <v>24.13</v>
       </c>
       <c r="E24" t="n">
-        <v>23.63</v>
+        <v>24.13</v>
       </c>
       <c r="F24" t="n">
-        <v>32306.9377</v>
+        <v>22.3426</v>
       </c>
       <c r="G24" t="n">
-        <v>-908668.2335150862</v>
+        <v>-329482.8601664157</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23.7</v>
+        <v>24.03</v>
       </c>
       <c r="C25" t="n">
-        <v>23.7</v>
+        <v>24.03</v>
       </c>
       <c r="D25" t="n">
-        <v>23.7</v>
+        <v>24.03</v>
       </c>
       <c r="E25" t="n">
-        <v>23.7</v>
+        <v>24.03</v>
       </c>
       <c r="F25" t="n">
-        <v>591.4315</v>
+        <v>12266.5873</v>
       </c>
       <c r="G25" t="n">
-        <v>-908076.8020150863</v>
+        <v>-341749.4474664157</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23.6</v>
+        <v>24.03</v>
       </c>
       <c r="C26" t="n">
-        <v>23.57</v>
+        <v>23.51</v>
       </c>
       <c r="D26" t="n">
-        <v>23.6</v>
+        <v>24.03</v>
       </c>
       <c r="E26" t="n">
-        <v>23.57</v>
+        <v>23.51</v>
       </c>
       <c r="F26" t="n">
-        <v>28578.1007</v>
+        <v>15702.8378</v>
       </c>
       <c r="G26" t="n">
-        <v>-936654.9027150862</v>
+        <v>-357452.2852664157</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23.56</v>
+        <v>23.8</v>
       </c>
       <c r="C27" t="n">
-        <v>23.56</v>
+        <v>23.8</v>
       </c>
       <c r="D27" t="n">
-        <v>23.56</v>
+        <v>23.8</v>
       </c>
       <c r="E27" t="n">
-        <v>23.56</v>
+        <v>23.8</v>
       </c>
       <c r="F27" t="n">
-        <v>50853.9414</v>
+        <v>297.7935</v>
       </c>
       <c r="G27" t="n">
-        <v>-987508.8441150862</v>
+        <v>-357154.4917664157</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>23.56</v>
+        <v>24.06</v>
       </c>
       <c r="C28" t="n">
-        <v>23.56</v>
+        <v>24.07</v>
       </c>
       <c r="D28" t="n">
-        <v>23.56</v>
+        <v>24.07</v>
       </c>
       <c r="E28" t="n">
-        <v>23.56</v>
+        <v>24.06</v>
       </c>
       <c r="F28" t="n">
-        <v>1092.115</v>
+        <v>14186.444</v>
       </c>
       <c r="G28" t="n">
-        <v>-987508.8441150862</v>
+        <v>-342968.0477664156</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>23.59</v>
+        <v>23.8</v>
       </c>
       <c r="C29" t="n">
-        <v>23.42</v>
+        <v>23.9</v>
       </c>
       <c r="D29" t="n">
-        <v>23.59</v>
+        <v>23.9</v>
       </c>
       <c r="E29" t="n">
-        <v>23.42</v>
+        <v>23.8</v>
       </c>
       <c r="F29" t="n">
-        <v>156287.0509</v>
+        <v>41586.9608</v>
       </c>
       <c r="G29" t="n">
-        <v>-1143795.895015086</v>
+        <v>-384555.0085664156</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>23.42</v>
+        <v>23.7</v>
       </c>
       <c r="C30" t="n">
-        <v>23.42</v>
+        <v>23.81</v>
       </c>
       <c r="D30" t="n">
-        <v>23.42</v>
+        <v>23.81</v>
       </c>
       <c r="E30" t="n">
-        <v>23.42</v>
+        <v>23.7</v>
       </c>
       <c r="F30" t="n">
-        <v>25212.4065</v>
+        <v>584.4864</v>
       </c>
       <c r="G30" t="n">
-        <v>-1143795.895015086</v>
+        <v>-385139.4949664156</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>23.36</v>
+        <v>24.21</v>
       </c>
       <c r="C31" t="n">
-        <v>23.36</v>
+        <v>24.15</v>
       </c>
       <c r="D31" t="n">
-        <v>23.36</v>
+        <v>24.21</v>
       </c>
       <c r="E31" t="n">
-        <v>23.36</v>
+        <v>23.81</v>
       </c>
       <c r="F31" t="n">
-        <v>1669.1856</v>
+        <v>755.807</v>
       </c>
       <c r="G31" t="n">
-        <v>-1145465.080615086</v>
+        <v>-384383.6879664157</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>23.21</v>
+        <v>24.05</v>
       </c>
       <c r="C32" t="n">
-        <v>23.36</v>
+        <v>24.05</v>
       </c>
       <c r="D32" t="n">
-        <v>23.36</v>
+        <v>24.2</v>
       </c>
       <c r="E32" t="n">
-        <v>23.05</v>
+        <v>24.05</v>
       </c>
       <c r="F32" t="n">
-        <v>575190.4991</v>
+        <v>210448.0228</v>
       </c>
       <c r="G32" t="n">
-        <v>-1145465.080615086</v>
+        <v>-594831.7107664157</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>23.1</v>
+        <v>24.35</v>
       </c>
       <c r="C33" t="n">
-        <v>23.3</v>
+        <v>23.9</v>
       </c>
       <c r="D33" t="n">
-        <v>23.36</v>
+        <v>24.35</v>
       </c>
       <c r="E33" t="n">
-        <v>23.1</v>
+        <v>23.8</v>
       </c>
       <c r="F33" t="n">
-        <v>55194.4219</v>
+        <v>40971.6706</v>
       </c>
       <c r="G33" t="n">
-        <v>-1200659.502515086</v>
+        <v>-635803.3813664156</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1590,28 +1590,28 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>23.3</v>
+        <v>24.05</v>
       </c>
       <c r="C34" t="n">
-        <v>23.3</v>
+        <v>24.05</v>
       </c>
       <c r="D34" t="n">
-        <v>23.3</v>
+        <v>24.05</v>
       </c>
       <c r="E34" t="n">
-        <v>23.3</v>
+        <v>24.05</v>
       </c>
       <c r="F34" t="n">
-        <v>2655.7495</v>
+        <v>21</v>
       </c>
       <c r="G34" t="n">
-        <v>-1200659.502515086</v>
+        <v>-635782.3813664156</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>23.2</v>
+        <v>24.06</v>
       </c>
       <c r="C35" t="n">
-        <v>23.2</v>
+        <v>24.06</v>
       </c>
       <c r="D35" t="n">
-        <v>23.2</v>
+        <v>24.06</v>
       </c>
       <c r="E35" t="n">
-        <v>23.2</v>
+        <v>24.06</v>
       </c>
       <c r="F35" t="n">
-        <v>204</v>
+        <v>20.9999</v>
       </c>
       <c r="G35" t="n">
-        <v>-1200863.502515086</v>
+        <v>-635761.3814664156</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,28 +1662,28 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>23.3</v>
+        <v>24.05</v>
       </c>
       <c r="C36" t="n">
-        <v>23.3</v>
+        <v>24.05</v>
       </c>
       <c r="D36" t="n">
-        <v>23.3</v>
+        <v>24.05</v>
       </c>
       <c r="E36" t="n">
-        <v>23.3</v>
+        <v>24.05</v>
       </c>
       <c r="F36" t="n">
-        <v>1643.4815</v>
+        <v>1312.782</v>
       </c>
       <c r="G36" t="n">
-        <v>-1199220.021015086</v>
+        <v>-637074.1634664156</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
@@ -1698,28 +1698,28 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>23.3</v>
+        <v>24.06</v>
       </c>
       <c r="C37" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="D37" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="E37" t="n">
-        <v>23.3</v>
+        <v>24.06</v>
       </c>
       <c r="F37" t="n">
-        <v>19426.9874</v>
+        <v>45</v>
       </c>
       <c r="G37" t="n">
-        <v>-1199220.021015086</v>
+        <v>-637029.1634664156</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
@@ -1734,28 +1734,28 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>23.39</v>
+        <v>24.1</v>
       </c>
       <c r="C38" t="n">
-        <v>23.39</v>
+        <v>24.1</v>
       </c>
       <c r="D38" t="n">
-        <v>23.39</v>
+        <v>24.1</v>
       </c>
       <c r="E38" t="n">
-        <v>23.39</v>
+        <v>24.1</v>
       </c>
       <c r="F38" t="n">
-        <v>772.3848</v>
+        <v>20.9997</v>
       </c>
       <c r="G38" t="n">
-        <v>-1198447.636215086</v>
+        <v>-637029.1634664156</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -1770,28 +1770,28 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>23.2</v>
+        <v>24.1</v>
       </c>
       <c r="C39" t="n">
-        <v>23.37</v>
+        <v>24.1</v>
       </c>
       <c r="D39" t="n">
-        <v>23.37</v>
+        <v>24.1</v>
       </c>
       <c r="E39" t="n">
-        <v>23.2</v>
+        <v>24.1</v>
       </c>
       <c r="F39" t="n">
-        <v>4630.2935</v>
+        <v>33.33</v>
       </c>
       <c r="G39" t="n">
-        <v>-1203077.929715086</v>
+        <v>-637029.1634664156</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>23.3</v>
+        <v>24.2</v>
       </c>
       <c r="C40" t="n">
-        <v>23.3</v>
+        <v>24.2</v>
       </c>
       <c r="D40" t="n">
-        <v>23.3</v>
+        <v>24.2</v>
       </c>
       <c r="E40" t="n">
-        <v>23.3</v>
+        <v>24.2</v>
       </c>
       <c r="F40" t="n">
-        <v>126</v>
+        <v>29.1</v>
       </c>
       <c r="G40" t="n">
-        <v>-1203203.929715086</v>
+        <v>-637000.0634664156</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,28 +1842,28 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>23.3</v>
+        <v>24</v>
       </c>
       <c r="C41" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="D41" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="E41" t="n">
-        <v>23.3</v>
+        <v>23.88</v>
       </c>
       <c r="F41" t="n">
-        <v>203</v>
+        <v>2265.3634</v>
       </c>
       <c r="G41" t="n">
-        <v>-1203203.929715086</v>
+        <v>-639265.4268664157</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1878,28 +1878,28 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>23.16</v>
+        <v>24.01</v>
       </c>
       <c r="C42" t="n">
-        <v>23.38</v>
+        <v>24.01</v>
       </c>
       <c r="D42" t="n">
-        <v>23.38</v>
+        <v>24.01</v>
       </c>
       <c r="E42" t="n">
-        <v>23.04</v>
+        <v>24.01</v>
       </c>
       <c r="F42" t="n">
-        <v>51685.1201</v>
+        <v>20.9978</v>
       </c>
       <c r="G42" t="n">
-        <v>-1151518.809615086</v>
+        <v>-639286.4246664157</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1914,28 +1914,28 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>23.1</v>
+        <v>24.1</v>
       </c>
       <c r="C43" t="n">
-        <v>23.1</v>
+        <v>24.1</v>
       </c>
       <c r="D43" t="n">
-        <v>23.1</v>
+        <v>24.1</v>
       </c>
       <c r="E43" t="n">
-        <v>23.1</v>
+        <v>24.1</v>
       </c>
       <c r="F43" t="n">
-        <v>64529.9182</v>
+        <v>40.1</v>
       </c>
       <c r="G43" t="n">
-        <v>-1216048.727815086</v>
+        <v>-639246.3246664157</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1950,28 +1950,28 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>23.1</v>
+        <v>24.01</v>
       </c>
       <c r="C44" t="n">
-        <v>22.9</v>
+        <v>24.01</v>
       </c>
       <c r="D44" t="n">
-        <v>23.1</v>
+        <v>24.01</v>
       </c>
       <c r="E44" t="n">
-        <v>22.9</v>
+        <v>24.01</v>
       </c>
       <c r="F44" t="n">
-        <v>160053.1988</v>
+        <v>26.7</v>
       </c>
       <c r="G44" t="n">
-        <v>-1376101.926615086</v>
+        <v>-639273.0246664156</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1986,28 +1986,28 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>22.9</v>
+        <v>24.1</v>
       </c>
       <c r="C45" t="n">
-        <v>22.8</v>
+        <v>24.1</v>
       </c>
       <c r="D45" t="n">
-        <v>22.96</v>
+        <v>24.1</v>
       </c>
       <c r="E45" t="n">
-        <v>22.8</v>
+        <v>24.1</v>
       </c>
       <c r="F45" t="n">
-        <v>55495.1954</v>
+        <v>25.9</v>
       </c>
       <c r="G45" t="n">
-        <v>-1431597.122015086</v>
+        <v>-639247.1246664156</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -2022,28 +2022,28 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>22.8</v>
+        <v>24.01</v>
       </c>
       <c r="C46" t="n">
-        <v>22.8</v>
+        <v>24.1</v>
       </c>
       <c r="D46" t="n">
-        <v>22.8</v>
+        <v>24.1</v>
       </c>
       <c r="E46" t="n">
-        <v>22.8</v>
+        <v>23.91</v>
       </c>
       <c r="F46" t="n">
-        <v>44539.8832</v>
+        <v>28927.6087</v>
       </c>
       <c r="G46" t="n">
-        <v>-1431597.122015086</v>
+        <v>-639247.1246664156</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2058,28 +2058,28 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>22.8</v>
+        <v>24.01</v>
       </c>
       <c r="C47" t="n">
-        <v>22.8</v>
+        <v>23.84</v>
       </c>
       <c r="D47" t="n">
-        <v>22.8</v>
+        <v>24.01</v>
       </c>
       <c r="E47" t="n">
-        <v>22.8</v>
+        <v>23.84</v>
       </c>
       <c r="F47" t="n">
-        <v>46972.6835</v>
+        <v>32275.666</v>
       </c>
       <c r="G47" t="n">
-        <v>-1431597.122015086</v>
+        <v>-671522.7906664156</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2094,28 +2094,28 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>22.81</v>
+        <v>23.81</v>
       </c>
       <c r="C48" t="n">
-        <v>22.9</v>
+        <v>23.81</v>
       </c>
       <c r="D48" t="n">
-        <v>22.9</v>
+        <v>23.81</v>
       </c>
       <c r="E48" t="n">
-        <v>22.8</v>
+        <v>23.81</v>
       </c>
       <c r="F48" t="n">
-        <v>91497.5123</v>
+        <v>2674.1326</v>
       </c>
       <c r="G48" t="n">
-        <v>-1340099.609715086</v>
+        <v>-674196.9232664156</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2130,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>22.9</v>
+        <v>23.8</v>
       </c>
       <c r="C49" t="n">
-        <v>22.9</v>
+        <v>23.8</v>
       </c>
       <c r="D49" t="n">
-        <v>22.9</v>
+        <v>23.8</v>
       </c>
       <c r="E49" t="n">
-        <v>22.9</v>
+        <v>23.8</v>
       </c>
       <c r="F49" t="n">
-        <v>39658.7143</v>
+        <v>422.2451</v>
       </c>
       <c r="G49" t="n">
-        <v>-1340099.609715086</v>
+        <v>-674619.1683664155</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2166,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>22.9</v>
+        <v>23.9</v>
       </c>
       <c r="C50" t="n">
-        <v>23.29</v>
+        <v>23.9</v>
       </c>
       <c r="D50" t="n">
-        <v>23.29</v>
+        <v>23.9</v>
       </c>
       <c r="E50" t="n">
-        <v>22.9</v>
+        <v>23.9</v>
       </c>
       <c r="F50" t="n">
-        <v>42432</v>
+        <v>196.4996</v>
       </c>
       <c r="G50" t="n">
-        <v>-1297667.609715086</v>
+        <v>-674422.6687664156</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2202,28 +2202,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>22.98</v>
+        <v>23.9</v>
       </c>
       <c r="C51" t="n">
-        <v>22.98</v>
+        <v>23.9</v>
       </c>
       <c r="D51" t="n">
-        <v>22.98</v>
+        <v>23.9</v>
       </c>
       <c r="E51" t="n">
-        <v>22.98</v>
+        <v>23.9</v>
       </c>
       <c r="F51" t="n">
-        <v>111596</v>
+        <v>211.7842</v>
       </c>
       <c r="G51" t="n">
-        <v>-1409263.609715086</v>
+        <v>-674422.6687664156</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2238,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>22.98</v>
+        <v>23.72</v>
       </c>
       <c r="C52" t="n">
-        <v>23.23</v>
+        <v>23.72</v>
       </c>
       <c r="D52" t="n">
-        <v>23.23</v>
+        <v>23.72</v>
       </c>
       <c r="E52" t="n">
-        <v>22.98</v>
+        <v>23.72</v>
       </c>
       <c r="F52" t="n">
-        <v>11666</v>
+        <v>3089.7502</v>
       </c>
       <c r="G52" t="n">
-        <v>-1397597.609715086</v>
+        <v>-677512.4189664156</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2274,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="C53" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="D53" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="E53" t="n">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="F53" t="n">
-        <v>4079.819</v>
+        <v>381.6198</v>
       </c>
       <c r="G53" t="n">
-        <v>-1401677.428715086</v>
+        <v>-677894.0387664156</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2310,28 +2310,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>23.2</v>
+        <v>23.69</v>
       </c>
       <c r="C54" t="n">
-        <v>23.2</v>
+        <v>23.69</v>
       </c>
       <c r="D54" t="n">
-        <v>23.2</v>
+        <v>23.69</v>
       </c>
       <c r="E54" t="n">
-        <v>23.2</v>
+        <v>23.69</v>
       </c>
       <c r="F54" t="n">
-        <v>9546.845300000001</v>
+        <v>2369.0311</v>
       </c>
       <c r="G54" t="n">
-        <v>-1401677.428715086</v>
+        <v>-680263.0698664156</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>23.1</v>
+        <v>23.67</v>
       </c>
       <c r="C55" t="n">
-        <v>23.13</v>
+        <v>23.67</v>
       </c>
       <c r="D55" t="n">
-        <v>23.13</v>
+        <v>23.67</v>
       </c>
       <c r="E55" t="n">
-        <v>23.1</v>
+        <v>23.67</v>
       </c>
       <c r="F55" t="n">
-        <v>68493.113</v>
+        <v>9281.293100000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-1470170.541715086</v>
+        <v>-689544.3629664156</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>23.14</v>
+        <v>23.64</v>
       </c>
       <c r="C56" t="n">
-        <v>23.14</v>
+        <v>23.41</v>
       </c>
       <c r="D56" t="n">
-        <v>23.14</v>
+        <v>23.64</v>
       </c>
       <c r="E56" t="n">
-        <v>23.14</v>
+        <v>23.41</v>
       </c>
       <c r="F56" t="n">
-        <v>4462.2117</v>
+        <v>9541</v>
       </c>
       <c r="G56" t="n">
-        <v>-1465708.330015086</v>
+        <v>-699085.3629664156</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,28 +2418,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>23.05</v>
+        <v>23.5</v>
       </c>
       <c r="C57" t="n">
-        <v>23.05</v>
+        <v>23.31</v>
       </c>
       <c r="D57" t="n">
-        <v>23.05</v>
+        <v>23.5</v>
       </c>
       <c r="E57" t="n">
-        <v>23.05</v>
+        <v>23.31</v>
       </c>
       <c r="F57" t="n">
-        <v>125</v>
+        <v>105251.1272</v>
       </c>
       <c r="G57" t="n">
-        <v>-1465833.330015086</v>
+        <v>-804336.4901664156</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>23.06</v>
+        <v>23.59</v>
       </c>
       <c r="C58" t="n">
-        <v>23.07</v>
+        <v>23.59</v>
       </c>
       <c r="D58" t="n">
-        <v>23.07</v>
+        <v>23.59</v>
       </c>
       <c r="E58" t="n">
-        <v>23.06</v>
+        <v>23.59</v>
       </c>
       <c r="F58" t="n">
-        <v>250</v>
+        <v>5413.5867</v>
       </c>
       <c r="G58" t="n">
-        <v>-1465583.330015086</v>
+        <v>-798922.9034664156</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>23.08</v>
+        <v>23.59</v>
       </c>
       <c r="C59" t="n">
-        <v>23.08</v>
+        <v>23.6</v>
       </c>
       <c r="D59" t="n">
-        <v>23.08</v>
+        <v>23.6</v>
       </c>
       <c r="E59" t="n">
-        <v>23.08</v>
+        <v>23.59</v>
       </c>
       <c r="F59" t="n">
-        <v>125</v>
+        <v>663.9124</v>
       </c>
       <c r="G59" t="n">
-        <v>-1465458.330015086</v>
+        <v>-798258.9910664156</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>23.01</v>
+        <v>23.6</v>
       </c>
       <c r="C60" t="n">
-        <v>23</v>
+        <v>23.71</v>
       </c>
       <c r="D60" t="n">
-        <v>23.01</v>
+        <v>23.71</v>
       </c>
       <c r="E60" t="n">
-        <v>23</v>
+        <v>23.6</v>
       </c>
       <c r="F60" t="n">
-        <v>30195.01</v>
+        <v>50062.75734588781</v>
       </c>
       <c r="G60" t="n">
-        <v>-1495653.340015086</v>
+        <v>-748196.2337205277</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,28 +2562,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>22.95</v>
+        <v>23.6</v>
       </c>
       <c r="C61" t="n">
-        <v>22.95</v>
+        <v>23.45</v>
       </c>
       <c r="D61" t="n">
-        <v>22.95</v>
+        <v>23.6</v>
       </c>
       <c r="E61" t="n">
-        <v>22.95</v>
+        <v>23.45</v>
       </c>
       <c r="F61" t="n">
-        <v>48734.5426</v>
+        <v>5000</v>
       </c>
       <c r="G61" t="n">
-        <v>-1544387.882615086</v>
+        <v>-753196.2337205277</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>22.8</v>
+        <v>23.45</v>
       </c>
       <c r="C62" t="n">
-        <v>22.8</v>
+        <v>23.45</v>
       </c>
       <c r="D62" t="n">
-        <v>22.8</v>
+        <v>23.45</v>
       </c>
       <c r="E62" t="n">
-        <v>22.8</v>
+        <v>23.45</v>
       </c>
       <c r="F62" t="n">
-        <v>60000</v>
+        <v>616.12</v>
       </c>
       <c r="G62" t="n">
-        <v>-1604387.882615086</v>
+        <v>-753196.2337205277</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>22.8</v>
+        <v>23.45</v>
       </c>
       <c r="C63" t="n">
-        <v>22.8</v>
+        <v>23.45</v>
       </c>
       <c r="D63" t="n">
-        <v>22.8</v>
+        <v>23.45</v>
       </c>
       <c r="E63" t="n">
-        <v>22.8</v>
+        <v>23.45</v>
       </c>
       <c r="F63" t="n">
-        <v>26138</v>
+        <v>4105.1056</v>
       </c>
       <c r="G63" t="n">
-        <v>-1604387.882615086</v>
+        <v>-753196.2337205277</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="C64" t="n">
-        <v>22.9</v>
+        <v>23.45</v>
       </c>
       <c r="D64" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="E64" t="n">
-        <v>22.9</v>
+        <v>23.45</v>
       </c>
       <c r="F64" t="n">
-        <v>4300.1642</v>
+        <v>654.6928</v>
       </c>
       <c r="G64" t="n">
-        <v>-1600087.718415086</v>
+        <v>-753196.2337205277</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>22.9</v>
+        <v>23.61</v>
       </c>
       <c r="C65" t="n">
-        <v>22.94</v>
+        <v>23.47</v>
       </c>
       <c r="D65" t="n">
-        <v>22.94</v>
+        <v>23.61</v>
       </c>
       <c r="E65" t="n">
-        <v>22.9</v>
+        <v>23.47</v>
       </c>
       <c r="F65" t="n">
-        <v>5000</v>
+        <v>8184.86</v>
       </c>
       <c r="G65" t="n">
-        <v>-1595087.718415086</v>
+        <v>-745011.3737205277</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>22.99</v>
+        <v>23.47</v>
       </c>
       <c r="C66" t="n">
-        <v>22.99</v>
+        <v>23.47</v>
       </c>
       <c r="D66" t="n">
-        <v>22.99</v>
+        <v>23.47</v>
       </c>
       <c r="E66" t="n">
-        <v>22.99</v>
+        <v>23.47</v>
       </c>
       <c r="F66" t="n">
-        <v>4290.5413</v>
+        <v>16526.7873</v>
       </c>
       <c r="G66" t="n">
-        <v>-1590797.177115086</v>
+        <v>-745011.3737205277</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>23.1</v>
+        <v>23.47</v>
       </c>
       <c r="C67" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="D67" t="n">
-        <v>23.1</v>
+        <v>23.47</v>
       </c>
       <c r="E67" t="n">
-        <v>23.1</v>
+        <v>23.4</v>
       </c>
       <c r="F67" t="n">
-        <v>23</v>
+        <v>34759.0672</v>
       </c>
       <c r="G67" t="n">
-        <v>-1590774.177115086</v>
+        <v>-779770.4409205278</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>23.12</v>
+        <v>23.3</v>
       </c>
       <c r="C68" t="n">
-        <v>23.12</v>
+        <v>23.24</v>
       </c>
       <c r="D68" t="n">
-        <v>23.12</v>
+        <v>23.3</v>
       </c>
       <c r="E68" t="n">
-        <v>23.12</v>
+        <v>23.23</v>
       </c>
       <c r="F68" t="n">
-        <v>17189.6271</v>
+        <v>75235.5529</v>
       </c>
       <c r="G68" t="n">
-        <v>-1573584.550015086</v>
+        <v>-855005.9938205278</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="C69" t="n">
-        <v>23</v>
+        <v>23.02</v>
       </c>
       <c r="D69" t="n">
-        <v>23</v>
+        <v>23.3</v>
       </c>
       <c r="E69" t="n">
-        <v>23</v>
+        <v>23.02</v>
       </c>
       <c r="F69" t="n">
-        <v>291.2369</v>
+        <v>240849.4162</v>
       </c>
       <c r="G69" t="n">
-        <v>-1573875.786915086</v>
+        <v>-1095855.410020528</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="C70" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="D70" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="E70" t="n">
-        <v>22.9</v>
+        <v>23.2</v>
       </c>
       <c r="F70" t="n">
-        <v>291.2369</v>
+        <v>3009.9761</v>
       </c>
       <c r="G70" t="n">
-        <v>-1574167.023815086</v>
+        <v>-1092845.433920528</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>22.9</v>
+        <v>23.35</v>
       </c>
       <c r="C71" t="n">
-        <v>22.78</v>
+        <v>23.35</v>
       </c>
       <c r="D71" t="n">
-        <v>22.9</v>
+        <v>23.35</v>
       </c>
       <c r="E71" t="n">
-        <v>22.78</v>
+        <v>23.35</v>
       </c>
       <c r="F71" t="n">
-        <v>39658.7143</v>
+        <v>1270.4355</v>
       </c>
       <c r="G71" t="n">
-        <v>-1613825.738115086</v>
+        <v>-1091574.998420528</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>22.9</v>
+        <v>23.35</v>
       </c>
       <c r="C72" t="n">
-        <v>22.9</v>
+        <v>23.35</v>
       </c>
       <c r="D72" t="n">
-        <v>22.9</v>
+        <v>23.35</v>
       </c>
       <c r="E72" t="n">
-        <v>22.9</v>
+        <v>23.35</v>
       </c>
       <c r="F72" t="n">
-        <v>614.481</v>
+        <v>89693.5738</v>
       </c>
       <c r="G72" t="n">
-        <v>-1613211.257115086</v>
+        <v>-1091574.998420528</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>22.7</v>
+        <v>23.36</v>
       </c>
       <c r="C73" t="n">
-        <v>22.7</v>
+        <v>23.36</v>
       </c>
       <c r="D73" t="n">
-        <v>22.7</v>
+        <v>23.36</v>
       </c>
       <c r="E73" t="n">
-        <v>22.7</v>
+        <v>23.36</v>
       </c>
       <c r="F73" t="n">
-        <v>313.736</v>
+        <v>4920.5991</v>
       </c>
       <c r="G73" t="n">
-        <v>-1613524.993115086</v>
+        <v>-1086654.399320528</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>22.7</v>
+        <v>23.36</v>
       </c>
       <c r="C74" t="n">
-        <v>22.7</v>
+        <v>23.36</v>
       </c>
       <c r="D74" t="n">
-        <v>22.7</v>
+        <v>23.36</v>
       </c>
       <c r="E74" t="n">
-        <v>22.7</v>
+        <v>23.36</v>
       </c>
       <c r="F74" t="n">
-        <v>300.745</v>
+        <v>193.0084</v>
       </c>
       <c r="G74" t="n">
-        <v>-1613524.993115086</v>
+        <v>-1086654.399320528</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>22.86</v>
+        <v>23.36</v>
       </c>
       <c r="C75" t="n">
-        <v>22.86</v>
+        <v>23.36</v>
       </c>
       <c r="D75" t="n">
-        <v>22.86</v>
+        <v>23.36</v>
       </c>
       <c r="E75" t="n">
-        <v>22.86</v>
+        <v>23.36</v>
       </c>
       <c r="F75" t="n">
-        <v>22</v>
+        <v>7098.8423</v>
       </c>
       <c r="G75" t="n">
-        <v>-1613502.993115086</v>
+        <v>-1086654.399320528</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>22.87</v>
+        <v>23.4</v>
       </c>
       <c r="C76" t="n">
-        <v>22.87</v>
+        <v>23.4</v>
       </c>
       <c r="D76" t="n">
-        <v>22.87</v>
+        <v>23.4</v>
       </c>
       <c r="E76" t="n">
-        <v>22.87</v>
+        <v>23.4</v>
       </c>
       <c r="F76" t="n">
-        <v>23</v>
+        <v>602.4761</v>
       </c>
       <c r="G76" t="n">
-        <v>-1613479.993115086</v>
+        <v>-1086051.923220528</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
       <c r="C77" t="n">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
       <c r="D77" t="n">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
       <c r="E77" t="n">
-        <v>22.8</v>
+        <v>23.5</v>
       </c>
       <c r="F77" t="n">
-        <v>3087.6011</v>
+        <v>58355.2628</v>
       </c>
       <c r="G77" t="n">
-        <v>-1616567.594215086</v>
+        <v>-1027696.660420528</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>22.65</v>
+        <v>23.5</v>
       </c>
       <c r="C78" t="n">
-        <v>22.6</v>
+        <v>23.5</v>
       </c>
       <c r="D78" t="n">
-        <v>22.65</v>
+        <v>23.5</v>
       </c>
       <c r="E78" t="n">
-        <v>22.6</v>
+        <v>23.5</v>
       </c>
       <c r="F78" t="n">
-        <v>28373.3301</v>
+        <v>36480.3279</v>
       </c>
       <c r="G78" t="n">
-        <v>-1644940.924315086</v>
+        <v>-1027696.660420528</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>22.6</v>
+        <v>23.5</v>
       </c>
       <c r="C79" t="n">
-        <v>22.6</v>
+        <v>23.5</v>
       </c>
       <c r="D79" t="n">
-        <v>22.6</v>
+        <v>23.5</v>
       </c>
       <c r="E79" t="n">
-        <v>22.6</v>
+        <v>23.5</v>
       </c>
       <c r="F79" t="n">
-        <v>120455.5402</v>
+        <v>616.0779</v>
       </c>
       <c r="G79" t="n">
-        <v>-1644940.924315086</v>
+        <v>-1027696.660420528</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>22.74</v>
+        <v>23.5</v>
       </c>
       <c r="C80" t="n">
-        <v>22.74</v>
+        <v>23.5</v>
       </c>
       <c r="D80" t="n">
-        <v>22.74</v>
+        <v>23.5</v>
       </c>
       <c r="E80" t="n">
-        <v>22.74</v>
+        <v>23.5</v>
       </c>
       <c r="F80" t="n">
-        <v>23</v>
+        <v>15772.7713</v>
       </c>
       <c r="G80" t="n">
-        <v>-1644917.924315086</v>
+        <v>-1027696.660420528</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>23.11</v>
+        <v>23.52</v>
       </c>
       <c r="C81" t="n">
-        <v>23.11</v>
+        <v>23.52</v>
       </c>
       <c r="D81" t="n">
-        <v>23.11</v>
+        <v>23.52</v>
       </c>
       <c r="E81" t="n">
-        <v>23.11</v>
+        <v>23.52</v>
       </c>
       <c r="F81" t="n">
-        <v>23</v>
+        <v>25093.9935</v>
       </c>
       <c r="G81" t="n">
-        <v>-1644894.924315086</v>
+        <v>-1002602.666920528</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>23.09</v>
+        <v>23.49</v>
       </c>
       <c r="C82" t="n">
-        <v>23.09</v>
+        <v>23.52</v>
       </c>
       <c r="D82" t="n">
-        <v>23.09</v>
+        <v>23.52</v>
       </c>
       <c r="E82" t="n">
-        <v>23.09</v>
+        <v>23.49</v>
       </c>
       <c r="F82" t="n">
-        <v>23</v>
+        <v>15551.2911</v>
       </c>
       <c r="G82" t="n">
-        <v>-1644917.924315086</v>
+        <v>-1002602.666920528</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>22.9</v>
+        <v>23.42</v>
       </c>
       <c r="C83" t="n">
-        <v>23.1</v>
+        <v>23.54</v>
       </c>
       <c r="D83" t="n">
-        <v>23.1</v>
+        <v>23.54</v>
       </c>
       <c r="E83" t="n">
-        <v>22.79</v>
+        <v>23.42</v>
       </c>
       <c r="F83" t="n">
-        <v>5611.8569</v>
+        <v>25250.9571</v>
       </c>
       <c r="G83" t="n">
-        <v>-1639306.067415086</v>
+        <v>-977351.7098205278</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>23</v>
+        <v>23.54</v>
       </c>
       <c r="C84" t="n">
-        <v>23</v>
+        <v>23.54</v>
       </c>
       <c r="D84" t="n">
-        <v>23</v>
+        <v>23.54</v>
       </c>
       <c r="E84" t="n">
-        <v>23</v>
+        <v>23.54</v>
       </c>
       <c r="F84" t="n">
-        <v>611.8569</v>
+        <v>1746.159</v>
       </c>
       <c r="G84" t="n">
-        <v>-1639917.924315086</v>
+        <v>-977351.7098205278</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>23.01</v>
+        <v>23.86</v>
       </c>
       <c r="C85" t="n">
-        <v>23.01</v>
+        <v>23.86</v>
       </c>
       <c r="D85" t="n">
-        <v>23.01</v>
+        <v>23.86</v>
       </c>
       <c r="E85" t="n">
-        <v>23.01</v>
+        <v>23.86</v>
       </c>
       <c r="F85" t="n">
-        <v>130.0096</v>
+        <v>21</v>
       </c>
       <c r="G85" t="n">
-        <v>-1639787.914715086</v>
+        <v>-977330.7098205278</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>22.9</v>
+        <v>23.85</v>
       </c>
       <c r="C86" t="n">
-        <v>22.9</v>
+        <v>23.55</v>
       </c>
       <c r="D86" t="n">
-        <v>22.9</v>
+        <v>23.85</v>
       </c>
       <c r="E86" t="n">
-        <v>22.9</v>
+        <v>23.55</v>
       </c>
       <c r="F86" t="n">
-        <v>602.2035</v>
+        <v>22255.7658</v>
       </c>
       <c r="G86" t="n">
-        <v>-1640390.118215086</v>
+        <v>-999586.4756205279</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="C87" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="D87" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="E87" t="n">
-        <v>22.9</v>
+        <v>23.6</v>
       </c>
       <c r="F87" t="n">
-        <v>87.33624454148472</v>
+        <v>597.2184999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>-1640390.118215086</v>
+        <v>-998989.2571205279</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="C88" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="D88" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="E88" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="F88" t="n">
-        <v>66808.86719999999</v>
+        <v>7902.7815</v>
       </c>
       <c r="G88" t="n">
-        <v>-1707198.985415086</v>
+        <v>-998989.2571205279</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="C89" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="D89" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="E89" t="n">
-        <v>22.8</v>
+        <v>23.6</v>
       </c>
       <c r="F89" t="n">
-        <v>17190.0941</v>
+        <v>21921.2336</v>
       </c>
       <c r="G89" t="n">
-        <v>-1707198.985415086</v>
+        <v>-998989.2571205279</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>22.89</v>
+        <v>23.6</v>
       </c>
       <c r="C90" t="n">
-        <v>22.89</v>
+        <v>23.6</v>
       </c>
       <c r="D90" t="n">
-        <v>22.89</v>
+        <v>23.6</v>
       </c>
       <c r="E90" t="n">
-        <v>22.89</v>
+        <v>23.6</v>
       </c>
       <c r="F90" t="n">
-        <v>23</v>
+        <v>3428</v>
       </c>
       <c r="G90" t="n">
-        <v>-1707175.985415086</v>
+        <v>-998989.2571205279</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>22.7</v>
+        <v>23.75</v>
       </c>
       <c r="C91" t="n">
-        <v>22.7</v>
+        <v>23.75</v>
       </c>
       <c r="D91" t="n">
-        <v>22.7</v>
+        <v>23.75</v>
       </c>
       <c r="E91" t="n">
-        <v>22.7</v>
+        <v>23.75</v>
       </c>
       <c r="F91" t="n">
-        <v>87.33620000000001</v>
+        <v>8149.405</v>
       </c>
       <c r="G91" t="n">
-        <v>-1707263.321615086</v>
+        <v>-990839.8521205279</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>22.75</v>
+        <v>23.75</v>
       </c>
       <c r="C92" t="n">
-        <v>22.7</v>
+        <v>23.89</v>
       </c>
       <c r="D92" t="n">
-        <v>22.75</v>
+        <v>23.89</v>
       </c>
       <c r="E92" t="n">
-        <v>22.7</v>
+        <v>23.75</v>
       </c>
       <c r="F92" t="n">
-        <v>112897.2611</v>
+        <v>84435.27000544161</v>
       </c>
       <c r="G92" t="n">
-        <v>-1707263.321615086</v>
+        <v>-906404.5821150863</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>22.96</v>
+        <v>23.89</v>
       </c>
       <c r="C93" t="n">
-        <v>22.96</v>
+        <v>23.97</v>
       </c>
       <c r="D93" t="n">
-        <v>22.96</v>
+        <v>23.97</v>
       </c>
       <c r="E93" t="n">
-        <v>22.96</v>
+        <v>23.89</v>
       </c>
       <c r="F93" t="n">
-        <v>546.6738</v>
+        <v>33839.7432</v>
       </c>
       <c r="G93" t="n">
-        <v>-1706716.647815086</v>
+        <v>-872564.8389150862</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>22.7</v>
+        <v>23.89</v>
       </c>
       <c r="C94" t="n">
-        <v>22.7</v>
+        <v>23.89</v>
       </c>
       <c r="D94" t="n">
-        <v>22.7</v>
+        <v>23.89</v>
       </c>
       <c r="E94" t="n">
-        <v>22.7</v>
+        <v>23.89</v>
       </c>
       <c r="F94" t="n">
-        <v>6276.1826</v>
+        <v>3796.4569</v>
       </c>
       <c r="G94" t="n">
-        <v>-1712992.830415086</v>
+        <v>-876361.2958150862</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>22.7</v>
+        <v>23.89</v>
       </c>
       <c r="C95" t="n">
-        <v>22.7</v>
+        <v>23.63</v>
       </c>
       <c r="D95" t="n">
-        <v>22.7</v>
+        <v>23.89</v>
       </c>
       <c r="E95" t="n">
-        <v>22.7</v>
+        <v>23.63</v>
       </c>
       <c r="F95" t="n">
-        <v>941.4272999999999</v>
+        <v>32306.9377</v>
       </c>
       <c r="G95" t="n">
-        <v>-1712992.830415086</v>
+        <v>-908668.2335150862</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>22.92</v>
+        <v>23.7</v>
       </c>
       <c r="C96" t="n">
-        <v>22.92</v>
+        <v>23.7</v>
       </c>
       <c r="D96" t="n">
-        <v>22.92</v>
+        <v>23.7</v>
       </c>
       <c r="E96" t="n">
-        <v>22.92</v>
+        <v>23.7</v>
       </c>
       <c r="F96" t="n">
-        <v>23</v>
+        <v>591.4315</v>
       </c>
       <c r="G96" t="n">
-        <v>-1712969.830415086</v>
+        <v>-908076.8020150863</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>22.7</v>
+        <v>23.6</v>
       </c>
       <c r="C97" t="n">
-        <v>22.7</v>
+        <v>23.57</v>
       </c>
       <c r="D97" t="n">
-        <v>22.7</v>
+        <v>23.6</v>
       </c>
       <c r="E97" t="n">
-        <v>22.7</v>
+        <v>23.57</v>
       </c>
       <c r="F97" t="n">
-        <v>57284.617</v>
+        <v>28578.1007</v>
       </c>
       <c r="G97" t="n">
-        <v>-1770254.447415086</v>
+        <v>-936654.9027150862</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>22.7</v>
+        <v>23.56</v>
       </c>
       <c r="C98" t="n">
-        <v>22.94</v>
+        <v>23.56</v>
       </c>
       <c r="D98" t="n">
-        <v>22.94</v>
+        <v>23.56</v>
       </c>
       <c r="E98" t="n">
-        <v>22.63</v>
+        <v>23.56</v>
       </c>
       <c r="F98" t="n">
-        <v>26729</v>
+        <v>50853.9414</v>
       </c>
       <c r="G98" t="n">
-        <v>-1743525.447415086</v>
+        <v>-987508.8441150862</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>22.62</v>
+        <v>23.56</v>
       </c>
       <c r="C99" t="n">
-        <v>22.62</v>
+        <v>23.56</v>
       </c>
       <c r="D99" t="n">
-        <v>22.62</v>
+        <v>23.56</v>
       </c>
       <c r="E99" t="n">
-        <v>22.62</v>
+        <v>23.56</v>
       </c>
       <c r="F99" t="n">
-        <v>1374.3263</v>
+        <v>1092.115</v>
       </c>
       <c r="G99" t="n">
-        <v>-1744899.773715086</v>
+        <v>-987508.8441150862</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>22.55</v>
+        <v>23.59</v>
       </c>
       <c r="C100" t="n">
-        <v>22.55</v>
+        <v>23.42</v>
       </c>
       <c r="D100" t="n">
-        <v>22.55</v>
+        <v>23.59</v>
       </c>
       <c r="E100" t="n">
-        <v>22.55</v>
+        <v>23.42</v>
       </c>
       <c r="F100" t="n">
-        <v>1492.2794</v>
+        <v>156287.0509</v>
       </c>
       <c r="G100" t="n">
-        <v>-1746392.053115086</v>
+        <v>-1143795.895015086</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>22.7</v>
+        <v>23.42</v>
       </c>
       <c r="C101" t="n">
-        <v>22.7</v>
+        <v>23.42</v>
       </c>
       <c r="D101" t="n">
-        <v>22.7</v>
+        <v>23.42</v>
       </c>
       <c r="E101" t="n">
-        <v>22.7</v>
+        <v>23.42</v>
       </c>
       <c r="F101" t="n">
-        <v>583.1064</v>
+        <v>25212.4065</v>
       </c>
       <c r="G101" t="n">
-        <v>-1745808.946715086</v>
+        <v>-1143795.895015086</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>22.6</v>
+        <v>23.36</v>
       </c>
       <c r="C102" t="n">
-        <v>22.6</v>
+        <v>23.36</v>
       </c>
       <c r="D102" t="n">
-        <v>22.6</v>
+        <v>23.36</v>
       </c>
       <c r="E102" t="n">
-        <v>22.6</v>
+        <v>23.36</v>
       </c>
       <c r="F102" t="n">
-        <v>314.1423</v>
+        <v>1669.1856</v>
       </c>
       <c r="G102" t="n">
-        <v>-1746123.089015086</v>
+        <v>-1145465.080615086</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>22.7</v>
+        <v>23.21</v>
       </c>
       <c r="C103" t="n">
-        <v>22.7</v>
+        <v>23.36</v>
       </c>
       <c r="D103" t="n">
-        <v>22.7</v>
+        <v>23.36</v>
       </c>
       <c r="E103" t="n">
-        <v>22.7</v>
+        <v>23.05</v>
       </c>
       <c r="F103" t="n">
-        <v>23</v>
+        <v>575190.4991</v>
       </c>
       <c r="G103" t="n">
-        <v>-1746100.089015086</v>
+        <v>-1145465.080615086</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>22.7</v>
+        <v>23.1</v>
       </c>
       <c r="C104" t="n">
-        <v>22.75</v>
+        <v>23.3</v>
       </c>
       <c r="D104" t="n">
-        <v>22.75</v>
+        <v>23.36</v>
       </c>
       <c r="E104" t="n">
-        <v>22.7</v>
+        <v>23.1</v>
       </c>
       <c r="F104" t="n">
-        <v>50000</v>
+        <v>55194.4219</v>
       </c>
       <c r="G104" t="n">
-        <v>-1696100.089015086</v>
+        <v>-1200659.502515086</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>22.74</v>
+        <v>23.3</v>
       </c>
       <c r="C105" t="n">
-        <v>22.94</v>
+        <v>23.3</v>
       </c>
       <c r="D105" t="n">
-        <v>22.94</v>
+        <v>23.3</v>
       </c>
       <c r="E105" t="n">
-        <v>22.74</v>
+        <v>23.3</v>
       </c>
       <c r="F105" t="n">
-        <v>62400</v>
+        <v>2655.7495</v>
       </c>
       <c r="G105" t="n">
-        <v>-1633700.089015086</v>
+        <v>-1200659.502515086</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>22.94</v>
+        <v>23.2</v>
       </c>
       <c r="C106" t="n">
-        <v>22.94</v>
+        <v>23.2</v>
       </c>
       <c r="D106" t="n">
-        <v>22.94</v>
+        <v>23.2</v>
       </c>
       <c r="E106" t="n">
-        <v>22.94</v>
+        <v>23.2</v>
       </c>
       <c r="F106" t="n">
-        <v>20050</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
-        <v>-1633700.089015086</v>
+        <v>-1200863.502515086</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>22.95</v>
+        <v>23.3</v>
       </c>
       <c r="C107" t="n">
-        <v>23.09</v>
+        <v>23.3</v>
       </c>
       <c r="D107" t="n">
-        <v>23.09</v>
+        <v>23.3</v>
       </c>
       <c r="E107" t="n">
-        <v>22.95</v>
+        <v>23.3</v>
       </c>
       <c r="F107" t="n">
-        <v>9800</v>
+        <v>1643.4815</v>
       </c>
       <c r="G107" t="n">
-        <v>-1623900.089015086</v>
+        <v>-1199220.021015086</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>23.16</v>
+        <v>23.3</v>
       </c>
       <c r="C108" t="n">
-        <v>23.16</v>
+        <v>23.3</v>
       </c>
       <c r="D108" t="n">
-        <v>23.16</v>
+        <v>23.3</v>
       </c>
       <c r="E108" t="n">
-        <v>23.16</v>
+        <v>23.3</v>
       </c>
       <c r="F108" t="n">
-        <v>23</v>
+        <v>19426.9874</v>
       </c>
       <c r="G108" t="n">
-        <v>-1623877.089015086</v>
+        <v>-1199220.021015086</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>23.11</v>
+        <v>23.39</v>
       </c>
       <c r="C109" t="n">
-        <v>23.11</v>
+        <v>23.39</v>
       </c>
       <c r="D109" t="n">
-        <v>23.11</v>
+        <v>23.39</v>
       </c>
       <c r="E109" t="n">
-        <v>23.11</v>
+        <v>23.39</v>
       </c>
       <c r="F109" t="n">
-        <v>14725.1145</v>
+        <v>772.3848</v>
       </c>
       <c r="G109" t="n">
-        <v>-1638602.203515086</v>
+        <v>-1198447.636215086</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>23.17</v>
+        <v>23.2</v>
       </c>
       <c r="C110" t="n">
-        <v>23.17</v>
+        <v>23.37</v>
       </c>
       <c r="D110" t="n">
-        <v>23.17</v>
+        <v>23.37</v>
       </c>
       <c r="E110" t="n">
-        <v>23.17</v>
+        <v>23.2</v>
       </c>
       <c r="F110" t="n">
-        <v>23</v>
+        <v>4630.2935</v>
       </c>
       <c r="G110" t="n">
-        <v>-1638579.203515086</v>
+        <v>-1203077.929715086</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>23.11</v>
+        <v>23.3</v>
       </c>
       <c r="C111" t="n">
-        <v>23.11</v>
+        <v>23.3</v>
       </c>
       <c r="D111" t="n">
-        <v>23.11</v>
+        <v>23.3</v>
       </c>
       <c r="E111" t="n">
-        <v>23.11</v>
+        <v>23.3</v>
       </c>
       <c r="F111" t="n">
-        <v>5582.3865</v>
+        <v>126</v>
       </c>
       <c r="G111" t="n">
-        <v>-1644161.590015086</v>
+        <v>-1203203.929715086</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="C112" t="n">
-        <v>22.91</v>
+        <v>23.3</v>
       </c>
       <c r="D112" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="E112" t="n">
-        <v>22.91</v>
+        <v>23.3</v>
       </c>
       <c r="F112" t="n">
-        <v>7341.2376</v>
+        <v>203</v>
       </c>
       <c r="G112" t="n">
-        <v>-1651502.827615086</v>
+        <v>-1203203.929715086</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>23.13</v>
+        <v>23.16</v>
       </c>
       <c r="C113" t="n">
-        <v>23.13</v>
+        <v>23.38</v>
       </c>
       <c r="D113" t="n">
-        <v>23.13</v>
+        <v>23.38</v>
       </c>
       <c r="E113" t="n">
-        <v>23.13</v>
+        <v>23.04</v>
       </c>
       <c r="F113" t="n">
-        <v>23</v>
+        <v>51685.1201</v>
       </c>
       <c r="G113" t="n">
-        <v>-1651479.827615086</v>
+        <v>-1151518.809615086</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>23.15</v>
+        <v>23.1</v>
       </c>
       <c r="C114" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="D114" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="E114" t="n">
-        <v>23.15</v>
+        <v>23.1</v>
       </c>
       <c r="F114" t="n">
-        <v>64869.204</v>
+        <v>64529.9182</v>
       </c>
       <c r="G114" t="n">
-        <v>-1586610.623615086</v>
+        <v>-1216048.727815086</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>23.24</v>
+        <v>23.1</v>
       </c>
       <c r="C115" t="n">
-        <v>23.24</v>
+        <v>22.9</v>
       </c>
       <c r="D115" t="n">
-        <v>23.24</v>
+        <v>23.1</v>
       </c>
       <c r="E115" t="n">
-        <v>23.24</v>
+        <v>22.9</v>
       </c>
       <c r="F115" t="n">
-        <v>3754.2161</v>
+        <v>160053.1988</v>
       </c>
       <c r="G115" t="n">
-        <v>-1590364.839715086</v>
+        <v>-1376101.926615086</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>23.29</v>
+        <v>22.9</v>
       </c>
       <c r="C116" t="n">
-        <v>23.29</v>
+        <v>22.8</v>
       </c>
       <c r="D116" t="n">
-        <v>23.29</v>
+        <v>22.96</v>
       </c>
       <c r="E116" t="n">
-        <v>23.29</v>
+        <v>22.8</v>
       </c>
       <c r="F116" t="n">
-        <v>2127.2082</v>
+        <v>55495.1954</v>
       </c>
       <c r="G116" t="n">
-        <v>-1588237.631515086</v>
+        <v>-1431597.122015086</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>23.29</v>
+        <v>22.8</v>
       </c>
       <c r="C117" t="n">
-        <v>23.29</v>
+        <v>22.8</v>
       </c>
       <c r="D117" t="n">
-        <v>23.29</v>
+        <v>22.8</v>
       </c>
       <c r="E117" t="n">
-        <v>23.29</v>
+        <v>22.8</v>
       </c>
       <c r="F117" t="n">
-        <v>9200</v>
+        <v>44539.8832</v>
       </c>
       <c r="G117" t="n">
-        <v>-1588237.631515086</v>
+        <v>-1431597.122015086</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>23.28</v>
+        <v>22.8</v>
       </c>
       <c r="C118" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="D118" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="E118" t="n">
-        <v>23.28</v>
+        <v>22.8</v>
       </c>
       <c r="F118" t="n">
-        <v>10564.9086</v>
+        <v>46972.6835</v>
       </c>
       <c r="G118" t="n">
-        <v>-1577672.722915086</v>
+        <v>-1431597.122015086</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>23.4</v>
+        <v>22.81</v>
       </c>
       <c r="C119" t="n">
-        <v>23.28</v>
+        <v>22.9</v>
       </c>
       <c r="D119" t="n">
-        <v>23.4</v>
+        <v>22.9</v>
       </c>
       <c r="E119" t="n">
-        <v>23.28</v>
+        <v>22.8</v>
       </c>
       <c r="F119" t="n">
-        <v>934.4854</v>
+        <v>91497.5123</v>
       </c>
       <c r="G119" t="n">
-        <v>-1578607.208315086</v>
+        <v>-1340099.609715086</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>23.28</v>
+        <v>22.9</v>
       </c>
       <c r="C120" t="n">
-        <v>23.54</v>
+        <v>22.9</v>
       </c>
       <c r="D120" t="n">
-        <v>23.54</v>
+        <v>22.9</v>
       </c>
       <c r="E120" t="n">
-        <v>23.28</v>
+        <v>22.9</v>
       </c>
       <c r="F120" t="n">
-        <v>10023</v>
+        <v>39658.7143</v>
       </c>
       <c r="G120" t="n">
-        <v>-1568584.208315086</v>
+        <v>-1340099.609715086</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4722,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>23.16</v>
+        <v>22.9</v>
       </c>
       <c r="C121" t="n">
-        <v>23.16</v>
+        <v>23.29</v>
       </c>
       <c r="D121" t="n">
-        <v>23.16</v>
+        <v>23.29</v>
       </c>
       <c r="E121" t="n">
-        <v>23.16</v>
+        <v>22.9</v>
       </c>
       <c r="F121" t="n">
-        <v>973.3475</v>
+        <v>42432</v>
       </c>
       <c r="G121" t="n">
-        <v>-1569557.555815086</v>
+        <v>-1297667.609715086</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>23.26</v>
+        <v>22.98</v>
       </c>
       <c r="C122" t="n">
-        <v>23.26</v>
+        <v>22.98</v>
       </c>
       <c r="D122" t="n">
-        <v>23.26</v>
+        <v>22.98</v>
       </c>
       <c r="E122" t="n">
-        <v>23.26</v>
+        <v>22.98</v>
       </c>
       <c r="F122" t="n">
-        <v>23</v>
+        <v>111596</v>
       </c>
       <c r="G122" t="n">
-        <v>-1569534.555815086</v>
+        <v>-1409263.609715086</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>23.16</v>
+        <v>22.98</v>
       </c>
       <c r="C123" t="n">
-        <v>22.9</v>
+        <v>23.23</v>
       </c>
       <c r="D123" t="n">
-        <v>23.16</v>
+        <v>23.23</v>
       </c>
       <c r="E123" t="n">
-        <v>22.9</v>
+        <v>22.98</v>
       </c>
       <c r="F123" t="n">
-        <v>22224.5179</v>
+        <v>11666</v>
       </c>
       <c r="G123" t="n">
-        <v>-1591759.073715086</v>
+        <v>-1397597.609715086</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>23.17</v>
+        <v>23.2</v>
       </c>
       <c r="C124" t="n">
-        <v>23.17</v>
+        <v>23.2</v>
       </c>
       <c r="D124" t="n">
-        <v>23.17</v>
+        <v>23.2</v>
       </c>
       <c r="E124" t="n">
-        <v>23.17</v>
+        <v>23.2</v>
       </c>
       <c r="F124" t="n">
-        <v>23</v>
+        <v>4079.819</v>
       </c>
       <c r="G124" t="n">
-        <v>-1591736.073715086</v>
+        <v>-1401677.428715086</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>22.88</v>
+        <v>23.2</v>
       </c>
       <c r="C125" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="D125" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="E125" t="n">
-        <v>22.87</v>
+        <v>23.2</v>
       </c>
       <c r="F125" t="n">
-        <v>48648.1921</v>
+        <v>9546.845300000001</v>
       </c>
       <c r="G125" t="n">
-        <v>-1640384.265815086</v>
+        <v>-1401677.428715086</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="C126" t="n">
-        <v>23.05</v>
+        <v>23.13</v>
       </c>
       <c r="D126" t="n">
-        <v>23.05</v>
+        <v>23.13</v>
       </c>
       <c r="E126" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="F126" t="n">
-        <v>72764.2556</v>
+        <v>68493.113</v>
       </c>
       <c r="G126" t="n">
-        <v>-1567620.010215086</v>
+        <v>-1470170.541715086</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>23.05</v>
+        <v>23.14</v>
       </c>
       <c r="C127" t="n">
-        <v>23.05</v>
+        <v>23.14</v>
       </c>
       <c r="D127" t="n">
-        <v>23.05</v>
+        <v>23.14</v>
       </c>
       <c r="E127" t="n">
-        <v>23.05</v>
+        <v>23.14</v>
       </c>
       <c r="F127" t="n">
-        <v>40000</v>
+        <v>4462.2117</v>
       </c>
       <c r="G127" t="n">
-        <v>-1567620.010215086</v>
+        <v>-1465708.330015086</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4986,10 +4986,10 @@
         <v>23.05</v>
       </c>
       <c r="F128" t="n">
-        <v>4551.673</v>
+        <v>125</v>
       </c>
       <c r="G128" t="n">
-        <v>-1567620.010215086</v>
+        <v>-1465833.330015086</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>23.05</v>
+        <v>23.06</v>
       </c>
       <c r="C129" t="n">
-        <v>22.82</v>
+        <v>23.07</v>
       </c>
       <c r="D129" t="n">
-        <v>23.05</v>
+        <v>23.07</v>
       </c>
       <c r="E129" t="n">
-        <v>22.82</v>
+        <v>23.06</v>
       </c>
       <c r="F129" t="n">
-        <v>27487.8622</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
-        <v>-1595107.872415086</v>
+        <v>-1465583.330015086</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5046,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>23.1</v>
+        <v>23.08</v>
       </c>
       <c r="C130" t="n">
-        <v>23.1</v>
+        <v>23.08</v>
       </c>
       <c r="D130" t="n">
-        <v>23.1</v>
+        <v>23.08</v>
       </c>
       <c r="E130" t="n">
-        <v>23.1</v>
+        <v>23.08</v>
       </c>
       <c r="F130" t="n">
-        <v>41532.0076</v>
+        <v>125</v>
       </c>
       <c r="G130" t="n">
-        <v>-1553575.864815087</v>
+        <v>-1465458.330015086</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5082,22 +5082,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>22.9</v>
+        <v>23.01</v>
       </c>
       <c r="C131" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="D131" t="n">
-        <v>22.9</v>
+        <v>23.01</v>
       </c>
       <c r="E131" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="F131" t="n">
-        <v>40000</v>
+        <v>30195.01</v>
       </c>
       <c r="G131" t="n">
-        <v>-1593575.864815087</v>
+        <v>-1495653.340015086</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5118,22 +5118,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>22.86</v>
+        <v>22.95</v>
       </c>
       <c r="C132" t="n">
-        <v>22.82</v>
+        <v>22.95</v>
       </c>
       <c r="D132" t="n">
-        <v>22.86</v>
+        <v>22.95</v>
       </c>
       <c r="E132" t="n">
-        <v>22.82</v>
+        <v>22.95</v>
       </c>
       <c r="F132" t="n">
-        <v>91911.461</v>
+        <v>48734.5426</v>
       </c>
       <c r="G132" t="n">
-        <v>-1685487.325815086</v>
+        <v>-1544387.882615086</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5154,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>22.82</v>
+        <v>22.8</v>
       </c>
       <c r="C133" t="n">
-        <v>22.82</v>
+        <v>22.8</v>
       </c>
       <c r="D133" t="n">
-        <v>22.82</v>
+        <v>22.8</v>
       </c>
       <c r="E133" t="n">
-        <v>22.82</v>
+        <v>22.8</v>
       </c>
       <c r="F133" t="n">
-        <v>1099.7781</v>
+        <v>60000</v>
       </c>
       <c r="G133" t="n">
-        <v>-1685487.325815086</v>
+        <v>-1604387.882615086</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5190,22 +5190,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>22.81</v>
+        <v>22.8</v>
       </c>
       <c r="C134" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="D134" t="n">
-        <v>22.81</v>
+        <v>22.8</v>
       </c>
       <c r="E134" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="F134" t="n">
-        <v>7152.9526</v>
+        <v>26138</v>
       </c>
       <c r="G134" t="n">
-        <v>-1692640.278415086</v>
+        <v>-1604387.882615086</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5226,22 +5226,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>22.65</v>
+        <v>22.9</v>
       </c>
       <c r="C135" t="n">
-        <v>22.65</v>
+        <v>22.9</v>
       </c>
       <c r="D135" t="n">
-        <v>22.65</v>
+        <v>22.9</v>
       </c>
       <c r="E135" t="n">
-        <v>22.65</v>
+        <v>22.9</v>
       </c>
       <c r="F135" t="n">
-        <v>3384.6857</v>
+        <v>4300.1642</v>
       </c>
       <c r="G135" t="n">
-        <v>-1696024.964115086</v>
+        <v>-1600087.718415086</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5262,22 +5262,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="C136" t="n">
-        <v>22.66</v>
+        <v>22.94</v>
       </c>
       <c r="D136" t="n">
-        <v>22.7</v>
+        <v>22.94</v>
       </c>
       <c r="E136" t="n">
-        <v>22.66</v>
+        <v>22.9</v>
       </c>
       <c r="F136" t="n">
-        <v>4161.4121</v>
+        <v>5000</v>
       </c>
       <c r="G136" t="n">
-        <v>-1691863.552015086</v>
+        <v>-1595087.718415086</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5298,35 +5298,31 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>22.89</v>
+        <v>22.99</v>
       </c>
       <c r="C137" t="n">
-        <v>22.89</v>
+        <v>22.99</v>
       </c>
       <c r="D137" t="n">
-        <v>22.89</v>
+        <v>22.99</v>
       </c>
       <c r="E137" t="n">
-        <v>22.89</v>
+        <v>22.99</v>
       </c>
       <c r="F137" t="n">
-        <v>23</v>
+        <v>4290.5413</v>
       </c>
       <c r="G137" t="n">
-        <v>-1691840.552015086</v>
+        <v>-1590797.177115086</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="K137" t="n">
-        <v>22.66</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
@@ -5338,1046 +5334,3854 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D138" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>23</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1590774.177115086</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="C139" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="D139" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="E139" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="F139" t="n">
+        <v>17189.6271</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1573584.550015086</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>23</v>
+      </c>
+      <c r="C140" t="n">
+        <v>23</v>
+      </c>
+      <c r="D140" t="n">
+        <v>23</v>
+      </c>
+      <c r="E140" t="n">
+        <v>23</v>
+      </c>
+      <c r="F140" t="n">
+        <v>291.2369</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1573875.786915086</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C141" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F141" t="n">
+        <v>291.2369</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1574167.023815086</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C142" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="D142" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E142" t="n">
+        <v>22.78</v>
+      </c>
+      <c r="F142" t="n">
+        <v>39658.7143</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1613825.738115086</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C143" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F143" t="n">
+        <v>614.481</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-1613211.257115086</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C144" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D144" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>313.736</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-1613524.993115086</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C145" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D145" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E145" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F145" t="n">
+        <v>300.745</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1613524.993115086</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="C146" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="D146" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="E146" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="F146" t="n">
+        <v>22</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-1613502.993115086</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="C147" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="D147" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="E147" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="F147" t="n">
+        <v>23</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-1613479.993115086</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
         <v>22.8</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C148" t="n">
         <v>22.8</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D148" t="n">
         <v>22.8</v>
       </c>
-      <c r="E138" t="n">
+      <c r="E148" t="n">
         <v>22.8</v>
       </c>
-      <c r="F138" t="n">
-        <v>2296.3744</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-1694136.926415086</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="n">
+      <c r="F148" t="n">
+        <v>3087.6011</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1616567.594215086</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="C149" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="E149" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>28373.3301</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-1644940.924315086</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C150" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D150" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E150" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="F150" t="n">
+        <v>120455.5402</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-1644940.924315086</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="C151" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="D151" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="E151" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="F151" t="n">
+        <v>23</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-1644917.924315086</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="C152" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="D152" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="E152" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="F152" t="n">
+        <v>23</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-1644894.924315086</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="C153" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="D153" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="E153" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="F153" t="n">
+        <v>23</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-1644917.924315086</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C154" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D154" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E154" t="n">
+        <v>22.79</v>
+      </c>
+      <c r="F154" t="n">
+        <v>5611.8569</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-1639306.067415086</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>23</v>
+      </c>
+      <c r="C155" t="n">
+        <v>23</v>
+      </c>
+      <c r="D155" t="n">
+        <v>23</v>
+      </c>
+      <c r="E155" t="n">
+        <v>23</v>
+      </c>
+      <c r="F155" t="n">
+        <v>611.8569</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-1639917.924315086</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="C156" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="D156" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="E156" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="F156" t="n">
+        <v>130.0096</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-1639787.914715086</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C157" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E157" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F157" t="n">
+        <v>602.2035</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-1640390.118215086</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C158" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F158" t="n">
+        <v>87.33624454148472</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-1640390.118215086</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C159" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D159" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E159" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F159" t="n">
+        <v>66808.86719999999</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-1707198.985415086</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C160" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D160" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E160" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F160" t="n">
+        <v>17190.0941</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-1707198.985415086</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
         <v>22.89</v>
       </c>
-      <c r="K138" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="C161" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="D161" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="E161" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="F161" t="n">
+        <v>23</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-1707175.985415086</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C162" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D162" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E162" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F162" t="n">
+        <v>87.33620000000001</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-1707263.321615086</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="C163" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D163" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="E163" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F163" t="n">
+        <v>112897.2611</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-1707263.321615086</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="C164" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="D164" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="E164" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="F164" t="n">
+        <v>546.6738</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-1706716.647815086</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C165" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E165" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6276.1826</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1712992.830415086</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>941.4272999999999</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1712992.830415086</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="C167" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="D167" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="E167" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="F167" t="n">
+        <v>23</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-1712969.830415086</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D168" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F168" t="n">
+        <v>57284.617</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-1770254.447415086</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D169" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="E169" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="F169" t="n">
+        <v>26729</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-1743525.447415086</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="C170" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="D170" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="E170" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1374.3263</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-1744899.773715086</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="K170" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="C171" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="D171" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="E171" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1492.2794</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1746392.053115086</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="K171" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="C139" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="D139" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="E139" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="F139" t="n">
-        <v>23</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-1694113.926415086</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K139" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C172" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D172" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E172" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F172" t="n">
+        <v>583.1064</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-1745808.946715086</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="K172" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C140" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D140" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E140" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F140" t="n">
-        <v>921.6312</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-1695035.557615086</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K140" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C141" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D141" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E141" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1933.15</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-1695035.557615086</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K141" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C173" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D173" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E173" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>314.1423</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-1746123.089015086</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="K173" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C174" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D174" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E174" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F174" t="n">
+        <v>23</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1746100.089015086</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K174" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="C142" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="D142" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="E142" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="F142" t="n">
-        <v>23</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-1695012.557615086</v>
-      </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K142" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="C143" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D143" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="E143" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F143" t="n">
-        <v>373.5288</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-1695386.086415086</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="K143" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C175" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="D175" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="E175" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F175" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1696100.089015086</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="K175" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="C144" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="D144" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="E144" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="F144" t="n">
-        <v>23</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-1695363.086415086</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K144" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="C176" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D176" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="E176" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="F176" t="n">
+        <v>62400</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1633700.089015086</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="K176" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="C145" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="D145" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="E145" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="F145" t="n">
-        <v>10486.634</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-1695363.086415086</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="K145" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="C177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="E177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20050</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1633700.089015086</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="K177" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C146" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D146" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E146" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F146" t="n">
-        <v>9725.5931</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-1705088.679515086</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="K146" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="C178" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="D178" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="E178" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="F178" t="n">
+        <v>9800</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1623900.089015086</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="K178" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C147" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D147" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E147" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F147" t="n">
-        <v>7875.1367</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-1705088.679515086</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K147" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="C179" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="D179" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="E179" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="F179" t="n">
+        <v>23</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1623877.089015086</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="K179" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="C148" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D148" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="E148" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F148" t="n">
-        <v>3087.6011</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-1708176.280615086</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K148" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="C180" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="D180" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="E180" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="F180" t="n">
+        <v>14725.1145</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1638602.203515086</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="K180" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C149" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D149" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E149" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F149" t="n">
-        <v>1826.2576</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-1706350.023015087</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K149" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="C181" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="D181" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="E181" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="F181" t="n">
+        <v>23</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1638579.203515086</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="K181" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="C150" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="D150" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="E150" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="F150" t="n">
-        <v>40023</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-1666327.023015087</v>
-      </c>
-      <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K150" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="C182" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="D182" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="E182" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5582.3865</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1644161.590015086</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="C151" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="D151" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="E151" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="F151" t="n">
-        <v>779.0531</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-1667106.076115086</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="K151" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="D183" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E183" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="F183" t="n">
+        <v>7341.2376</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1651502.827615086</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="C152" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="D152" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="E152" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="F152" t="n">
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="C184" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="D184" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="E184" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="F184" t="n">
         <v>23</v>
       </c>
-      <c r="G152" t="n">
-        <v>-1667083.076115086</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="K152" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="G184" t="n">
+        <v>-1651479.827615086</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="K184" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="C153" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="D153" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="E153" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1500</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-1668583.076115086</v>
-      </c>
-      <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="K153" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="C185" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D185" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E185" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="F185" t="n">
+        <v>64869.204</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1586610.623615086</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="C154" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="D154" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="E154" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="F154" t="n">
-        <v>23</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-1668560.076115086</v>
-      </c>
-      <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="K154" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="C186" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="D186" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="E186" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3754.2161</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1590364.839715086</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="C155" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="D155" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="E155" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1498.2245</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-1670058.300615086</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="K155" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="C187" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="D187" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="E187" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2127.2082</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1588237.631515086</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="C156" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="D156" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="E156" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="F156" t="n">
-        <v>23</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-1670035.300615086</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="K156" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L156" t="inlineStr">
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="C188" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="D188" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="E188" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="F188" t="n">
+        <v>9200</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1588237.631515086</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="C157" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="D157" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="E157" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="F157" t="n">
-        <v>31049.7296</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-1638985.571015086</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="K157" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="C189" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="D189" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="E189" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="F189" t="n">
+        <v>10564.9086</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1577672.722915086</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>23.12</v>
-      </c>
-      <c r="C158" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="D158" t="n">
-        <v>23.12</v>
-      </c>
-      <c r="E158" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="F158" t="n">
-        <v>1194.3396</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-1638985.571015086</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="K158" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C190" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="D190" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="E190" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="F190" t="n">
+        <v>934.4854</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1578607.208315086</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="C159" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="D159" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="E159" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="F159" t="n">
-        <v>188623</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-1827608.571015086</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="C191" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="D191" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="E191" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="F191" t="n">
+        <v>10023</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1568584.208315086</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="C160" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="D160" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="E160" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="F160" t="n">
-        <v>22377.1521</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-1849985.723115087</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="C192" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="D192" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="E192" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="F192" t="n">
+        <v>973.3475</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1569557.555815086</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="C161" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="D161" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="E161" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="F161" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-1889985.723115087</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="C193" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="D193" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="E193" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="F193" t="n">
+        <v>23</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1569534.555815086</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="C194" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D194" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="E194" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F194" t="n">
+        <v>22224.5179</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1591759.073715086</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="C195" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="D195" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="E195" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="F195" t="n">
+        <v>23</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1591736.073715086</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="C196" t="n">
+        <v>23</v>
+      </c>
+      <c r="D196" t="n">
+        <v>23</v>
+      </c>
+      <c r="E196" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="F196" t="n">
+        <v>48648.1921</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1640384.265815086</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>23</v>
+      </c>
+      <c r="C197" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="D197" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="E197" t="n">
+        <v>23</v>
+      </c>
+      <c r="F197" t="n">
+        <v>72764.2556</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1567620.010215086</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="C198" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="D198" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="E198" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="F198" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1567620.010215086</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="C199" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="D199" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="E199" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="F199" t="n">
+        <v>4551.673</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-1567620.010215086</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="C200" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D200" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="E200" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F200" t="n">
+        <v>27487.8622</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-1595107.872415086</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>41532.0076</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1553575.864815087</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C202" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D202" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E202" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F202" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1593575.864815087</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="C203" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D203" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="E203" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F203" t="n">
+        <v>91911.461</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-1685487.325815086</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="C204" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D204" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="E204" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1099.7781</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-1685487.325815086</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="C205" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D205" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="E205" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F205" t="n">
+        <v>7152.9526</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-1692640.278415086</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="C206" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="D206" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="E206" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3384.6857</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-1696024.964115086</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C207" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="D207" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E207" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="F207" t="n">
+        <v>4161.4121</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-1691863.552015086</v>
+      </c>
+      <c r="H207" t="n">
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="K207" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="C208" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="D208" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="E208" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="F208" t="n">
+        <v>23</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-1691840.552015086</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="K208" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C209" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D209" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E209" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2296.3744</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-1694136.926415086</v>
+      </c>
+      <c r="H209" t="n">
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K209" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="C210" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="D210" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="E210" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="F210" t="n">
+        <v>23</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1694113.926415086</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K210" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C211" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D211" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E211" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F211" t="n">
+        <v>921.6312</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-1695035.557615086</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K211" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C212" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D212" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E212" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1933.15</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1695035.557615086</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K212" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="C213" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="D213" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="E213" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="F213" t="n">
+        <v>23</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-1695012.557615086</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K213" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C214" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D214" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E214" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F214" t="n">
+        <v>373.5288</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-1695386.086415086</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="K214" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="C215" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="D215" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="E215" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="F215" t="n">
+        <v>23</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-1695363.086415086</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K215" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="C216" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="D216" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="E216" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="F216" t="n">
+        <v>10486.634</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-1695363.086415086</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="K216" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C217" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D217" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E217" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F217" t="n">
+        <v>9725.5931</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-1705088.679515086</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="K217" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C218" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D218" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E218" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F218" t="n">
+        <v>7875.1367</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-1705088.679515086</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K218" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="C219" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D219" t="n">
+        <v>22.73</v>
+      </c>
+      <c r="E219" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F219" t="n">
+        <v>3087.6011</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-1708176.280615086</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K219" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C220" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D220" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E220" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1826.2576</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-1706350.023015087</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="K220" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C221" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="D221" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="E221" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F221" t="n">
+        <v>40023</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-1666327.023015087</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="K221" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C222" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D222" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E222" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F222" t="n">
+        <v>779.0531</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-1667106.076115086</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="K222" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="C223" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="D223" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="E223" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="F223" t="n">
+        <v>23</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-1667083.076115086</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="K223" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="C224" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D224" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="E224" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1500</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-1668583.076115086</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="K224" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="C225" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="D225" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="E225" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="F225" t="n">
+        <v>23</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-1668560.076115086</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="K225" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="C226" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D226" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="E226" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1498.2245</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-1670058.300615086</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="C227" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="D227" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="E227" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="F227" t="n">
+        <v>23</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-1670035.300615086</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="C228" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="D228" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="E228" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="F228" t="n">
+        <v>31049.7296</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-1638985.571015086</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="C229" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="D229" t="n">
+        <v>23.12</v>
+      </c>
+      <c r="E229" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1194.3396</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-1638985.571015086</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="C230" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="D230" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="E230" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="F230" t="n">
+        <v>188623</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-1827608.571015086</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="C231" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="D231" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="E231" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="F231" t="n">
+        <v>22377.1521</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-1849985.723115087</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="C232" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="D232" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="E232" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="F232" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-1889985.723115087</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-14 BackTest LBA.xlsx
+++ b/BackTest/2020-01-14 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N232"/>
+  <dimension ref="A1:M232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-348900.9466664157</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>-296794.4326664157</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>-299180.9850664157</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-320849.5007664157</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-357452.2852664157</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>1</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>1</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-637029.1634664156</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1639,15 @@
         <v>-637029.1634664156</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1672,15 @@
         <v>-637029.1634664156</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>-637000.0634664156</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-639265.4268664157</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,15 @@
         <v>-639286.4246664157</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1837,15 @@
         <v>-639273.0246664156</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>-639247.1246664156</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-639247.1246664156</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +1936,15 @@
         <v>-671522.7906664156</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-674196.9232664156</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2002,15 @@
         <v>-674619.1683664155</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>-748196.2337205277</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3487,15 @@
         <v>-876361.2958150862</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6216,18 +5731,19 @@
         <v>-1707263.321615086</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>22.89</v>
+      </c>
+      <c r="J162" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6252,18 +5768,23 @@
         <v>-1707263.321615086</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+        <v>22.7</v>
+      </c>
+      <c r="J163" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6288,18 +5809,23 @@
         <v>-1706716.647815086</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+        <v>22.7</v>
+      </c>
+      <c r="J164" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6324,18 +5850,23 @@
         <v>-1712992.830415086</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+        <v>22.96</v>
+      </c>
+      <c r="J165" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6360,18 +5891,23 @@
         <v>-1712992.830415086</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+        <v>22.7</v>
+      </c>
+      <c r="J166" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6396,18 +5932,23 @@
         <v>-1712969.830415086</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+        <v>22.7</v>
+      </c>
+      <c r="J167" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5975,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +6014,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6504,22 +6051,21 @@
         <v>-1744899.773715086</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="K170" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+        <v>22.89</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6544,26 +6090,21 @@
         <v>-1746392.053115086</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="K171" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="L171" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6588,26 +6129,23 @@
         <v>-1745808.946715086</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>22.55</v>
       </c>
       <c r="J172" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="K172" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="L172" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6632,22 +6170,23 @@
         <v>-1746123.089015086</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="J173" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K173" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+        <v>22.89</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6672,26 +6211,23 @@
         <v>-1746100.089015086</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>22.6</v>
       </c>
       <c r="J174" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K174" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L174" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6716,26 +6252,23 @@
         <v>-1696100.089015086</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>22.7</v>
       </c>
       <c r="J175" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K175" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L175" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6760,26 +6293,23 @@
         <v>-1633700.089015086</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>22.75</v>
       </c>
       <c r="J176" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="K176" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L176" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6804,26 +6334,23 @@
         <v>-1633700.089015086</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>22.94</v>
       </c>
       <c r="J177" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="K177" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L177" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6848,26 +6375,23 @@
         <v>-1623900.089015086</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>22.94</v>
       </c>
       <c r="J178" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="K178" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L178" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6892,26 +6416,23 @@
         <v>-1623877.089015086</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>23.09</v>
       </c>
       <c r="J179" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="K179" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L179" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6936,26 +6457,23 @@
         <v>-1638602.203515086</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>23.16</v>
       </c>
       <c r="J180" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="K180" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L180" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6980,26 +6498,23 @@
         <v>-1638579.203515086</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>23.11</v>
       </c>
       <c r="J181" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="K181" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L181" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7026,22 +6541,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7068,22 +6580,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7108,26 +6617,21 @@
         <v>-1651479.827615086</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>22.91</v>
-      </c>
-      <c r="K184" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L184" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7154,22 +6658,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7196,22 +6697,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7238,22 +6736,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7280,22 +6775,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7322,22 +6814,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7364,22 +6853,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L190" t="inlineStr">
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7406,22 +6892,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L191" t="inlineStr">
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7448,22 +6931,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L192" t="inlineStr">
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7490,22 +6970,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7532,22 +7009,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7574,22 +7048,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7616,22 +7087,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7658,22 +7126,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7700,22 +7165,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7742,22 +7204,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7784,22 +7243,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7826,22 +7282,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7868,22 +7321,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7910,22 +7360,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7952,22 +7399,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7992,24 +7436,23 @@
         <v>-1692640.278415086</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L205" t="inlineStr">
+        <v>22.82</v>
+      </c>
+      <c r="J205" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8034,24 +7477,23 @@
         <v>-1696024.964115086</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
         <v>22.7</v>
       </c>
-      <c r="L206" t="inlineStr">
+      <c r="J206" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8076,26 +7518,23 @@
         <v>-1691863.552015086</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>22.65</v>
       </c>
       <c r="J207" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="K207" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L207" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8120,26 +7559,23 @@
         <v>-1691840.552015086</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>22.66</v>
       </c>
       <c r="J208" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="K208" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L208" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8164,26 +7600,23 @@
         <v>-1694136.926415086</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>22.89</v>
       </c>
       <c r="J209" t="n">
         <v>22.89</v>
       </c>
-      <c r="K209" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8208,26 +7641,23 @@
         <v>-1694113.926415086</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="J210" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K210" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L210" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8252,26 +7682,21 @@
         <v>-1695035.557615086</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
         <v>22.89</v>
       </c>
-      <c r="K211" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L211" t="inlineStr">
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8296,26 +7721,21 @@
         <v>-1695035.557615086</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K212" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L212" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8340,26 +7760,21 @@
         <v>-1695012.557615086</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K213" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L213" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8384,26 +7799,21 @@
         <v>-1695386.086415086</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="K214" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L214" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8428,26 +7838,21 @@
         <v>-1695363.086415086</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K215" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L215" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8472,26 +7877,21 @@
         <v>-1695363.086415086</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="K216" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L216" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8516,26 +7916,21 @@
         <v>-1705088.679515086</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="K217" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L217" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8560,26 +7955,23 @@
         <v>-1705088.679515086</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="J218" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K218" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L218" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8604,26 +7996,23 @@
         <v>-1708176.280615086</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I219" t="n">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="J219" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K219" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L219" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8648,26 +8037,21 @@
         <v>-1706350.023015087</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="K220" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L220" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8692,26 +8076,23 @@
         <v>-1666327.023015087</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>22.8</v>
       </c>
       <c r="J221" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="K221" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L221" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8736,26 +8117,21 @@
         <v>-1667106.076115086</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="K222" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L222" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8780,26 +8156,21 @@
         <v>-1667083.076115086</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="K223" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L223" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8824,26 +8195,21 @@
         <v>-1668583.076115086</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="K224" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L224" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8868,26 +8234,23 @@
         <v>-1668560.076115086</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
+        <v>22.82</v>
       </c>
       <c r="J225" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="K225" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L225" t="inlineStr">
+        <v>22.89</v>
+      </c>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8912,24 +8275,23 @@
         <v>-1670058.300615086</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L226" t="inlineStr">
+        <v>22.99</v>
+      </c>
+      <c r="J226" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8956,22 +8318,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8998,22 +8357,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9038,24 +8394,23 @@
         <v>-1638985.571015086</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L229" t="inlineStr">
+        <v>23.06</v>
+      </c>
+      <c r="J229" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9082,22 +8437,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9124,22 +8476,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9166,24 +8515,21 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest LBA.xlsx
+++ b/BackTest/2020-01-14 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -583,7 +583,7 @@
         <v>-348900.9466664157</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-348878.6032664157</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-348453.6032664157</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-296794.4326664157</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-299180.9850664157</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-324189.5266664157</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-320849.5007664157</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-322208.6407664157</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-353115.0548664157</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-438035.7447664157</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-393702.4556664157</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-393702.4556664157</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-382263.5386664157</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-338906.4900664157</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-351647.2027664157</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-330047.2027664157</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-330025.2027664157</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-357452.2852664157</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-594831.7107664157</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-635782.3813664156</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-635761.3814664156</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-637074.1634664156</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-637029.1634664156</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-637029.1634664156</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-637029.1634664156</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-637000.0634664156</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-639265.4268664157</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-639286.4246664157</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-639273.0246664156</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-639247.1246664156</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-639247.1246664156</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-671522.7906664156</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-674196.9232664156</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-674619.1683664155</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-748196.2337205277</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-876361.2958150862</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -5335,10 +5335,14 @@
         <v>-1644940.924315086</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="J150" t="n">
+        <v>22.6</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
@@ -5371,8 +5375,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5414,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5632,10 +5648,14 @@
         <v>-1707198.985415086</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J159" t="n">
+        <v>22.9</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
@@ -5665,11 +5685,19 @@
         <v>-1707198.985415086</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="J160" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5698,11 +5726,19 @@
         <v>-1707175.985415086</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="J161" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5731,7 +5767,7 @@
         <v>-1707263.321615086</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>22.89</v>
@@ -5768,7 +5804,7 @@
         <v>-1707263.321615086</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>22.7</v>
@@ -5809,7 +5845,7 @@
         <v>-1706716.647815086</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>22.7</v>
@@ -5850,7 +5886,7 @@
         <v>-1712992.830415086</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>22.96</v>
@@ -5891,7 +5927,7 @@
         <v>-1712992.830415086</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>22.7</v>
@@ -5932,7 +5968,7 @@
         <v>-1712969.830415086</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>22.7</v>
@@ -5973,9 +6009,11 @@
         <v>-1770254.447415086</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>22.92</v>
+      </c>
       <c r="J168" t="n">
         <v>22.89</v>
       </c>
@@ -6012,9 +6050,11 @@
         <v>-1743525.447415086</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J169" t="n">
         <v>22.89</v>
       </c>
@@ -6051,9 +6091,11 @@
         <v>-1744899.773715086</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>22.94</v>
+      </c>
       <c r="J170" t="n">
         <v>22.89</v>
       </c>
@@ -6090,9 +6132,11 @@
         <v>-1746392.053115086</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>22.62</v>
+      </c>
       <c r="J171" t="n">
         <v>22.89</v>
       </c>
@@ -6129,7 +6173,7 @@
         <v>-1745808.946715086</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>22.55</v>
@@ -6170,7 +6214,7 @@
         <v>-1746123.089015086</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>22.7</v>
@@ -6211,7 +6255,7 @@
         <v>-1746100.089015086</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>22.6</v>
@@ -6252,7 +6296,7 @@
         <v>-1696100.089015086</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>22.7</v>
@@ -6293,7 +6337,7 @@
         <v>-1633700.089015086</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>22.75</v>
@@ -6334,7 +6378,7 @@
         <v>-1633700.089015086</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>22.94</v>
@@ -6375,7 +6419,7 @@
         <v>-1623900.089015086</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>22.94</v>
@@ -6416,7 +6460,7 @@
         <v>-1623877.089015086</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>23.09</v>
@@ -6457,7 +6501,7 @@
         <v>-1638602.203515086</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>23.16</v>
@@ -6498,11 +6542,9 @@
         <v>-1638579.203515086</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>23.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>22.89</v>
       </c>
@@ -7436,11 +7478,9 @@
         <v>-1692640.278415086</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>22.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
         <v>22.89</v>
       </c>
@@ -7477,11 +7517,9 @@
         <v>-1696024.964115086</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="n">
-        <v>22.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
         <v>22.89</v>
       </c>
@@ -7518,7 +7556,7 @@
         <v>-1691863.552015086</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>22.65</v>
@@ -7559,7 +7597,7 @@
         <v>-1691840.552015086</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>22.66</v>
@@ -7600,7 +7638,7 @@
         <v>-1694136.926415086</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>22.89</v>
@@ -7641,7 +7679,7 @@
         <v>-1694113.926415086</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>22.8</v>
@@ -7760,9 +7798,11 @@
         <v>-1695012.557615086</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>22.8</v>
+      </c>
       <c r="J213" t="n">
         <v>22.89</v>
       </c>
@@ -7877,9 +7917,11 @@
         <v>-1695363.086415086</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>22.97</v>
+      </c>
       <c r="J216" t="n">
         <v>22.89</v>
       </c>
@@ -7955,7 +7997,7 @@
         <v>-1705088.679515086</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>22.8</v>
@@ -7996,7 +8038,7 @@
         <v>-1708176.280615086</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>22.8</v>
@@ -8037,9 +8079,11 @@
         <v>-1706350.023015087</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>22.7</v>
+      </c>
       <c r="J220" t="n">
         <v>22.89</v>
       </c>
@@ -8076,7 +8120,7 @@
         <v>-1666327.023015087</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>22.8</v>
@@ -8117,9 +8161,11 @@
         <v>-1667106.076115086</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>23.05</v>
+      </c>
       <c r="J222" t="n">
         <v>22.89</v>
       </c>
@@ -8156,9 +8202,11 @@
         <v>-1667083.076115086</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>22.9</v>
+      </c>
       <c r="J223" t="n">
         <v>22.89</v>
       </c>
@@ -8195,9 +8243,11 @@
         <v>-1668583.076115086</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>23.01</v>
+      </c>
       <c r="J224" t="n">
         <v>22.89</v>
       </c>
@@ -8234,7 +8284,7 @@
         <v>-1668560.076115086</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>22.82</v>
@@ -8275,7 +8325,7 @@
         <v>-1670058.300615086</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>22.99</v>
@@ -8316,9 +8366,11 @@
         <v>-1670035.300615086</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>22.82</v>
+      </c>
       <c r="J227" t="n">
         <v>22.89</v>
       </c>
@@ -8355,9 +8407,11 @@
         <v>-1638985.571015086</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>23.05</v>
+      </c>
       <c r="J228" t="n">
         <v>22.89</v>
       </c>
@@ -8394,11 +8448,9 @@
         <v>-1638985.571015086</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
-      </c>
-      <c r="I229" t="n">
-        <v>23.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
         <v>22.89</v>
       </c>
@@ -8530,6 +8582,6 @@
       <c r="M232" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest LBA.xlsx
+++ b/BackTest/2020-01-14 BackTest LBA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-380821.4692664157</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-247988.2878664157</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-292641.2566664157</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-215609.2566664157</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-348453.6032664157</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-296794.4326664157</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-299180.9850664157</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-324189.5266664157</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-320849.5007664157</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-322208.6407664157</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-353115.0548664157</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-438035.7447664157</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-393702.4556664157</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-393702.4556664157</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-382263.5386664157</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-338906.4900664157</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-351647.2027664157</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-330047.2027664157</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-330025.2027664157</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-342968.0477664156</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-384555.0085664156</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-385139.4949664156</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-384383.6879664157</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-635803.3813664156</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-637029.1634664156</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-639265.4268664157</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-639286.4246664157</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-639247.1246664156</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-639247.1246664156</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-677512.4189664156</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-680263.0698664156</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-689544.3629664156</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-748196.2337205277</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-753196.2337205277</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-753196.2337205277</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-753196.2337205277</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-745011.3737205277</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-745011.3737205277</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-855005.9938205278</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -5335,14 +5335,10 @@
         <v>-1644940.924315086</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J150" t="n">
-        <v>22.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
@@ -5375,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5414,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5648,14 +5632,10 @@
         <v>-1707198.985415086</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="J159" t="n">
-        <v>22.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
@@ -5685,19 +5665,11 @@
         <v>-1707198.985415086</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J160" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5726,19 +5698,11 @@
         <v>-1707175.985415086</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J161" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5767,14 +5731,10 @@
         <v>-1707263.321615086</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="J162" t="n">
-        <v>22.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
@@ -5809,9 +5769,7 @@
       <c r="I163" t="n">
         <v>22.7</v>
       </c>
-      <c r="J163" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -5850,9 +5808,7 @@
       <c r="I164" t="n">
         <v>22.7</v>
       </c>
-      <c r="J164" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5886,14 +5842,10 @@
         <v>-1712992.830415086</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="J165" t="n">
-        <v>22.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5927,14 +5879,10 @@
         <v>-1712992.830415086</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J166" t="n">
-        <v>22.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5968,14 +5916,10 @@
         <v>-1712969.830415086</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J167" t="n">
-        <v>22.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6009,14 +5953,10 @@
         <v>-1770254.447415086</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="J168" t="n">
-        <v>22.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6050,14 +5990,10 @@
         <v>-1743525.447415086</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J169" t="n">
-        <v>22.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6091,14 +6027,10 @@
         <v>-1744899.773715086</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="J170" t="n">
-        <v>22.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6137,9 +6069,7 @@
       <c r="I171" t="n">
         <v>22.62</v>
       </c>
-      <c r="J171" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6178,9 +6108,7 @@
       <c r="I172" t="n">
         <v>22.55</v>
       </c>
-      <c r="J172" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6219,9 +6147,7 @@
       <c r="I173" t="n">
         <v>22.7</v>
       </c>
-      <c r="J173" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6260,9 +6186,7 @@
       <c r="I174" t="n">
         <v>22.6</v>
       </c>
-      <c r="J174" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6301,9 +6225,7 @@
       <c r="I175" t="n">
         <v>22.7</v>
       </c>
-      <c r="J175" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6342,9 +6264,7 @@
       <c r="I176" t="n">
         <v>22.75</v>
       </c>
-      <c r="J176" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6383,9 +6303,7 @@
       <c r="I177" t="n">
         <v>22.94</v>
       </c>
-      <c r="J177" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6419,14 +6337,10 @@
         <v>-1623900.089015086</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="J178" t="n">
-        <v>22.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6460,14 +6374,10 @@
         <v>-1623877.089015086</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="J179" t="n">
-        <v>22.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6501,14 +6411,10 @@
         <v>-1638602.203515086</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="J180" t="n">
-        <v>22.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6545,9 +6451,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6584,9 +6488,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6623,9 +6525,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6662,9 +6562,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6701,9 +6599,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6740,9 +6636,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6779,9 +6673,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6818,9 +6710,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6857,9 +6747,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6896,9 +6784,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6935,9 +6821,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6974,9 +6858,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7013,9 +6895,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7052,9 +6932,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7091,9 +6969,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7130,9 +7006,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7169,9 +7043,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7208,9 +7080,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7247,9 +7117,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7286,9 +7154,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7325,9 +7191,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7364,9 +7228,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7403,9 +7265,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7439,12 +7299,12 @@
         <v>-1685487.325815086</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>22.89</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7478,12 +7338,12 @@
         <v>-1692640.278415086</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>22.89</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7517,12 +7377,12 @@
         <v>-1696024.964115086</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>22.89</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7561,9 +7421,7 @@
       <c r="I207" t="n">
         <v>22.65</v>
       </c>
-      <c r="J207" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7602,9 +7460,7 @@
       <c r="I208" t="n">
         <v>22.66</v>
       </c>
-      <c r="J208" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7643,9 +7499,7 @@
       <c r="I209" t="n">
         <v>22.89</v>
       </c>
-      <c r="J209" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7684,9 +7538,7 @@
       <c r="I210" t="n">
         <v>22.8</v>
       </c>
-      <c r="J210" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7720,12 +7572,12 @@
         <v>-1695035.557615086</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
         <v>22.89</v>
       </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7759,12 +7611,12 @@
         <v>-1695035.557615086</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>22.89</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7803,9 +7655,7 @@
       <c r="I213" t="n">
         <v>22.8</v>
       </c>
-      <c r="J213" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7839,12 +7689,12 @@
         <v>-1695386.086415086</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>22.89</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7881,9 +7731,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7922,9 +7770,7 @@
       <c r="I216" t="n">
         <v>22.97</v>
       </c>
-      <c r="J216" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7958,12 +7804,12 @@
         <v>-1705088.679515086</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>22.89</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8002,9 +7848,7 @@
       <c r="I218" t="n">
         <v>22.8</v>
       </c>
-      <c r="J218" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8043,9 +7887,7 @@
       <c r="I219" t="n">
         <v>22.8</v>
       </c>
-      <c r="J219" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8084,9 +7926,7 @@
       <c r="I220" t="n">
         <v>22.7</v>
       </c>
-      <c r="J220" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8125,9 +7965,7 @@
       <c r="I221" t="n">
         <v>22.8</v>
       </c>
-      <c r="J221" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8166,9 +8004,7 @@
       <c r="I222" t="n">
         <v>23.05</v>
       </c>
-      <c r="J222" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8202,14 +8038,10 @@
         <v>-1667083.076115086</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="J223" t="n">
-        <v>22.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8243,14 +8075,10 @@
         <v>-1668583.076115086</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="J224" t="n">
-        <v>22.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8289,9 +8117,7 @@
       <c r="I225" t="n">
         <v>22.82</v>
       </c>
-      <c r="J225" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8330,9 +8156,7 @@
       <c r="I226" t="n">
         <v>22.99</v>
       </c>
-      <c r="J226" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8371,9 +8195,7 @@
       <c r="I227" t="n">
         <v>22.82</v>
       </c>
-      <c r="J227" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8412,9 +8234,7 @@
       <c r="I228" t="n">
         <v>23.05</v>
       </c>
-      <c r="J228" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8448,12 +8268,12 @@
         <v>-1638985.571015086</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>22.89</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8487,12 +8307,12 @@
         <v>-1827608.571015086</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>22.89</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>23.06</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8529,9 +8349,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>22.89</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8565,12 +8383,12 @@
         <v>-1889985.723115087</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>22.89</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>22.83</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8582,6 +8400,6 @@
       <c r="M232" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest LBA.xlsx
+++ b/BackTest/2020-01-14 BackTest LBA.xlsx
@@ -616,7 +616,7 @@
         <v>-348878.6032664157</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-299180.9850664157</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-329482.8601664157</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-341749.4474664157</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-357452.2852664157</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-342968.0477664156</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-637029.1634664156</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-637029.1634664156</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-637000.0634664156</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-639265.4268664157</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-639286.4246664157</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-639246.3246664157</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-639273.0246664156</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-639247.1246664156</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-639247.1246664156</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-671522.7906664156</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-674196.9232664156</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-674422.6687664156</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-674422.6687664156</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-677894.0387664156</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-699085.3629664156</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-753196.2337205277</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-745011.3737205277</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-745011.3737205277</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-855005.9938205278</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-977351.7098205278</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-977351.7098205278</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-977330.7098205278</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-999586.4756205279</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-998989.2571205279</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-998989.2571205279</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-998989.2571205279</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-990839.8521205279</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-906404.5821150863</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-872564.8389150862</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-876361.2958150862</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-908668.2335150862</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-908076.8020150863</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-936654.9027150862</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-987508.8441150862</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-987508.8441150862</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-1143795.895015086</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-1143795.895015086</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-1145465.080615086</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-1145465.080615086</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-1200659.502515086</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-1200659.502515086</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -5764,1942 +5764,1800 @@
         <v>-1707263.321615086</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="C164" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="D164" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="E164" t="n">
+        <v>22.96</v>
+      </c>
+      <c r="F164" t="n">
+        <v>546.6738</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-1706716.647815086</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
         <v>22.7</v>
       </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
+      <c r="C165" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D165" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E165" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6276.1826</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-1712992.830415086</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C166" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D166" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E166" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>941.4272999999999</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-1712992.830415086</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="C167" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="D167" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="E167" t="n">
+        <v>22.92</v>
+      </c>
+      <c r="F167" t="n">
+        <v>23</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-1712969.830415086</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D168" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F168" t="n">
+        <v>57284.617</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-1770254.447415086</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C169" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D169" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="E169" t="n">
+        <v>22.63</v>
+      </c>
+      <c r="F169" t="n">
+        <v>26729</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-1743525.447415086</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="C170" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="D170" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="E170" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1374.3263</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-1744899.773715086</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="C171" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="D171" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="E171" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1492.2794</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-1746392.053115086</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="J171" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C172" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D172" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E172" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F172" t="n">
+        <v>583.1064</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-1745808.946715086</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>22.55</v>
+      </c>
+      <c r="J172" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C173" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D173" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E173" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>314.1423</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-1746123.089015086</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="J173" t="n">
+        <v>22.62</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C174" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D174" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E174" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F174" t="n">
+        <v>23</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-1746100.089015086</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="J174" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C175" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="D175" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="E175" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F175" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-1696100.089015086</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="J175" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="C176" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D176" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="E176" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="F176" t="n">
+        <v>62400</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-1633700.089015086</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="J176" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="C177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="E177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20050</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1633700.089015086</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="J177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="C178" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="D178" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="E178" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="F178" t="n">
+        <v>9800</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1623900.089015086</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="J178" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="C179" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="D179" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="E179" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="F179" t="n">
+        <v>23</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1623877.089015086</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="J179" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="C180" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="D180" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="E180" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="F180" t="n">
+        <v>14725.1145</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1638602.203515086</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="C181" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="D181" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="E181" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="F181" t="n">
+        <v>23</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1638579.203515086</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="C182" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="D182" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="E182" t="n">
+        <v>23.11</v>
+      </c>
+      <c r="F182" t="n">
+        <v>5582.3865</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1644161.590015086</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="D183" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E183" t="n">
+        <v>22.91</v>
+      </c>
+      <c r="F183" t="n">
+        <v>7341.2376</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1651502.827615086</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="C184" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="D184" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="E184" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="F184" t="n">
+        <v>23</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1651479.827615086</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="C185" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="D185" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="E185" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="F185" t="n">
+        <v>64869.204</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1586610.623615086</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="C186" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="D186" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="E186" t="n">
+        <v>23.24</v>
+      </c>
+      <c r="F186" t="n">
+        <v>3754.2161</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1590364.839715086</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="C187" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="D187" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="E187" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2127.2082</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1588237.631515086</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="C188" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="D188" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="E188" t="n">
+        <v>23.29</v>
+      </c>
+      <c r="F188" t="n">
+        <v>9200</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1588237.631515086</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="C189" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="D189" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="E189" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="F189" t="n">
+        <v>10564.9086</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1577672.722915086</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="C190" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="D190" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="E190" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="F190" t="n">
+        <v>934.4854</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1578607.208315086</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="C191" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="D191" t="n">
+        <v>23.54</v>
+      </c>
+      <c r="E191" t="n">
+        <v>23.28</v>
+      </c>
+      <c r="F191" t="n">
+        <v>10023</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1568584.208315086</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="C192" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="D192" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="E192" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="F192" t="n">
+        <v>973.3475</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1569557.555815086</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="C193" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="D193" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="E193" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="F193" t="n">
+        <v>23</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1569534.555815086</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="C194" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D194" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="E194" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F194" t="n">
+        <v>22224.5179</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1591759.073715086</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="C195" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="D195" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="E195" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="F195" t="n">
+        <v>23</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-1591736.073715086</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="C196" t="n">
+        <v>23</v>
+      </c>
+      <c r="D196" t="n">
+        <v>23</v>
+      </c>
+      <c r="E196" t="n">
+        <v>22.87</v>
+      </c>
+      <c r="F196" t="n">
+        <v>48648.1921</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-1640384.265815086</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>23</v>
+      </c>
+      <c r="C197" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="D197" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="E197" t="n">
+        <v>23</v>
+      </c>
+      <c r="F197" t="n">
+        <v>72764.2556</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-1567620.010215086</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="C198" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="D198" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="E198" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="F198" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-1567620.010215086</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="C199" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="D199" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="E199" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="F199" t="n">
+        <v>4551.673</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-1567620.010215086</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="C200" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D200" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="E200" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F200" t="n">
+        <v>27487.8622</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-1595107.872415086</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="D201" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="E201" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>41532.0076</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1553575.864815087</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C202" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="D202" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E202" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="F202" t="n">
+        <v>40000</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1593575.864815087</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="C203" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D203" t="n">
+        <v>22.86</v>
+      </c>
+      <c r="E203" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F203" t="n">
+        <v>91911.461</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-1685487.325815086</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="C204" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="D204" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="E204" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1099.7781</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-1685487.325815086</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="C205" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D205" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="E205" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F205" t="n">
+        <v>7152.9526</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-1692640.278415086</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="C206" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="D206" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="E206" t="n">
+        <v>22.65</v>
+      </c>
+      <c r="F206" t="n">
+        <v>3384.6857</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-1696024.964115086</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C207" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="D207" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E207" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="F207" t="n">
+        <v>4161.4121</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-1691863.552015086</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="C208" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="D208" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="E208" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="F208" t="n">
+        <v>23</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-1691840.552015086</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="J208" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C209" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D209" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E209" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2296.3744</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-1694136.926415086</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="C210" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="D210" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="E210" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="F210" t="n">
+        <v>23</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1694113.926415086</v>
+      </c>
+      <c r="H210" t="n">
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="J210" t="n">
+        <v>22.66</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C211" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D211" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E211" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F211" t="n">
+        <v>921.6312</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-1695035.557615086</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="J211" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="C212" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D212" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="E212" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1933.15</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1695035.557615086</v>
+      </c>
+      <c r="H212" t="n">
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="J212" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="C213" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="D213" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="E213" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="F213" t="n">
+        <v>23</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-1695012.557615086</v>
+      </c>
+      <c r="H213" t="n">
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="J213" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="C214" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="D214" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="E214" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="F214" t="n">
+        <v>373.5288</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-1695386.086415086</v>
+      </c>
+      <c r="H214" t="n">
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="J214" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="C164" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="D164" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="E164" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="F164" t="n">
-        <v>546.6738</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-1706716.647815086</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C165" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D165" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E165" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F165" t="n">
-        <v>6276.1826</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-1712992.830415086</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C166" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D166" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E166" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F166" t="n">
-        <v>941.4272999999999</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-1712992.830415086</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="C167" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="D167" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="E167" t="n">
-        <v>22.92</v>
-      </c>
-      <c r="F167" t="n">
-        <v>23</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-1712969.830415086</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C168" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D168" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E168" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F168" t="n">
-        <v>57284.617</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-1770254.447415086</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C169" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="D169" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="E169" t="n">
-        <v>22.63</v>
-      </c>
-      <c r="F169" t="n">
-        <v>26729</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-1743525.447415086</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="C170" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="D170" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="E170" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1374.3263</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-1744899.773715086</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="C171" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="D171" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="E171" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1492.2794</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-1746392.053115086</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C172" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D172" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E172" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F172" t="n">
-        <v>583.1064</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-1745808.946715086</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="C173" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="D173" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="E173" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="F173" t="n">
-        <v>314.1423</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-1746123.089015086</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C174" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D174" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E174" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F174" t="n">
-        <v>23</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-1746100.089015086</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C175" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="D175" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="E175" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F175" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-1696100.089015086</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="C176" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="D176" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="E176" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="F176" t="n">
-        <v>62400</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-1633700.089015086</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="C177" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="D177" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="E177" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="F177" t="n">
-        <v>20050</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-1633700.089015086</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="C178" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="D178" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="E178" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="F178" t="n">
-        <v>9800</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-1623900.089015086</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="C179" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="D179" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="E179" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="F179" t="n">
-        <v>23</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-1623877.089015086</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="C180" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="D180" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="E180" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="F180" t="n">
-        <v>14725.1145</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-1638602.203515086</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="C181" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="D181" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="E181" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="F181" t="n">
-        <v>23</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-1638579.203515086</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="C182" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="D182" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="E182" t="n">
-        <v>23.11</v>
-      </c>
-      <c r="F182" t="n">
-        <v>5582.3865</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-1644161.590015086</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C183" t="n">
-        <v>22.91</v>
-      </c>
-      <c r="D183" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="E183" t="n">
-        <v>22.91</v>
-      </c>
-      <c r="F183" t="n">
-        <v>7341.2376</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-1651502.827615086</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="C184" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="D184" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="E184" t="n">
-        <v>23.13</v>
-      </c>
-      <c r="F184" t="n">
-        <v>23</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-1651479.827615086</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>23.15</v>
-      </c>
-      <c r="C185" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="D185" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="E185" t="n">
-        <v>23.15</v>
-      </c>
-      <c r="F185" t="n">
-        <v>64869.204</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-1586610.623615086</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>23.24</v>
-      </c>
-      <c r="C186" t="n">
-        <v>23.24</v>
-      </c>
-      <c r="D186" t="n">
-        <v>23.24</v>
-      </c>
-      <c r="E186" t="n">
-        <v>23.24</v>
-      </c>
-      <c r="F186" t="n">
-        <v>3754.2161</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-1590364.839715086</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="C187" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="D187" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="E187" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="F187" t="n">
-        <v>2127.2082</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-1588237.631515086</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="C188" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="D188" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="E188" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="F188" t="n">
-        <v>9200</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-1588237.631515086</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>23.28</v>
-      </c>
-      <c r="C189" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="D189" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="E189" t="n">
-        <v>23.28</v>
-      </c>
-      <c r="F189" t="n">
-        <v>10564.9086</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-1577672.722915086</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="C190" t="n">
-        <v>23.28</v>
-      </c>
-      <c r="D190" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="E190" t="n">
-        <v>23.28</v>
-      </c>
-      <c r="F190" t="n">
-        <v>934.4854</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-1578607.208315086</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>23.28</v>
-      </c>
-      <c r="C191" t="n">
-        <v>23.54</v>
-      </c>
-      <c r="D191" t="n">
-        <v>23.54</v>
-      </c>
-      <c r="E191" t="n">
-        <v>23.28</v>
-      </c>
-      <c r="F191" t="n">
-        <v>10023</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-1568584.208315086</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="C192" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="D192" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="E192" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="F192" t="n">
-        <v>973.3475</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-1569557.555815086</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>23.26</v>
-      </c>
-      <c r="C193" t="n">
-        <v>23.26</v>
-      </c>
-      <c r="D193" t="n">
-        <v>23.26</v>
-      </c>
-      <c r="E193" t="n">
-        <v>23.26</v>
-      </c>
-      <c r="F193" t="n">
-        <v>23</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-1569534.555815086</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="C194" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="D194" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="E194" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="F194" t="n">
-        <v>22224.5179</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-1591759.073715086</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="C195" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="D195" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="E195" t="n">
-        <v>23.17</v>
-      </c>
-      <c r="F195" t="n">
-        <v>23</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-1591736.073715086</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>22.88</v>
-      </c>
-      <c r="C196" t="n">
-        <v>23</v>
-      </c>
-      <c r="D196" t="n">
-        <v>23</v>
-      </c>
-      <c r="E196" t="n">
-        <v>22.87</v>
-      </c>
-      <c r="F196" t="n">
-        <v>48648.1921</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-1640384.265815086</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>23</v>
-      </c>
-      <c r="C197" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="D197" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="E197" t="n">
-        <v>23</v>
-      </c>
-      <c r="F197" t="n">
-        <v>72764.2556</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-1567620.010215086</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="C198" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="D198" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="E198" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="F198" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-1567620.010215086</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="C199" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="D199" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="E199" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="F199" t="n">
-        <v>4551.673</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-1567620.010215086</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="C200" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="D200" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="E200" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="F200" t="n">
-        <v>27487.8622</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-1595107.872415086</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="C201" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="D201" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="E201" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="F201" t="n">
-        <v>41532.0076</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-1553575.864815087</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="C202" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="D202" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="E202" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="F202" t="n">
-        <v>40000</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-1593575.864815087</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="C203" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="D203" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="E203" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="F203" t="n">
-        <v>91911.461</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-1685487.325815086</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="C204" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="D204" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="E204" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1099.7781</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-1685487.325815086</v>
-      </c>
-      <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>22.81</v>
-      </c>
-      <c r="C205" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D205" t="n">
-        <v>22.81</v>
-      </c>
-      <c r="E205" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F205" t="n">
-        <v>7152.9526</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-1692640.278415086</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="C206" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="D206" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="E206" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="F206" t="n">
-        <v>3384.6857</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-1696024.964115086</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C207" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="D207" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E207" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="F207" t="n">
-        <v>4161.4121</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-1691863.552015086</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>22.65</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="C208" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="D208" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="E208" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="F208" t="n">
-        <v>23</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-1691840.552015086</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C209" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D209" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E209" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F209" t="n">
-        <v>2296.3744</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-1694136.926415086</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="C210" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="D210" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="E210" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="F210" t="n">
-        <v>23</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-1694113.926415086</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C211" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D211" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E211" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F211" t="n">
-        <v>921.6312</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-1695035.557615086</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="C212" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D212" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="E212" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F212" t="n">
-        <v>1933.15</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-1695035.557615086</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="C213" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="D213" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="E213" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="F213" t="n">
-        <v>23</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-1695012.557615086</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="C214" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="D214" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="E214" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="F214" t="n">
-        <v>373.5288</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-1695386.086415086</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7728,10 +7586,14 @@
         <v>-1695363.086415086</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="J215" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7770,7 +7632,9 @@
       <c r="I216" t="n">
         <v>22.97</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7804,12 +7668,12 @@
         <v>-1705088.679515086</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7848,7 +7712,9 @@
       <c r="I218" t="n">
         <v>22.8</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7887,7 +7753,9 @@
       <c r="I219" t="n">
         <v>22.8</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7926,7 +7794,9 @@
       <c r="I220" t="n">
         <v>22.7</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7965,7 +7835,9 @@
       <c r="I221" t="n">
         <v>22.8</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8004,7 +7876,9 @@
       <c r="I222" t="n">
         <v>23.05</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8038,10 +7912,14 @@
         <v>-1667083.076115086</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="J223" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8075,10 +7953,14 @@
         <v>-1668583.076115086</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>23.01</v>
+      </c>
+      <c r="J224" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8117,7 +7999,9 @@
       <c r="I225" t="n">
         <v>22.82</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8156,7 +8040,9 @@
       <c r="I226" t="n">
         <v>22.99</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8195,7 +8081,9 @@
       <c r="I227" t="n">
         <v>22.82</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8229,12 +8117,12 @@
         <v>-1638985.571015086</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8268,12 +8156,12 @@
         <v>-1638985.571015086</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8307,12 +8195,12 @@
         <v>-1827608.571015086</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>23.06</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8349,7 +8237,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8383,12 +8273,12 @@
         <v>-1889985.723115087</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>22.83</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>22.89</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-14 BackTest LBA.xlsx
+++ b/BackTest/2020-01-14 BackTest LBA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M232"/>
+  <dimension ref="A1:L232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>28819.9242</v>
       </c>
       <c r="G2" t="n">
-        <v>-380821.4692664157</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>132833.1814</v>
       </c>
       <c r="G3" t="n">
-        <v>-247988.2878664157</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>44652.9688</v>
       </c>
       <c r="G4" t="n">
-        <v>-292641.2566664157</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>77032</v>
       </c>
       <c r="G5" t="n">
-        <v>-215609.2566664157</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>133291.69</v>
       </c>
       <c r="G6" t="n">
-        <v>-348900.9466664157</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>22.3434</v>
       </c>
       <c r="G7" t="n">
-        <v>-348878.6032664157</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>425</v>
       </c>
       <c r="G8" t="n">
-        <v>-348453.6032664157</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>51659.1706</v>
       </c>
       <c r="G9" t="n">
-        <v>-296794.4326664157</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>2386.5524</v>
       </c>
       <c r="G10" t="n">
-        <v>-299180.9850664157</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>25008.5416</v>
       </c>
       <c r="G11" t="n">
-        <v>-324189.5266664157</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>3340.0259</v>
       </c>
       <c r="G12" t="n">
-        <v>-320849.5007664157</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1359.14</v>
       </c>
       <c r="G13" t="n">
-        <v>-322208.6407664157</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>30906.4141</v>
       </c>
       <c r="G14" t="n">
-        <v>-353115.0548664157</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>84920.6899</v>
       </c>
       <c r="G15" t="n">
-        <v>-438035.7447664157</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>44333.2891</v>
       </c>
       <c r="G16" t="n">
-        <v>-393702.4556664157</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>62710.1577</v>
       </c>
       <c r="G17" t="n">
-        <v>-393702.4556664157</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>11438.917</v>
       </c>
       <c r="G18" t="n">
-        <v>-382263.5386664157</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>43357.0486</v>
       </c>
       <c r="G19" t="n">
-        <v>-338906.4900664157</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>12740.7127</v>
       </c>
       <c r="G20" t="n">
-        <v>-351647.2027664157</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>21600</v>
       </c>
       <c r="G21" t="n">
-        <v>-330047.2027664157</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>-330025.2027664157</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>520</v>
       </c>
       <c r="G23" t="n">
-        <v>-329505.2027664157</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>22.3426</v>
       </c>
       <c r="G24" t="n">
-        <v>-329482.8601664157</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>12266.5873</v>
       </c>
       <c r="G25" t="n">
-        <v>-341749.4474664157</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>15702.8378</v>
       </c>
       <c r="G26" t="n">
-        <v>-357452.2852664157</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>297.7935</v>
       </c>
       <c r="G27" t="n">
-        <v>-357154.4917664157</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>14186.444</v>
       </c>
       <c r="G28" t="n">
-        <v>-342968.0477664156</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>41586.9608</v>
       </c>
       <c r="G29" t="n">
-        <v>-384555.0085664156</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>584.4864</v>
       </c>
       <c r="G30" t="n">
-        <v>-385139.4949664156</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>755.807</v>
       </c>
       <c r="G31" t="n">
-        <v>-384383.6879664157</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>210448.0228</v>
       </c>
       <c r="G32" t="n">
-        <v>-594831.7107664157</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>40971.6706</v>
       </c>
       <c r="G33" t="n">
-        <v>-635803.3813664156</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>21</v>
       </c>
       <c r="G34" t="n">
-        <v>-635782.3813664156</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>20.9999</v>
       </c>
       <c r="G35" t="n">
-        <v>-635761.3814664156</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>1312.782</v>
       </c>
       <c r="G36" t="n">
-        <v>-637074.1634664156</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>45</v>
       </c>
       <c r="G37" t="n">
-        <v>-637029.1634664156</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>20.9997</v>
       </c>
       <c r="G38" t="n">
-        <v>-637029.1634664156</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>33.33</v>
       </c>
       <c r="G39" t="n">
-        <v>-637029.1634664156</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>29.1</v>
       </c>
       <c r="G40" t="n">
-        <v>-637000.0634664156</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>2265.3634</v>
       </c>
       <c r="G41" t="n">
-        <v>-639265.4268664157</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>20.9978</v>
       </c>
       <c r="G42" t="n">
-        <v>-639286.4246664157</v>
-      </c>
-      <c r="H42" t="n">
         <v>2</v>
       </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>40.1</v>
       </c>
       <c r="G43" t="n">
-        <v>-639246.3246664157</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>26.7</v>
       </c>
       <c r="G44" t="n">
-        <v>-639273.0246664156</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>25.9</v>
       </c>
       <c r="G45" t="n">
-        <v>-639247.1246664156</v>
-      </c>
-      <c r="H45" t="n">
         <v>2</v>
       </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>28927.6087</v>
       </c>
       <c r="G46" t="n">
-        <v>-639247.1246664156</v>
-      </c>
-      <c r="H46" t="n">
         <v>2</v>
       </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>32275.666</v>
       </c>
       <c r="G47" t="n">
-        <v>-671522.7906664156</v>
-      </c>
-      <c r="H47" t="n">
         <v>2</v>
       </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>2674.1326</v>
       </c>
       <c r="G48" t="n">
-        <v>-674196.9232664156</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>422.2451</v>
       </c>
       <c r="G49" t="n">
-        <v>-674619.1683664155</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>196.4996</v>
       </c>
       <c r="G50" t="n">
-        <v>-674422.6687664156</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>211.7842</v>
       </c>
       <c r="G51" t="n">
-        <v>-674422.6687664156</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>3089.7502</v>
       </c>
       <c r="G52" t="n">
-        <v>-677512.4189664156</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>381.6198</v>
       </c>
       <c r="G53" t="n">
-        <v>-677894.0387664156</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>2369.0311</v>
       </c>
       <c r="G54" t="n">
-        <v>-680263.0698664156</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>9281.293100000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-689544.3629664156</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>9541</v>
       </c>
       <c r="G56" t="n">
-        <v>-699085.3629664156</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>105251.1272</v>
       </c>
       <c r="G57" t="n">
-        <v>-804336.4901664156</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>5413.5867</v>
       </c>
       <c r="G58" t="n">
-        <v>-798922.9034664156</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>663.9124</v>
       </c>
       <c r="G59" t="n">
-        <v>-798258.9910664156</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>50062.75734588781</v>
       </c>
       <c r="G60" t="n">
-        <v>-748196.2337205277</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>5000</v>
       </c>
       <c r="G61" t="n">
-        <v>-753196.2337205277</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>616.12</v>
       </c>
       <c r="G62" t="n">
-        <v>-753196.2337205277</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>4105.1056</v>
       </c>
       <c r="G63" t="n">
-        <v>-753196.2337205277</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>654.6928</v>
       </c>
       <c r="G64" t="n">
-        <v>-753196.2337205277</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>8184.86</v>
       </c>
       <c r="G65" t="n">
-        <v>-745011.3737205277</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>16526.7873</v>
       </c>
       <c r="G66" t="n">
-        <v>-745011.3737205277</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>34759.0672</v>
       </c>
       <c r="G67" t="n">
-        <v>-779770.4409205278</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>75235.5529</v>
       </c>
       <c r="G68" t="n">
-        <v>-855005.9938205278</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>240849.4162</v>
       </c>
       <c r="G69" t="n">
-        <v>-1095855.410020528</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>3009.9761</v>
       </c>
       <c r="G70" t="n">
-        <v>-1092845.433920528</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1270.4355</v>
       </c>
       <c r="G71" t="n">
-        <v>-1091574.998420528</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>89693.5738</v>
       </c>
       <c r="G72" t="n">
-        <v>-1091574.998420528</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>4920.5991</v>
       </c>
       <c r="G73" t="n">
-        <v>-1086654.399320528</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>193.0084</v>
       </c>
       <c r="G74" t="n">
-        <v>-1086654.399320528</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>7098.8423</v>
       </c>
       <c r="G75" t="n">
-        <v>-1086654.399320528</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>602.4761</v>
       </c>
       <c r="G76" t="n">
-        <v>-1086051.923220528</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>58355.2628</v>
       </c>
       <c r="G77" t="n">
-        <v>-1027696.660420528</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>36480.3279</v>
       </c>
       <c r="G78" t="n">
-        <v>-1027696.660420528</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>616.0779</v>
       </c>
       <c r="G79" t="n">
-        <v>-1027696.660420528</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>15772.7713</v>
       </c>
       <c r="G80" t="n">
-        <v>-1027696.660420528</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>25093.9935</v>
       </c>
       <c r="G81" t="n">
-        <v>-1002602.666920528</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>15551.2911</v>
       </c>
       <c r="G82" t="n">
-        <v>-1002602.666920528</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>25250.9571</v>
       </c>
       <c r="G83" t="n">
-        <v>-977351.7098205278</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>1746.159</v>
       </c>
       <c r="G84" t="n">
-        <v>-977351.7098205278</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>21</v>
       </c>
       <c r="G85" t="n">
-        <v>-977330.7098205278</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>22255.7658</v>
       </c>
       <c r="G86" t="n">
-        <v>-999586.4756205279</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>597.2184999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>-998989.2571205279</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>7902.7815</v>
       </c>
       <c r="G88" t="n">
-        <v>-998989.2571205279</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>21921.2336</v>
       </c>
       <c r="G89" t="n">
-        <v>-998989.2571205279</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>3428</v>
       </c>
       <c r="G90" t="n">
-        <v>-998989.2571205279</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>8149.405</v>
       </c>
       <c r="G91" t="n">
-        <v>-990839.8521205279</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>84435.27000544161</v>
       </c>
       <c r="G92" t="n">
-        <v>-906404.5821150863</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>33839.7432</v>
       </c>
       <c r="G93" t="n">
-        <v>-872564.8389150862</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>3796.4569</v>
       </c>
       <c r="G94" t="n">
-        <v>-876361.2958150862</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>32306.9377</v>
       </c>
       <c r="G95" t="n">
-        <v>-908668.2335150862</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>591.4315</v>
       </c>
       <c r="G96" t="n">
-        <v>-908076.8020150863</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>28578.1007</v>
       </c>
       <c r="G97" t="n">
-        <v>-936654.9027150862</v>
-      </c>
-      <c r="H97" t="n">
         <v>2</v>
       </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>50853.9414</v>
       </c>
       <c r="G98" t="n">
-        <v>-987508.8441150862</v>
-      </c>
-      <c r="H98" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>1092.115</v>
       </c>
       <c r="G99" t="n">
-        <v>-987508.8441150862</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>156287.0509</v>
       </c>
       <c r="G100" t="n">
-        <v>-1143795.895015086</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>25212.4065</v>
       </c>
       <c r="G101" t="n">
-        <v>-1143795.895015086</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>1669.1856</v>
       </c>
       <c r="G102" t="n">
-        <v>-1145465.080615086</v>
-      </c>
-      <c r="H102" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>575190.4991</v>
       </c>
       <c r="G103" t="n">
-        <v>-1145465.080615086</v>
-      </c>
-      <c r="H103" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>55194.4219</v>
       </c>
       <c r="G104" t="n">
-        <v>-1200659.502515086</v>
-      </c>
-      <c r="H104" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>2655.7495</v>
       </c>
       <c r="G105" t="n">
-        <v>-1200659.502515086</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>204</v>
       </c>
       <c r="G106" t="n">
-        <v>-1200863.502515086</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>1643.4815</v>
       </c>
       <c r="G107" t="n">
-        <v>-1199220.021015086</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>19426.9874</v>
       </c>
       <c r="G108" t="n">
-        <v>-1199220.021015086</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>772.3848</v>
       </c>
       <c r="G109" t="n">
-        <v>-1198447.636215086</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>4630.2935</v>
       </c>
       <c r="G110" t="n">
-        <v>-1203077.929715086</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>126</v>
       </c>
       <c r="G111" t="n">
-        <v>-1203203.929715086</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>203</v>
       </c>
       <c r="G112" t="n">
-        <v>-1203203.929715086</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>51685.1201</v>
       </c>
       <c r="G113" t="n">
-        <v>-1151518.809615086</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>64529.9182</v>
       </c>
       <c r="G114" t="n">
-        <v>-1216048.727815086</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>160053.1988</v>
       </c>
       <c r="G115" t="n">
-        <v>-1376101.926615086</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>55495.1954</v>
       </c>
       <c r="G116" t="n">
-        <v>-1431597.122015086</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>44539.8832</v>
       </c>
       <c r="G117" t="n">
-        <v>-1431597.122015086</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>46972.6835</v>
       </c>
       <c r="G118" t="n">
-        <v>-1431597.122015086</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>91497.5123</v>
       </c>
       <c r="G119" t="n">
-        <v>-1340099.609715086</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>39658.7143</v>
       </c>
       <c r="G120" t="n">
-        <v>-1340099.609715086</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>42432</v>
       </c>
       <c r="G121" t="n">
-        <v>-1297667.609715086</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>111596</v>
       </c>
       <c r="G122" t="n">
-        <v>-1409263.609715086</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>11666</v>
       </c>
       <c r="G123" t="n">
-        <v>-1397597.609715086</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>4079.819</v>
       </c>
       <c r="G124" t="n">
-        <v>-1401677.428715086</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>9546.845300000001</v>
       </c>
       <c r="G125" t="n">
-        <v>-1401677.428715086</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>68493.113</v>
       </c>
       <c r="G126" t="n">
-        <v>-1470170.541715086</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>4462.2117</v>
       </c>
       <c r="G127" t="n">
-        <v>-1465708.330015086</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>125</v>
       </c>
       <c r="G128" t="n">
-        <v>-1465833.330015086</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>250</v>
       </c>
       <c r="G129" t="n">
-        <v>-1465583.330015086</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>125</v>
       </c>
       <c r="G130" t="n">
-        <v>-1465458.330015086</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>30195.01</v>
       </c>
       <c r="G131" t="n">
-        <v>-1495653.340015086</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>48734.5426</v>
       </c>
       <c r="G132" t="n">
-        <v>-1544387.882615086</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>60000</v>
       </c>
       <c r="G133" t="n">
-        <v>-1604387.882615086</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>26138</v>
       </c>
       <c r="G134" t="n">
-        <v>-1604387.882615086</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>4300.1642</v>
       </c>
       <c r="G135" t="n">
-        <v>-1600087.718415086</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>5000</v>
       </c>
       <c r="G136" t="n">
-        <v>-1595087.718415086</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>4290.5413</v>
       </c>
       <c r="G137" t="n">
-        <v>-1590797.177115086</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>23</v>
       </c>
       <c r="G138" t="n">
-        <v>-1590774.177115086</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>17189.6271</v>
       </c>
       <c r="G139" t="n">
-        <v>-1573584.550015086</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>291.2369</v>
       </c>
       <c r="G140" t="n">
-        <v>-1573875.786915086</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>291.2369</v>
       </c>
       <c r="G141" t="n">
-        <v>-1574167.023815086</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>39658.7143</v>
       </c>
       <c r="G142" t="n">
-        <v>-1613825.738115086</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>614.481</v>
       </c>
       <c r="G143" t="n">
-        <v>-1613211.257115086</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>313.736</v>
       </c>
       <c r="G144" t="n">
-        <v>-1613524.993115086</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>300.745</v>
       </c>
       <c r="G145" t="n">
-        <v>-1613524.993115086</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>22</v>
       </c>
       <c r="G146" t="n">
-        <v>-1613502.993115086</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>23</v>
       </c>
       <c r="G147" t="n">
-        <v>-1613479.993115086</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>3087.6011</v>
       </c>
       <c r="G148" t="n">
-        <v>-1616567.594215086</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>28373.3301</v>
       </c>
       <c r="G149" t="n">
-        <v>-1644940.924315086</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>120455.5402</v>
       </c>
       <c r="G150" t="n">
-        <v>-1644940.924315086</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>23</v>
       </c>
       <c r="G151" t="n">
-        <v>-1644917.924315086</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>23</v>
       </c>
       <c r="G152" t="n">
-        <v>-1644894.924315086</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>23</v>
       </c>
       <c r="G153" t="n">
-        <v>-1644917.924315086</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>5611.8569</v>
       </c>
       <c r="G154" t="n">
-        <v>-1639306.067415086</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>611.8569</v>
       </c>
       <c r="G155" t="n">
-        <v>-1639917.924315086</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>130.0096</v>
       </c>
       <c r="G156" t="n">
-        <v>-1639787.914715086</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>602.2035</v>
       </c>
       <c r="G157" t="n">
-        <v>-1640390.118215086</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>87.33624454148472</v>
       </c>
       <c r="G158" t="n">
-        <v>-1640390.118215086</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>66808.86719999999</v>
       </c>
       <c r="G159" t="n">
-        <v>-1707198.985415086</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>17190.0941</v>
       </c>
       <c r="G160" t="n">
-        <v>-1707198.985415086</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>23</v>
       </c>
       <c r="G161" t="n">
-        <v>-1707175.985415086</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>87.33620000000001</v>
       </c>
       <c r="G162" t="n">
-        <v>-1707263.321615086</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>112897.2611</v>
       </c>
       <c r="G163" t="n">
-        <v>-1707263.321615086</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>546.6738</v>
       </c>
       <c r="G164" t="n">
-        <v>-1706716.647815086</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>6276.1826</v>
       </c>
       <c r="G165" t="n">
-        <v>-1712992.830415086</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>941.4272999999999</v>
       </c>
       <c r="G166" t="n">
-        <v>-1712992.830415086</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>23</v>
       </c>
       <c r="G167" t="n">
-        <v>-1712969.830415086</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>57284.617</v>
       </c>
       <c r="G168" t="n">
-        <v>-1770254.447415086</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>26729</v>
       </c>
       <c r="G169" t="n">
-        <v>-1743525.447415086</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>1374.3263</v>
       </c>
       <c r="G170" t="n">
-        <v>-1744899.773715086</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,22 +5513,15 @@
         <v>1492.2794</v>
       </c>
       <c r="G171" t="n">
-        <v>-1746392.053115086</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="J171" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6062,305 +5543,261 @@
         <v>583.1064</v>
       </c>
       <c r="G172" t="n">
-        <v>-1745808.946715086</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>22.55</v>
-      </c>
-      <c r="J172" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="K172" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="C173" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="D173" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="E173" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="F173" t="n">
+        <v>314.1423</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C174" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="D174" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="E174" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F174" t="n">
+        <v>23</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
+      </c>
+      <c r="H174" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="I174" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="C175" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="D175" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="E175" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="F175" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="I175" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="J175" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="C176" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D176" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="E176" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="F176" t="n">
+        <v>62400</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="I176" t="n">
         <v>22.6</v>
       </c>
-      <c r="C173" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="D173" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="E173" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="F173" t="n">
-        <v>314.1423</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-1746123.089015086</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J173" t="n">
-        <v>22.62</v>
-      </c>
-      <c r="K173" t="inlineStr">
+      <c r="J176" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C174" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="D174" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="E174" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F174" t="n">
-        <v>23</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-1746100.089015086</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="J174" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="C175" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="D175" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="E175" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="F175" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-1696100.089015086</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J175" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K175" t="inlineStr">
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="C177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="E177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="F177" t="n">
+        <v>20050</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="I177" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="C178" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="D178" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="E178" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="F178" t="n">
+        <v>9800</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="J178" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="C176" t="n">
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="C179" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="D179" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="E179" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="F179" t="n">
+        <v>23</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
         <v>22.94</v>
       </c>
-      <c r="D176" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="E176" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="F176" t="n">
-        <v>62400</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-1633700.089015086</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="J176" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="K176" t="inlineStr">
+      <c r="J179" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="C177" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="D177" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="E177" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="F177" t="n">
-        <v>20050</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-1633700.089015086</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="J177" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="C178" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="D178" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="E178" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="F178" t="n">
-        <v>9800</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-1623900.089015086</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="J178" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="C179" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="D179" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="E179" t="n">
-        <v>23.16</v>
-      </c>
-      <c r="F179" t="n">
-        <v>23</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-1623877.089015086</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>23.09</v>
-      </c>
-      <c r="J179" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6382,18 +5819,15 @@
         <v>14725.1145</v>
       </c>
       <c r="G180" t="n">
-        <v>-1638602.203515086</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6415,18 +5849,15 @@
         <v>23</v>
       </c>
       <c r="G181" t="n">
-        <v>-1638579.203515086</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6448,18 +5879,15 @@
         <v>5582.3865</v>
       </c>
       <c r="G182" t="n">
-        <v>-1644161.590015086</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6481,18 +5909,15 @@
         <v>7341.2376</v>
       </c>
       <c r="G183" t="n">
-        <v>-1651502.827615086</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6514,18 +5939,15 @@
         <v>23</v>
       </c>
       <c r="G184" t="n">
-        <v>-1651479.827615086</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6547,18 +5969,15 @@
         <v>64869.204</v>
       </c>
       <c r="G185" t="n">
-        <v>-1586610.623615086</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6580,18 +5999,15 @@
         <v>3754.2161</v>
       </c>
       <c r="G186" t="n">
-        <v>-1590364.839715086</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6613,18 +6029,15 @@
         <v>2127.2082</v>
       </c>
       <c r="G187" t="n">
-        <v>-1588237.631515086</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6646,18 +6059,15 @@
         <v>9200</v>
       </c>
       <c r="G188" t="n">
-        <v>-1588237.631515086</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6679,18 +6089,15 @@
         <v>10564.9086</v>
       </c>
       <c r="G189" t="n">
-        <v>-1577672.722915086</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6712,18 +6119,15 @@
         <v>934.4854</v>
       </c>
       <c r="G190" t="n">
-        <v>-1578607.208315086</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6745,18 +6149,15 @@
         <v>10023</v>
       </c>
       <c r="G191" t="n">
-        <v>-1568584.208315086</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6778,18 +6179,15 @@
         <v>973.3475</v>
       </c>
       <c r="G192" t="n">
-        <v>-1569557.555815086</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6811,18 +6209,15 @@
         <v>23</v>
       </c>
       <c r="G193" t="n">
-        <v>-1569534.555815086</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6844,18 +6239,15 @@
         <v>22224.5179</v>
       </c>
       <c r="G194" t="n">
-        <v>-1591759.073715086</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6877,18 +6269,15 @@
         <v>23</v>
       </c>
       <c r="G195" t="n">
-        <v>-1591736.073715086</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6910,18 +6299,15 @@
         <v>48648.1921</v>
       </c>
       <c r="G196" t="n">
-        <v>-1640384.265815086</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6943,18 +6329,15 @@
         <v>72764.2556</v>
       </c>
       <c r="G197" t="n">
-        <v>-1567620.010215086</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6976,18 +6359,15 @@
         <v>40000</v>
       </c>
       <c r="G198" t="n">
-        <v>-1567620.010215086</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7009,18 +6389,15 @@
         <v>4551.673</v>
       </c>
       <c r="G199" t="n">
-        <v>-1567620.010215086</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7042,18 +6419,15 @@
         <v>27487.8622</v>
       </c>
       <c r="G200" t="n">
-        <v>-1595107.872415086</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7075,18 +6449,15 @@
         <v>41532.0076</v>
       </c>
       <c r="G201" t="n">
-        <v>-1553575.864815087</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7108,18 +6479,15 @@
         <v>40000</v>
       </c>
       <c r="G202" t="n">
-        <v>-1593575.864815087</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7141,18 +6509,15 @@
         <v>91911.461</v>
       </c>
       <c r="G203" t="n">
-        <v>-1685487.325815086</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7174,18 +6539,15 @@
         <v>1099.7781</v>
       </c>
       <c r="G204" t="n">
-        <v>-1685487.325815086</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7207,18 +6569,15 @@
         <v>7152.9526</v>
       </c>
       <c r="G205" t="n">
-        <v>-1692640.278415086</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7240,18 +6599,15 @@
         <v>3384.6857</v>
       </c>
       <c r="G206" t="n">
-        <v>-1696024.964115086</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7273,18 +6629,15 @@
         <v>4161.4121</v>
       </c>
       <c r="G207" t="n">
-        <v>-1691863.552015086</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7306,22 +6659,15 @@
         <v>23</v>
       </c>
       <c r="G208" t="n">
-        <v>-1691840.552015086</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="J208" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7343,24 +6689,15 @@
         <v>2296.3744</v>
       </c>
       <c r="G209" t="n">
-        <v>-1694136.926415086</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7382,26 +6719,15 @@
         <v>23</v>
       </c>
       <c r="G210" t="n">
-        <v>-1694113.926415086</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J210" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7423,22 +6749,15 @@
         <v>921.6312</v>
       </c>
       <c r="G211" t="n">
-        <v>-1695035.557615086</v>
-      </c>
-      <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="J211" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7460,26 +6779,15 @@
         <v>1933.15</v>
       </c>
       <c r="G212" t="n">
-        <v>-1695035.557615086</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J212" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7501,26 +6809,15 @@
         <v>23</v>
       </c>
       <c r="G213" t="n">
-        <v>-1695012.557615086</v>
-      </c>
-      <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J213" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7542,26 +6839,15 @@
         <v>373.5288</v>
       </c>
       <c r="G214" t="n">
-        <v>-1695386.086415086</v>
-      </c>
-      <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="J214" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7583,26 +6869,15 @@
         <v>23</v>
       </c>
       <c r="G215" t="n">
-        <v>-1695363.086415086</v>
-      </c>
-      <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J215" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7624,26 +6899,15 @@
         <v>10486.634</v>
       </c>
       <c r="G216" t="n">
-        <v>-1695363.086415086</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="J216" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7665,24 +6929,15 @@
         <v>9725.5931</v>
       </c>
       <c r="G217" t="n">
-        <v>-1705088.679515086</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7704,26 +6959,15 @@
         <v>7875.1367</v>
       </c>
       <c r="G218" t="n">
-        <v>-1705088.679515086</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J218" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7745,26 +6989,15 @@
         <v>3087.6011</v>
       </c>
       <c r="G219" t="n">
-        <v>-1708176.280615086</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J219" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7786,26 +7019,15 @@
         <v>1826.2576</v>
       </c>
       <c r="G220" t="n">
-        <v>-1706350.023015087</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>22.7</v>
-      </c>
-      <c r="J220" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7827,26 +7049,15 @@
         <v>40023</v>
       </c>
       <c r="G221" t="n">
-        <v>-1666327.023015087</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="J221" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7868,26 +7079,15 @@
         <v>779.0531</v>
       </c>
       <c r="G222" t="n">
-        <v>-1667106.076115086</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="J222" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7909,26 +7109,15 @@
         <v>23</v>
       </c>
       <c r="G223" t="n">
-        <v>-1667083.076115086</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>22.9</v>
-      </c>
-      <c r="J223" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7950,26 +7139,15 @@
         <v>1500</v>
       </c>
       <c r="G224" t="n">
-        <v>-1668583.076115086</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="J224" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7991,26 +7169,15 @@
         <v>23</v>
       </c>
       <c r="G225" t="n">
-        <v>-1668560.076115086</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="J225" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8032,26 +7199,15 @@
         <v>1498.2245</v>
       </c>
       <c r="G226" t="n">
-        <v>-1670058.300615086</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>22.99</v>
-      </c>
-      <c r="J226" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8073,26 +7229,15 @@
         <v>23</v>
       </c>
       <c r="G227" t="n">
-        <v>-1670035.300615086</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>22.82</v>
-      </c>
-      <c r="J227" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8114,24 +7259,15 @@
         <v>31049.7296</v>
       </c>
       <c r="G228" t="n">
-        <v>-1638985.571015086</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8153,24 +7289,15 @@
         <v>1194.3396</v>
       </c>
       <c r="G229" t="n">
-        <v>-1638985.571015086</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8192,24 +7319,15 @@
         <v>188623</v>
       </c>
       <c r="G230" t="n">
-        <v>-1827608.571015086</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8231,24 +7349,15 @@
         <v>22377.1521</v>
       </c>
       <c r="G231" t="n">
-        <v>-1849985.723115087</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8270,24 +7379,15 @@
         <v>40000</v>
       </c>
       <c r="G232" t="n">
-        <v>-1889985.723115087</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>22.89</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
